--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2180 +418,2428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.64327028787707</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>12.53680492509227</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.005389226279177121</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.005759229407047746</v>
+      </c>
+      <c r="E2">
         <v>0.5478052959880308</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.779327410297032</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>3.21403644733564</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.5522361866056174</v>
+      </c>
+      <c r="I2">
+        <v>4.092962197257503</v>
+      </c>
+      <c r="J2">
         <v>3.308405753812866</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>4.381753881292092</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>28.06476295884764</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>17.65982759504064</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.1666733197933673</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.6927041454225816</v>
       </c>
-      <c r="N2" t="n">
-        <v>74.0007612470784</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>78.64632963406939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.222168745067991</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>9.32414542847771</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.005613777374142834</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.005999197299008067</v>
+      </c>
+      <c r="E3">
         <v>0.5706305166541988</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1.737947703080822</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3.139291413676672</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.3886106498335825</v>
+      </c>
+      <c r="I3">
+        <v>2.880232657329354</v>
+      </c>
+      <c r="J3">
         <v>3.449522586913889</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>4.568653335944361</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>19.72476264560519</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>12.41185996066535</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.1274560680772809</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.5297149347349155</v>
       </c>
-      <c r="N3" t="n">
-        <v>56.81176711627252</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>60.08099584336033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.321760883727208</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>10.08395178757421</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.006062879564074261</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.006479133082928712</v>
+      </c>
+      <c r="E4">
         <v>0.6162809579865347</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.448289752567352</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2.616076178063893</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.5522361866056174</v>
+      </c>
+      <c r="I4">
+        <v>4.092962197257503</v>
+      </c>
+      <c r="J4">
         <v>2.838016310142791</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>3.758755699117861</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>19.46000073089908</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>12.24525781354233</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.05882587757412965</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.2444838160314994</v>
       </c>
-      <c r="N4" t="n">
-        <v>54.69776268679097</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>59.34337732417294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.231911454284654</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>9.398474311432812</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.00741018613386854</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.007918940434690649</v>
+      </c>
+      <c r="E5">
         <v>0.7532322819835426</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.903466531945662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3.438271548312545</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.4499702261230956</v>
+      </c>
+      <c r="I5">
+        <v>3.33500623480241</v>
+      </c>
+      <c r="J5">
         <v>2.383306514595051</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>3.156524123016104</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>17.60666732795631</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>11.07904278368115</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.1078474422192377</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.4482203293910823</v>
       </c>
-      <c r="N5" t="n">
-        <v>51.51437483495202</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>55.29986005017835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.27954247712167</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>9.761859961435482</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.008982043798628533</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.00959871567841291</v>
+      </c>
+      <c r="E6">
         <v>0.9130088266467181</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1.613808581432191</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>2.915056312699767</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.5829159747503738</v>
+      </c>
+      <c r="I6">
+        <v>4.320348985994032</v>
+      </c>
+      <c r="J6">
         <v>2.75961806953111</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>3.654922668755488</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>18.26857211472158</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>11.49554815148872</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.1176517551482593</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.4889676320629989</v>
       </c>
-      <c r="N6" t="n">
-        <v>53.27753859484262</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>58.18142022746681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.257892012195754</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>9.596684665979719</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.007185635038902828</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.007678972542730329</v>
+      </c>
+      <c r="E7">
         <v>0.7304070613173745</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.986225946378082</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>3.587761615630482</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.4397436300748434</v>
+      </c>
+      <c r="I7">
+        <v>3.2592106385569</v>
+      </c>
+      <c r="J7">
         <v>3.1045703282225</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>4.111788002349925</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>18.66571498678074</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>11.74545137217326</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.1078474422192377</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.4482203293910823</v>
       </c>
-      <c r="N7" t="n">
-        <v>55.34974939767706</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>59.04919700381263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.325008453466096</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>10.10872808189258</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.007859288323799968</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.008398876218611294</v>
+      </c>
+      <c r="E8">
         <v>0.7988827233158786</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1.365530338134931</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>2.466586110745956</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.4704234182195999</v>
+      </c>
+      <c r="I8">
+        <v>3.486597427293429</v>
+      </c>
+      <c r="J8">
         <v>2.790977365775782</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>3.696455880900438</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>14.29714339412993</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>8.996515944643347</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.1372603810063025</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.5704622374068319</v>
       </c>
-      <c r="N8" t="n">
-        <v>46.56141019974188</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>50.51897063314971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.807813821314034</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>13.79213717055605</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.004491021899314267</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.004799357839206455</v>
+      </c>
+      <c r="E9">
         <v>0.4565044133233591</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2.731060676269862</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>4.933172221491912</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.6340489549916346</v>
+      </c>
+      <c r="I9">
+        <v>4.699326967221578</v>
+      </c>
+      <c r="J9">
         <v>3.088890680100164</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>4.09102139627745</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>13.90000052207077</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>8.746612723958808</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.09804312929021608</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.4074730267191657</v>
       </c>
-      <c r="N9" t="n">
-        <v>54.05722080327111</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>59.39090506142421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2.204017329458307</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>16.81484507739648</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.006062879564074261</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.006479133082928712</v>
+      </c>
+      <c r="E10">
         <v>0.6162809579865347</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1.613808581432191</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>2.915056312699767</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.6442755510398868</v>
+      </c>
+      <c r="I10">
+        <v>4.775122563467087</v>
+      </c>
+      <c r="J10">
         <v>1.850198478435631</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>2.450459516551975</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>5.295238294122194</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>3.332042942460499</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.2156948844384753</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.8964406587821645</v>
       </c>
-      <c r="N10" t="n">
-        <v>38.21014591332829</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>43.62996028135411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2.122828085986121</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>16.19543771943738</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.005389226279177121</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.005759229407047746</v>
+      </c>
+      <c r="E11">
         <v>0.5478052959880308</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1.365530338134931</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>2.466586110745956</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.7567681075706607</v>
+      </c>
+      <c r="I11">
+        <v>5.608874122167689</v>
+      </c>
+      <c r="J11">
         <v>1.317090442276213</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>1.744394910087847</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>3.309523933826374</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>2.082526839037811</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.03921725171608641</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.1629892106876663</v>
       </c>
-      <c r="N11" t="n">
-        <v>31.3593193642036</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>37.72533159706982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.527440300523416</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>11.65311709440395</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.00741018613386854</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.007918940434690649</v>
+      </c>
+      <c r="E12">
         <v>0.7532322819835426</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1.200011509270091</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>2.167605976110083</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.715861723377652</v>
+      </c>
+      <c r="I12">
+        <v>5.305691737185653</v>
+      </c>
+      <c r="J12">
         <v>0.8310213504838005</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>1.100630121841141</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>4.500952550003867</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>2.832236501091423</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.01960862585804321</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.08149460534383315</v>
       </c>
-      <c r="N12" t="n">
-        <v>26.67476110304706</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>32.69682331791118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1.102008664729154</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>8.407422538698238</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.0116766569382171</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.01247833038193678</v>
+      </c>
+      <c r="E13">
         <v>1.186911474640734</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.8689738515404108</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1.569645706838336</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.6135957628951304</v>
+      </c>
+      <c r="I13">
+        <v>4.547735774730559</v>
+      </c>
+      <c r="J13">
         <v>0.6742248692604419</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.8929640611163978</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>4.633333507356926</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>2.915537574652936</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.04902156464510804</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.2037365133595828</v>
       </c>
-      <c r="N13" t="n">
-        <v>22.51545698377648</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>27.67759019484589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.8259652369237178</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>6.301437521637288</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.006736532848971402</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.007199036758809682</v>
+      </c>
+      <c r="E14">
         <v>0.6847566199850387</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.4551767793783106</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.8221953702486524</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.6033691668468782</v>
+      </c>
+      <c r="I14">
+        <v>4.471940178485053</v>
+      </c>
+      <c r="J14">
         <v>0.4233504993030683</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.5606983639568079</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>2.382857232354988</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>1.499419324107224</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14">
         <v>0.04902156464510804</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14">
         <v>0.2037365133595828</v>
       </c>
-      <c r="N14" t="n">
-        <v>14.21535155874876</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>19.29112340799053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.5206936814682942</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3.972465855711053</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.008982043798628533</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.00959871567841291</v>
+      </c>
+      <c r="E15">
         <v>0.9130088266467181</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.4551767793783106</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.8221953702486524</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.3374776695923217</v>
+      </c>
+      <c r="I15">
+        <v>2.501254676101808</v>
+      </c>
+      <c r="J15">
         <v>0.3763115549360606</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.4983985457393848</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>1.720952445589714</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>1.082913956299662</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15">
         <v>0.01960862585804321</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15">
         <v>0.08149460534383315</v>
       </c>
-      <c r="N15" t="n">
-        <v>10.47220229101835</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>13.31155130859227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.3063540787017198</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2.337230430699019</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.005164675184211407</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.005519261515087423</v>
+      </c>
+      <c r="E16">
         <v>0.524980075321863</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.1655188288648401</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.2989801346358735</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.1533989407237826</v>
+      </c>
+      <c r="I16">
+        <v>1.13693394368264</v>
+      </c>
+      <c r="J16">
         <v>0.3449522586913888</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.456865333594436</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>2.912381061767208</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>1.832623618353274</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16">
         <v>0.01960862585804321</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16">
         <v>0.08149460534383315</v>
       </c>
-      <c r="N16" t="n">
-        <v>9.28615372701571</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>10.57684119775301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.1851114751165868</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.412248776146757</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.003817368614417127</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.004079454163325486</v>
+      </c>
+      <c r="E17">
         <v>0.3880287513248552</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.04137970721621003</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.07474503365896838</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.06135957628951303</v>
+      </c>
+      <c r="I17">
+        <v>0.4547735774730561</v>
+      </c>
+      <c r="J17">
         <v>0.5017487399147474</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.6645313943191798</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>2.780000104414156</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>1.749322544791761</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17">
         <v>0.009804312929021603</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17">
         <v>0.04074730267191658</v>
       </c>
-      <c r="N17" t="n">
-        <v>7.851485511118577</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>8.367880750430055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.1385629755258662</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.057121890916871</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.005838328469108549</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.006239165190968392</v>
+      </c>
+      <c r="E18">
         <v>0.5934557373203668</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.08275941443242006</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.1494900673179368</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.02045319209650434</v>
+      </c>
+      <c r="I18">
+        <v>0.1515911924910187</v>
+      </c>
+      <c r="J18">
         <v>0.4233504993030683</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.5606983639568079</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>1.985714360295825</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>1.249516103422687</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>6.246507740960958</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>6.418952962270341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.08118924347218719</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.6194073579591041</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.002694613139588561</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.002879614703523873</v>
+      </c>
+      <c r="E19">
         <v>0.2739026479940154</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.1241391216486301</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.2242351009769051</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.01022659604825217</v>
+      </c>
+      <c r="I19">
+        <v>0.07579559624550933</v>
+      </c>
+      <c r="J19">
         <v>0.3292726105690532</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.4360987275219618</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>2.912381061767208</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>1.832623618353274</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>6.835944103401928</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>6.922151297259624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.1104173711221745</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.8423940068243815</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.00202095985469142</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.002159711027642904</v>
+      </c>
+      <c r="E20">
         <v>0.2054269859955116</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.1241391216486301</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.2242351009769051</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.08181276838601738</v>
+      </c>
+      <c r="I20">
+        <v>0.6063647699640746</v>
+      </c>
+      <c r="J20">
         <v>0.3135929624467172</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>0.4153321214494873</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>1.58857148823666</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>0.9996128827381492</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>4.825743001293308</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>5.514059290816351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.2219172654906449</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.693046778421551</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.003143715329519987</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.003359550487444519</v>
+      </c>
+      <c r="E21">
         <v>0.3195530893263514</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.1241391216486301</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.2242351009769051</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.05113298024126085</v>
+      </c>
+      <c r="I21">
+        <v>0.3789779812275467</v>
+      </c>
+      <c r="J21">
         <v>0.4233504993030683</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>0.5606983639568079</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>3.309523933826374</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>2.082526839037811</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.02941293878706482</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.1222419080157497</v>
       </c>
-      <c r="N21" t="n">
-        <v>9.11378955412048</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>9.544116350747213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.658174133747864</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>5.021328981855138</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.00404191970938284</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.004319422055285808</v>
+      </c>
+      <c r="E22">
         <v>0.4108539719910232</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.7862144371079911</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>1.420155639520399</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.2249851130615478</v>
+      </c>
+      <c r="I22">
+        <v>1.667503117401205</v>
+      </c>
+      <c r="J22">
         <v>0.9721381835848235</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>1.28752957649341</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>6.354285952946638</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>3.998451530952597</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.009804312929021603</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.04074730267191658</v>
       </c>
-      <c r="N22" t="n">
-        <v>20.96372594351021</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>22.85649167631886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.117163990177295</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>8.52304524551727</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.002919164234554275</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.003119582595484196</v>
+      </c>
+      <c r="E23">
         <v>0.2967278686601834</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1.075872387621461</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>1.943370875133178</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.6033691668468782</v>
+      </c>
+      <c r="I23">
+        <v>4.471940178485053</v>
+      </c>
+      <c r="J23">
         <v>1.332770090398548</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>1.765161516160322</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>8.737143185301628</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>5.497870855059822</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.1176517551482593</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.4889676320629989</v>
       </c>
-      <c r="N23" t="n">
-        <v>30.89866456547552</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>35.97417432916838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.75477018224554</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>13.38745769668943</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.002919164234554275</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.003119582595484196</v>
+      </c>
+      <c r="E24">
         <v>0.2967278686601834</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1.075872387621461</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>1.943370875133178</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.7567681075706607</v>
+      </c>
+      <c r="I24">
+        <v>5.608874122167689</v>
+      </c>
+      <c r="J24">
         <v>1.991315311536654</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>2.637358971204244</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>9.928571801479121</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>6.247580517113434</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.2058905715094538</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.8556933561102479</v>
       </c>
-      <c r="N24" t="n">
-        <v>40.3275287035375</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>46.69337135163678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.706056636162227</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>13.01581328191398</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.004940124089245695</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.005279293623127099</v>
+      </c>
+      <c r="E25">
         <v>0.5021548546556949</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1.158631802053881</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>2.092860942451115</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.715861723377652</v>
+      </c>
+      <c r="I25">
+        <v>5.305691737185653</v>
+      </c>
+      <c r="J25">
         <v>1.662042700967601</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>2.201260243682283</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>11.91428616177495</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>7.497096620536118</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.03921725171608641</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.1629892106876663</v>
       </c>
-      <c r="N25" t="n">
-        <v>41.95734983069086</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>47.97924246078804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.64327028787707</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>12.53680492509227</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.005389226279177121</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.005759229407047746</v>
+      </c>
+      <c r="E26">
         <v>0.5478052959880308</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1.779327410297032</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>3.21403644733564</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.5522361866056174</v>
+      </c>
+      <c r="I26">
+        <v>4.092962197257503</v>
+      </c>
+      <c r="J26">
         <v>3.308405753812866</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>4.381753881292092</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>28.06476295884764</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>17.65982759504064</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.1666733197933673</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.6927041454225816</v>
       </c>
-      <c r="N26" t="n">
-        <v>74.0007612470784</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>78.64632963406939</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.341246302160533</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>10.23260955348439</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.006062879564074261</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.006479133082928712</v>
+      </c>
+      <c r="E27">
         <v>0.6162809579865347</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1.158631802053881</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2.092860942451115</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.5420095905573653</v>
+      </c>
+      <c r="I27">
+        <v>4.017166601011994</v>
+      </c>
+      <c r="J27">
         <v>3.198648216956515</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>4.236387638784771</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>24.22571519560906</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>15.24409646175678</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.1274560680772809</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.5297149347349155</v>
       </c>
-      <c r="N27" t="n">
-        <v>63.00971095361984</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>67.56930339870806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.440838440819749</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>10.9924159125809</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.01077845255835424</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.01151845881409549</v>
+      </c>
+      <c r="E28">
         <v>1.095610591976062</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1.737947703080822</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>3.139291413676672</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.6033691668468782</v>
+      </c>
+      <c r="I28">
+        <v>4.471940178485053</v>
+      </c>
+      <c r="J28">
         <v>2.383306514595051</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>3.156524123016104</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>21.57809604854796</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>13.57807499052653</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.08823881636119446</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.3667257240472492</v>
       </c>
-      <c r="N28" t="n">
-        <v>59.56784873178665</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>64.64389808337431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.302275465293883</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>9.93529402166403</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.005164675184211407</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.005519261515087423</v>
+      </c>
+      <c r="E29">
         <v>0.524980075321863</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>1.572428874215982</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2.840311279040798</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.654502147088139</v>
+      </c>
+      <c r="I29">
+        <v>4.850918159712597</v>
+      </c>
+      <c r="J29">
         <v>2.101072848393005</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>2.782725213711565</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>13.63523860736466</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>8.580010576835782</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.01960862585804321</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.08149460534383315</v>
       </c>
-      <c r="N29" t="n">
-        <v>43.38060486822766</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>48.88637976135927</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.367226860071632</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>10.43081990803131</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.005613777374142834</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.005999197299008067</v>
+      </c>
+      <c r="E30">
         <v>0.5706305166541988</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1.489669459783561</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>2.690821211722861</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.5420095905573653</v>
+      </c>
+      <c r="I30">
+        <v>4.017166601011994</v>
+      </c>
+      <c r="J30">
         <v>3.230007513201187</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>4.27792085092972</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>16.68000062648493</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>10.49593526875057</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.07843450343217283</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.3259784213753326</v>
       </c>
-      <c r="N30" t="n">
-        <v>51.64305891781163</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>56.20262052930585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1.397537510967916</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>10.66206532166938</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.005613777374142834</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.005999197299008067</v>
+      </c>
+      <c r="E31">
         <v>0.5706305166541988</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1.572428874215982</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>2.840311279040798</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.5726893787021217</v>
+      </c>
+      <c r="I31">
+        <v>4.244553389748522</v>
+      </c>
+      <c r="J31">
         <v>2.571462292063081</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>3.405723395885797</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>15.48857201030743</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>9.746225606696958</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.1960862585804322</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.8149460534383314</v>
       </c>
-      <c r="N31" t="n">
-        <v>49.27160289689444</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>54.08923108526997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.644352811123366</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>12.54506368986505</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.006062879564074261</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.006479133082928712</v>
+      </c>
+      <c r="E32">
         <v>0.6162809579865347</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>0.9931129731890411</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1.793880807815241</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.6238223589433824</v>
+      </c>
+      <c r="I32">
+        <v>4.623531370976069</v>
+      </c>
+      <c r="J32">
         <v>3.041851735733156</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>4.028721578060028</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>14.56190530883604</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>9.163118091766369</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.1372603810063025</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.5704622374068319</v>
       </c>
-      <c r="N32" t="n">
-        <v>49.10207345235204</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>54.34984343579034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.807813821314034</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>13.79213717055605</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.004491021899314267</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.004799357839206455</v>
+      </c>
+      <c r="E33">
         <v>0.4565044133233591</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>2.731060676269862</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>4.933172221491912</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.6340489549916346</v>
+      </c>
+      <c r="I33">
+        <v>4.699326967221578</v>
+      </c>
+      <c r="J33">
         <v>3.088890680100164</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>4.09102139627745</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>13.90000052207077</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>8.746612723958808</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.09804312929021608</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.4074730267191657</v>
       </c>
-      <c r="N33" t="n">
-        <v>54.05722080327111</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>59.39090506142421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2.204017329458307</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>16.81484507739648</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.006062879564074261</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.006479133082928712</v>
+      </c>
+      <c r="E34">
         <v>0.6162809579865347</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1.613808581432191</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>2.915056312699767</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.6442755510398868</v>
+      </c>
+      <c r="I34">
+        <v>4.775122563467087</v>
+      </c>
+      <c r="J34">
         <v>1.850198478435631</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>2.450459516551975</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>5.295238294122194</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>3.332042942460499</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.2156948844384753</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.8964406587821645</v>
       </c>
-      <c r="N34" t="n">
-        <v>38.21014591332829</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>43.62996028135411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2.122828085986121</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>16.19543771943738</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.005389226279177121</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.005759229407047746</v>
+      </c>
+      <c r="E35">
         <v>0.5478052959880308</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.365530338134931</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>2.466586110745956</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.7567681075706607</v>
+      </c>
+      <c r="I35">
+        <v>5.608874122167689</v>
+      </c>
+      <c r="J35">
         <v>1.317090442276213</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>1.744394910087847</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>3.309523933826374</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>2.082526839037811</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.03921725171608641</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.1629892106876663</v>
       </c>
-      <c r="N35" t="n">
-        <v>31.3593193642036</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>37.72533159706982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1.527440300523416</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>11.65311709440395</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.00741018613386854</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.007918940434690649</v>
+      </c>
+      <c r="E36">
         <v>0.7532322819835426</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>1.200011509270091</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>2.167605976110083</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.715861723377652</v>
+      </c>
+      <c r="I36">
+        <v>5.305691737185653</v>
+      </c>
+      <c r="J36">
         <v>0.8310213504838005</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>1.100630121841141</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>4.500952550003867</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>2.832236501091423</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.01960862585804321</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.08149460534383315</v>
       </c>
-      <c r="N36" t="n">
-        <v>26.67476110304706</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>32.69682331791118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1.102008664729154</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>8.407422538698238</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.0116766569382171</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.01247833038193678</v>
+      </c>
+      <c r="E37">
         <v>1.186911474640734</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.8689738515404108</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>1.569645706838336</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.6135957628951304</v>
+      </c>
+      <c r="I37">
+        <v>4.547735774730559</v>
+      </c>
+      <c r="J37">
         <v>0.6742248692604419</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>0.8929640611163978</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>4.633333507356926</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>2.915537574652936</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.04902156464510804</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.2037365133595828</v>
       </c>
-      <c r="N37" t="n">
-        <v>22.51545698377648</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>27.67759019484589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.8259652369237178</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>6.301437521637288</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.006736532848971402</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.007199036758809682</v>
+      </c>
+      <c r="E38">
         <v>0.6847566199850387</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.4551767793783106</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.8221953702486524</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.6033691668468782</v>
+      </c>
+      <c r="I38">
+        <v>4.471940178485053</v>
+      </c>
+      <c r="J38">
         <v>0.4233504993030683</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.5606983639568079</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>2.382857232354988</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>1.499419324107224</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38">
         <v>0.04902156464510804</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38">
         <v>0.2037365133595828</v>
       </c>
-      <c r="N38" t="n">
-        <v>14.21535155874876</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>19.29112340799053</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.5206936814682942</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3.972465855711053</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.008982043798628533</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.00959871567841291</v>
+      </c>
+      <c r="E39">
         <v>0.9130088266467181</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.4551767793783106</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.8221953702486524</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.3374776695923217</v>
+      </c>
+      <c r="I39">
+        <v>2.501254676101808</v>
+      </c>
+      <c r="J39">
         <v>0.3763115549360606</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.4983985457393848</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>1.720952445589714</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>1.082913956299662</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.01960862585804321</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.08149460534383315</v>
       </c>
-      <c r="N39" t="n">
-        <v>10.47220229101835</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>13.31155130859227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.3063540787017198</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2.337230430699019</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.005164675184211407</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.005519261515087423</v>
+      </c>
+      <c r="E40">
         <v>0.524980075321863</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.1655188288648401</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.2989801346358735</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.1533989407237826</v>
+      </c>
+      <c r="I40">
+        <v>1.13693394368264</v>
+      </c>
+      <c r="J40">
         <v>0.3449522586913888</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.456865333594436</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>2.912381061767208</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>1.832623618353274</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40">
         <v>0.01960862585804321</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40">
         <v>0.08149460534383315</v>
       </c>
-      <c r="N40" t="n">
-        <v>9.28615372701571</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>10.57684119775301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.1851114751165868</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.412248776146757</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.003817368614417127</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.004079454163325486</v>
+      </c>
+      <c r="E41">
         <v>0.3880287513248552</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.04137970721621003</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.07474503365896838</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.06135957628951303</v>
+      </c>
+      <c r="I41">
+        <v>0.4547735774730561</v>
+      </c>
+      <c r="J41">
         <v>0.5017487399147474</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.6645313943191798</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>2.780000104414156</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>1.749322544791761</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41">
         <v>0.009804312929021603</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41">
         <v>0.04074730267191658</v>
       </c>
-      <c r="N41" t="n">
-        <v>7.851485511118577</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>8.367880750430055</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.1385629755258662</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1.057121890916871</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.005838328469108549</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.006239165190968392</v>
+      </c>
+      <c r="E42">
         <v>0.5934557373203668</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.08275941443242006</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.1494900673179368</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.02045319209650434</v>
+      </c>
+      <c r="I42">
+        <v>0.1515911924910187</v>
+      </c>
+      <c r="J42">
         <v>0.4233504993030683</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.5606983639568079</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>1.985714360295825</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>1.249516103422687</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>6.246507740960958</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>6.418952962270341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.08118924347218719</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.6194073579591041</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.002694613139588561</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.002879614703523873</v>
+      </c>
+      <c r="E43">
         <v>0.2739026479940154</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.1241391216486301</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.2242351009769051</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.01022659604825217</v>
+      </c>
+      <c r="I43">
+        <v>0.07579559624550933</v>
+      </c>
+      <c r="J43">
         <v>0.3292726105690532</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.4360987275219618</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>2.912381061767208</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>1.832623618353274</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>6.835944103401928</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>6.922151297259624</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.1104173711221745</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.8423940068243815</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.00202095985469142</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.002159711027642904</v>
+      </c>
+      <c r="E44">
         <v>0.2054269859955116</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.1241391216486301</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.2242351009769051</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.08181276838601738</v>
+      </c>
+      <c r="I44">
+        <v>0.6063647699640746</v>
+      </c>
+      <c r="J44">
         <v>0.3135929624467172</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>0.4153321214494873</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>1.58857148823666</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>0.9996128827381492</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>4.825743001293308</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>5.514059290816351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.2219172654906449</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1.693046778421551</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.003143715329519987</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.003359550487444519</v>
+      </c>
+      <c r="E45">
         <v>0.3195530893263514</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.1241391216486301</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.2242351009769051</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.05113298024126085</v>
+      </c>
+      <c r="I45">
+        <v>0.3789779812275467</v>
+      </c>
+      <c r="J45">
         <v>0.4233504993030683</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>0.5606983639568079</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>3.309523933826374</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>2.082526839037811</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.02941293878706482</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.1222419080157497</v>
       </c>
-      <c r="N45" t="n">
-        <v>9.11378955412048</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>9.544116350747213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.658174133747864</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>5.021328981855138</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.00404191970938284</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.004319422055285808</v>
+      </c>
+      <c r="E46">
         <v>0.4108539719910232</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.7862144371079911</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>1.420155639520399</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.2249851130615478</v>
+      </c>
+      <c r="I46">
+        <v>1.667503117401205</v>
+      </c>
+      <c r="J46">
         <v>0.9721381835848235</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>1.28752957649341</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>6.354285952946638</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>3.998451530952597</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.009804312929021603</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.04074730267191658</v>
       </c>
-      <c r="N46" t="n">
-        <v>20.96372594351021</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>22.85649167631886</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.117163990177295</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>8.52304524551727</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.002919164234554275</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.003119582595484196</v>
+      </c>
+      <c r="E47">
         <v>0.2967278686601834</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>1.075872387621461</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>1.943370875133178</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.6033691668468782</v>
+      </c>
+      <c r="I47">
+        <v>4.471940178485053</v>
+      </c>
+      <c r="J47">
         <v>1.332770090398548</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>1.765161516160322</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>8.737143185301628</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>5.497870855059822</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.1176517551482593</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.4889676320629989</v>
       </c>
-      <c r="N47" t="n">
-        <v>30.89866456547552</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>35.97417432916838</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.75477018224554</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>13.38745769668943</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.002919164234554275</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.003119582595484196</v>
+      </c>
+      <c r="E48">
         <v>0.2967278686601834</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1.075872387621461</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>1.943370875133178</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.7567681075706607</v>
+      </c>
+      <c r="I48">
+        <v>5.608874122167689</v>
+      </c>
+      <c r="J48">
         <v>1.991315311536654</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>2.637358971204244</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>9.928571801479121</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>6.247580517113434</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.2058905715094538</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.8556933561102479</v>
       </c>
-      <c r="N48" t="n">
-        <v>40.3275287035375</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>46.69337135163678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.706056636162227</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>13.01581328191398</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.004940124089245695</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.005279293623127099</v>
+      </c>
+      <c r="E49">
         <v>0.5021548546556949</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>1.158631802053881</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>2.092860942451115</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.715861723377652</v>
+      </c>
+      <c r="I49">
+        <v>5.305691737185653</v>
+      </c>
+      <c r="J49">
         <v>1.662042700967601</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>2.201260243682283</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>11.91428616177495</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>7.497096620536118</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.03921725171608641</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.1629892106876663</v>
       </c>
-      <c r="N49" t="n">
-        <v>41.95734983069086</v>
+      <c r="P49">
+        <v>47.97924246078804</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1.64327028787707</v>
+        <v>2.786414835965464</v>
       </c>
       <c r="C2">
-        <v>12.53680492509227</v>
+        <v>21.25806052515646</v>
       </c>
       <c r="D2">
-        <v>0.005759229407047746</v>
+        <v>0.009765649864124438</v>
       </c>
       <c r="E2">
-        <v>0.5478052959880308</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="F2">
-        <v>1.779327410297032</v>
+        <v>3.017120391373227</v>
       </c>
       <c r="G2">
-        <v>3.21403644733564</v>
+        <v>5.449887888960432</v>
       </c>
       <c r="H2">
-        <v>0.5522361866056174</v>
+        <v>0.936400490331264</v>
       </c>
       <c r="I2">
-        <v>4.092962197257503</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="J2">
-        <v>3.308405753812866</v>
+        <v>5.609905408639208</v>
       </c>
       <c r="K2">
-        <v>4.381753881292092</v>
+        <v>7.429930494364852</v>
       </c>
       <c r="L2">
-        <v>28.06476295884764</v>
+        <v>47.5880763215243</v>
       </c>
       <c r="M2">
-        <v>17.65982759504064</v>
+        <v>29.94492505246021</v>
       </c>
       <c r="N2">
-        <v>0.1666733197933673</v>
+        <v>0.2826199770409272</v>
       </c>
       <c r="O2">
-        <v>0.6927041454225816</v>
+        <v>1.174585290064378</v>
       </c>
       <c r="P2">
-        <v>78.64632963406939</v>
+        <v>133.3568198142916</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.222168745067991</v>
+        <v>2.072373089463115</v>
       </c>
       <c r="C3">
-        <v>9.32414542847771</v>
+        <v>15.8105074656796</v>
       </c>
       <c r="D3">
-        <v>0.005999197299008067</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E3">
-        <v>0.5706305166541988</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="F3">
-        <v>1.737947703080822</v>
+        <v>2.946954800876177</v>
       </c>
       <c r="G3">
-        <v>3.139291413676672</v>
+        <v>5.323146310147401</v>
       </c>
       <c r="H3">
-        <v>0.3886106498335825</v>
+        <v>0.6589484931960747</v>
       </c>
       <c r="I3">
-        <v>2.880232657329354</v>
+        <v>4.883872766775861</v>
       </c>
       <c r="J3">
-        <v>3.449522586913889</v>
+        <v>5.849190473462683</v>
       </c>
       <c r="K3">
-        <v>4.568653335944361</v>
+        <v>7.746846960949133</v>
       </c>
       <c r="L3">
-        <v>19.72476264560519</v>
+        <v>33.44633665993922</v>
       </c>
       <c r="M3">
-        <v>12.41185996066535</v>
+        <v>21.04619732460647</v>
       </c>
       <c r="N3">
-        <v>0.1274560680772809</v>
+        <v>0.2161211589136501</v>
       </c>
       <c r="O3">
-        <v>0.5297149347349155</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="P3">
-        <v>60.08099584336033</v>
+        <v>101.8764712126545</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.321760883727208</v>
+        <v>2.241246715885266</v>
       </c>
       <c r="C4">
-        <v>10.08395178757421</v>
+        <v>17.09887477023454</v>
       </c>
       <c r="D4">
-        <v>0.006479133082928712</v>
+        <v>0.01098635609713999</v>
       </c>
       <c r="E4">
-        <v>0.6162809579865347</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="F4">
-        <v>1.448289752567352</v>
+        <v>2.455795667396814</v>
       </c>
       <c r="G4">
-        <v>2.616076178063893</v>
+        <v>4.435955258456166</v>
       </c>
       <c r="H4">
-        <v>0.5522361866056174</v>
+        <v>0.936400490331264</v>
       </c>
       <c r="I4">
-        <v>4.092962197257503</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="J4">
-        <v>2.838016310142791</v>
+        <v>4.812288525894296</v>
       </c>
       <c r="K4">
-        <v>3.758755699117861</v>
+        <v>6.373542272417241</v>
       </c>
       <c r="L4">
-        <v>19.46000073089908</v>
+        <v>32.99739254369845</v>
       </c>
       <c r="M4">
-        <v>12.24525781354233</v>
+        <v>20.76369803165873</v>
       </c>
       <c r="N4">
-        <v>0.05882587757412965</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O4">
-        <v>0.2444838160314994</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P4">
-        <v>59.34337732417294</v>
+        <v>100.6257267670759</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.231911454284654</v>
+        <v>2.088893335526152</v>
       </c>
       <c r="C5">
-        <v>9.398474311432812</v>
+        <v>15.93654339764693</v>
       </c>
       <c r="D5">
-        <v>0.007918940434690649</v>
+        <v>0.0134277685631711</v>
       </c>
       <c r="E5">
-        <v>0.7532322819835426</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="F5">
-        <v>1.903466531945662</v>
+        <v>3.227617162864382</v>
       </c>
       <c r="G5">
-        <v>3.438271548312545</v>
+        <v>5.830112625399535</v>
       </c>
       <c r="H5">
-        <v>0.4499702261230956</v>
+        <v>0.7629929921217707</v>
       </c>
       <c r="I5">
-        <v>3.33500623480241</v>
+        <v>5.655010572056262</v>
       </c>
       <c r="J5">
-        <v>2.383306514595051</v>
+        <v>4.041258872574216</v>
       </c>
       <c r="K5">
-        <v>3.156524123016104</v>
+        <v>5.35236699120122</v>
       </c>
       <c r="L5">
-        <v>17.60666732795631</v>
+        <v>29.85478373001287</v>
       </c>
       <c r="M5">
-        <v>11.07904278368115</v>
+        <v>18.78620298102457</v>
       </c>
       <c r="N5">
-        <v>0.1078474422192377</v>
+        <v>0.1828717498500118</v>
       </c>
       <c r="O5">
-        <v>0.4482203293910823</v>
+        <v>0.760025775924009</v>
       </c>
       <c r="P5">
-        <v>55.29986005017835</v>
+        <v>93.76932791117197</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.27954247712167</v>
+        <v>2.16965898294544</v>
       </c>
       <c r="C6">
-        <v>9.761859961435482</v>
+        <v>16.55271906504277</v>
       </c>
       <c r="D6">
-        <v>0.00959871567841291</v>
+        <v>0.01627608310687406</v>
       </c>
       <c r="E6">
-        <v>0.9130088266467181</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="F6">
-        <v>1.613808581432191</v>
+        <v>2.736458029385022</v>
       </c>
       <c r="G6">
-        <v>2.915056312699767</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="H6">
-        <v>0.5829159747503738</v>
+        <v>0.9884227397941123</v>
       </c>
       <c r="I6">
-        <v>4.320348985994032</v>
+        <v>7.325809150163791</v>
       </c>
       <c r="J6">
-        <v>2.75961806953111</v>
+        <v>4.679352378770145</v>
       </c>
       <c r="K6">
-        <v>3.654922668755488</v>
+        <v>6.197477568759307</v>
       </c>
       <c r="L6">
-        <v>18.26857211472158</v>
+        <v>30.97714402061486</v>
       </c>
       <c r="M6">
-        <v>11.49554815148872</v>
+        <v>19.49245121339392</v>
       </c>
       <c r="N6">
-        <v>0.1176517551482593</v>
+        <v>0.1994964543818309</v>
       </c>
       <c r="O6">
-        <v>0.4889676320629989</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="P6">
-        <v>58.18142022746681</v>
+        <v>98.65545169005242</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1.257892012195754</v>
+        <v>2.132947325027582</v>
       </c>
       <c r="C7">
-        <v>9.596684665979719</v>
+        <v>16.27263921622648</v>
       </c>
       <c r="D7">
-        <v>0.007678972542730329</v>
+        <v>0.01302086648549925</v>
       </c>
       <c r="E7">
-        <v>0.7304070613173745</v>
+        <v>1.238516321364244</v>
       </c>
       <c r="F7">
-        <v>1.986225946378082</v>
+        <v>3.367948343858487</v>
       </c>
       <c r="G7">
-        <v>3.587761615630482</v>
+        <v>6.083595783025599</v>
       </c>
       <c r="H7">
-        <v>0.4397436300748434</v>
+        <v>0.7456522423008213</v>
       </c>
       <c r="I7">
-        <v>3.2592106385569</v>
+        <v>5.526487604509529</v>
       </c>
       <c r="J7">
-        <v>3.1045703282225</v>
+        <v>5.264271426116412</v>
       </c>
       <c r="K7">
-        <v>4.111788002349925</v>
+        <v>6.972162264854221</v>
       </c>
       <c r="L7">
-        <v>18.66571498678074</v>
+        <v>31.65056019497604</v>
       </c>
       <c r="M7">
-        <v>11.74545137217326</v>
+        <v>19.91620015281552</v>
       </c>
       <c r="N7">
-        <v>0.1078474422192377</v>
+        <v>0.1828717498500118</v>
       </c>
       <c r="O7">
-        <v>0.4482203293910823</v>
+        <v>0.760025775924009</v>
       </c>
       <c r="P7">
-        <v>59.04919700381263</v>
+        <v>100.1268992673345</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.325008453466096</v>
+        <v>2.246753464572943</v>
       </c>
       <c r="C8">
-        <v>10.10872808189258</v>
+        <v>17.14088674755698</v>
       </c>
       <c r="D8">
-        <v>0.008398876218611294</v>
+        <v>0.0142415727185148</v>
       </c>
       <c r="E8">
-        <v>0.7988827233158786</v>
+        <v>1.354627226492142</v>
       </c>
       <c r="F8">
-        <v>1.365530338134931</v>
+        <v>2.31546448640271</v>
       </c>
       <c r="G8">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H8">
-        <v>0.4704234182195999</v>
+        <v>0.7976744917636694</v>
       </c>
       <c r="I8">
-        <v>3.486597427293429</v>
+        <v>5.912056507149727</v>
       </c>
       <c r="J8">
-        <v>2.790977365775782</v>
+        <v>4.732526837619807</v>
       </c>
       <c r="K8">
-        <v>3.696455880900438</v>
+        <v>6.267903450222481</v>
       </c>
       <c r="L8">
-        <v>14.29714339412993</v>
+        <v>24.24298227700293</v>
       </c>
       <c r="M8">
-        <v>8.996515944643347</v>
+        <v>15.25496181917784</v>
       </c>
       <c r="N8">
-        <v>0.1372603810063025</v>
+        <v>0.2327458634454695</v>
       </c>
       <c r="O8">
-        <v>0.5704622374068319</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="P8">
-        <v>50.51897063314971</v>
+        <v>85.6626023779495</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.807813821314034</v>
+        <v>3.065423436141189</v>
       </c>
       <c r="C9">
-        <v>13.79213717055605</v>
+        <v>23.38666737616026</v>
       </c>
       <c r="D9">
-        <v>0.004799357839206455</v>
+        <v>0.008138041553437031</v>
       </c>
       <c r="E9">
-        <v>0.4565044133233591</v>
+        <v>0.7740727008526525</v>
       </c>
       <c r="F9">
-        <v>2.731060676269862</v>
+        <v>4.63092897280542</v>
       </c>
       <c r="G9">
-        <v>4.933172221491912</v>
+        <v>8.364944201660201</v>
       </c>
       <c r="H9">
-        <v>0.6340489549916346</v>
+        <v>1.075126488898859</v>
       </c>
       <c r="I9">
-        <v>4.699326967221578</v>
+        <v>7.968423987897458</v>
       </c>
       <c r="J9">
-        <v>3.088890680100164</v>
+        <v>5.237684196691584</v>
       </c>
       <c r="K9">
-        <v>4.09102139627745</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="L9">
-        <v>13.90000052207077</v>
+        <v>23.56956610264174</v>
       </c>
       <c r="M9">
-        <v>8.746612723958808</v>
+        <v>14.83121287975624</v>
       </c>
       <c r="N9">
-        <v>0.09804312929021608</v>
+        <v>0.1662470453181925</v>
       </c>
       <c r="O9">
-        <v>0.4074730267191657</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="P9">
-        <v>59.39090506142421</v>
+        <v>100.7063172780671</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2.204017329458307</v>
+        <v>3.737246776038003</v>
       </c>
       <c r="C10">
-        <v>16.81484507739648</v>
+        <v>28.51212860949838</v>
       </c>
       <c r="D10">
-        <v>0.006479133082928712</v>
+        <v>0.01098635609713999</v>
       </c>
       <c r="E10">
-        <v>0.6162809579865347</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="F10">
-        <v>1.613808581432191</v>
+        <v>2.736458029385022</v>
       </c>
       <c r="G10">
-        <v>2.915056312699767</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="H10">
-        <v>0.6442755510398868</v>
+        <v>1.092467238719808</v>
       </c>
       <c r="I10">
-        <v>4.775122563467087</v>
+        <v>8.09694695544419</v>
       </c>
       <c r="J10">
-        <v>1.850198478435631</v>
+        <v>3.137293072129983</v>
       </c>
       <c r="K10">
-        <v>2.450459516551975</v>
+        <v>4.155127006327263</v>
       </c>
       <c r="L10">
-        <v>5.295238294122194</v>
+        <v>8.978882324815906</v>
       </c>
       <c r="M10">
-        <v>3.332042942460499</v>
+        <v>5.649985858954759</v>
       </c>
       <c r="N10">
-        <v>0.2156948844384753</v>
+        <v>0.3657434997000235</v>
       </c>
       <c r="O10">
-        <v>0.8964406587821645</v>
+        <v>1.520051551848018</v>
       </c>
       <c r="P10">
-        <v>43.62996028135411</v>
+        <v>73.98123699881788</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2.122828085986121</v>
+        <v>3.59957805884603</v>
       </c>
       <c r="C11">
-        <v>16.19543771943738</v>
+        <v>27.46182917643728</v>
       </c>
       <c r="D11">
-        <v>0.005759229407047746</v>
+        <v>0.009765649864124438</v>
       </c>
       <c r="E11">
-        <v>0.5478052959880308</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="F11">
-        <v>1.365530338134931</v>
+        <v>2.31546448640271</v>
       </c>
       <c r="G11">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H11">
-        <v>0.7567681075706607</v>
+        <v>1.283215486750251</v>
       </c>
       <c r="I11">
-        <v>5.608874122167689</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="J11">
-        <v>1.317090442276213</v>
+        <v>2.233327271685751</v>
       </c>
       <c r="K11">
-        <v>1.744394910087847</v>
+        <v>2.957887021453306</v>
       </c>
       <c r="L11">
-        <v>3.309523933826374</v>
+        <v>5.611801453009935</v>
       </c>
       <c r="M11">
-        <v>2.082526839037811</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="N11">
-        <v>0.03921725171608641</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O11">
-        <v>0.1629892106876663</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P11">
-        <v>37.72533159706982</v>
+        <v>63.96904053416184</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.527440300523416</v>
+        <v>2.590007466104921</v>
       </c>
       <c r="C12">
-        <v>11.65311709440395</v>
+        <v>19.7596333339893</v>
       </c>
       <c r="D12">
-        <v>0.007918940434690649</v>
+        <v>0.0134277685631711</v>
       </c>
       <c r="E12">
-        <v>0.7532322819835426</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="F12">
-        <v>1.200011509270091</v>
+        <v>2.034802124414503</v>
       </c>
       <c r="G12">
-        <v>2.167605976110083</v>
+        <v>3.675505785577968</v>
       </c>
       <c r="H12">
-        <v>0.715861723377652</v>
+        <v>1.213852487466454</v>
       </c>
       <c r="I12">
-        <v>5.305691737185653</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="J12">
-        <v>0.8310213504838005</v>
+        <v>1.40912315951601</v>
       </c>
       <c r="K12">
-        <v>1.100630121841141</v>
+        <v>1.866285858774109</v>
       </c>
       <c r="L12">
-        <v>4.500952550003867</v>
+        <v>7.632049976093515</v>
       </c>
       <c r="M12">
-        <v>2.832236501091423</v>
+        <v>4.802487980111545</v>
       </c>
       <c r="N12">
-        <v>0.01960862585804321</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O12">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P12">
-        <v>32.69682331791118</v>
+        <v>55.44243953906679</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.102008664729154</v>
+        <v>1.868623388019001</v>
       </c>
       <c r="C13">
-        <v>8.407422538698238</v>
+        <v>14.25606430474919</v>
       </c>
       <c r="D13">
-        <v>0.01247833038193678</v>
+        <v>0.02115890803893628</v>
       </c>
       <c r="E13">
-        <v>1.186911474640734</v>
+        <v>2.012589022216896</v>
       </c>
       <c r="F13">
-        <v>0.8689738515404108</v>
+        <v>1.473477400438089</v>
       </c>
       <c r="G13">
-        <v>1.569645706838336</v>
+        <v>2.6615731550737</v>
       </c>
       <c r="H13">
-        <v>0.6135957628951304</v>
+        <v>1.04044498925696</v>
       </c>
       <c r="I13">
-        <v>4.547735774730559</v>
+        <v>7.711378052803992</v>
       </c>
       <c r="J13">
-        <v>0.6742248692604419</v>
+        <v>1.143250865267706</v>
       </c>
       <c r="K13">
-        <v>0.8929640611163978</v>
+        <v>1.51415645145824</v>
       </c>
       <c r="L13">
-        <v>4.633333507356926</v>
+        <v>7.856522034213912</v>
       </c>
       <c r="M13">
-        <v>2.915537574652936</v>
+        <v>4.943737626585413</v>
       </c>
       <c r="N13">
-        <v>0.04902156464510804</v>
+        <v>0.08312352265909623</v>
       </c>
       <c r="O13">
-        <v>0.2037365133595828</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="P13">
-        <v>27.67759019484589</v>
+        <v>46.93156598256478</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.8259652369237178</v>
+        <v>1.400549749566304</v>
       </c>
       <c r="C14">
-        <v>6.301437521637288</v>
+        <v>10.68504623234148</v>
       </c>
       <c r="D14">
-        <v>0.007199036758809682</v>
+        <v>0.01220706233015555</v>
       </c>
       <c r="E14">
-        <v>0.6847566199850387</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="F14">
-        <v>0.4551767793783106</v>
+        <v>0.7718214954675704</v>
       </c>
       <c r="G14">
-        <v>0.8221953702486524</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="H14">
-        <v>0.6033691668468782</v>
+        <v>1.023104239436011</v>
       </c>
       <c r="I14">
-        <v>4.471940178485053</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="J14">
-        <v>0.4233504993030683</v>
+        <v>0.71785519447042</v>
       </c>
       <c r="K14">
-        <v>0.5606983639568079</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="L14">
-        <v>2.382857232354988</v>
+        <v>4.040497046167155</v>
       </c>
       <c r="M14">
-        <v>1.499419324107224</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="N14">
-        <v>0.04902156464510804</v>
+        <v>0.08312352265909623</v>
       </c>
       <c r="O14">
-        <v>0.2037365133595828</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="P14">
-        <v>19.29112340799053</v>
+        <v>32.71103534398393</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.5206936814682942</v>
+        <v>0.8829153729244983</v>
       </c>
       <c r="C15">
-        <v>3.972465855711053</v>
+        <v>6.735920364031787</v>
       </c>
       <c r="D15">
-        <v>0.00959871567841291</v>
+        <v>0.01627608310687406</v>
       </c>
       <c r="E15">
-        <v>0.9130088266467181</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="F15">
-        <v>0.4551767793783106</v>
+        <v>0.7718214954675704</v>
       </c>
       <c r="G15">
-        <v>0.8221953702486524</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="H15">
-        <v>0.3374776695923217</v>
+        <v>0.5722447440913282</v>
       </c>
       <c r="I15">
-        <v>2.501254676101808</v>
+        <v>4.241257929042194</v>
       </c>
       <c r="J15">
-        <v>0.3763115549360606</v>
+        <v>0.6380935061959289</v>
       </c>
       <c r="K15">
-        <v>0.4983985457393848</v>
+        <v>0.8451105775580874</v>
       </c>
       <c r="L15">
-        <v>1.720952445589714</v>
+        <v>2.918136755565167</v>
       </c>
       <c r="M15">
-        <v>1.082913956299662</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="N15">
-        <v>0.01960862585804321</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O15">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P15">
-        <v>13.31155130859227</v>
+        <v>22.5717609145695</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.3063540787017198</v>
+        <v>0.5194699595376987</v>
       </c>
       <c r="C16">
-        <v>2.337230430699019</v>
+        <v>3.96312986075051</v>
       </c>
       <c r="D16">
-        <v>0.005519261515087423</v>
+        <v>0.009358747786452586</v>
       </c>
       <c r="E16">
-        <v>0.524980075321863</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="F16">
-        <v>0.1655188288648401</v>
+        <v>0.2806623619882071</v>
       </c>
       <c r="G16">
-        <v>0.2989801346358735</v>
+        <v>0.5069663152521334</v>
       </c>
       <c r="H16">
-        <v>0.1533989407237826</v>
+        <v>0.2601112473142401</v>
       </c>
       <c r="I16">
-        <v>1.13693394368264</v>
+        <v>1.927844513200998</v>
       </c>
       <c r="J16">
-        <v>0.3449522586913888</v>
+        <v>0.5849190473462681</v>
       </c>
       <c r="K16">
-        <v>0.456865333594436</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="L16">
-        <v>2.912381061767208</v>
+        <v>4.938385278648744</v>
       </c>
       <c r="M16">
-        <v>1.832623618353274</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="N16">
-        <v>0.01960862585804321</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O16">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P16">
-        <v>10.57684119775301</v>
+        <v>17.93464377010293</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,49 +1230,49 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1851114751165868</v>
+        <v>0.3138846751976908</v>
       </c>
       <c r="C17">
-        <v>1.412248776146757</v>
+        <v>2.394682707379284</v>
       </c>
       <c r="D17">
-        <v>0.004079454163325486</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E17">
-        <v>0.3880287513248552</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F17">
-        <v>0.04137970721621003</v>
+        <v>0.07016559049705177</v>
       </c>
       <c r="G17">
-        <v>0.07474503365896838</v>
+        <v>0.1267415788130334</v>
       </c>
       <c r="H17">
-        <v>0.06135957628951303</v>
+        <v>0.104044498925696</v>
       </c>
       <c r="I17">
-        <v>0.4547735774730561</v>
+        <v>0.7711378052803992</v>
       </c>
       <c r="J17">
-        <v>0.5017487399147474</v>
+        <v>0.8507913415945719</v>
       </c>
       <c r="K17">
-        <v>0.6645313943191798</v>
+        <v>1.126814103410783</v>
       </c>
       <c r="L17">
-        <v>2.780000104414156</v>
+        <v>4.713913220528348</v>
       </c>
       <c r="M17">
-        <v>1.749322544791761</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="N17">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O17">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P17">
-        <v>8.367880750430055</v>
+        <v>14.18901518551183</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1280,43 +1280,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.1385629755258662</v>
+        <v>0.2349546106742947</v>
       </c>
       <c r="C18">
-        <v>1.057121890916871</v>
+        <v>1.792511032424259</v>
       </c>
       <c r="D18">
-        <v>0.006239165190968392</v>
+        <v>0.01057945401946814</v>
       </c>
       <c r="E18">
-        <v>0.5934557373203668</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="F18">
-        <v>0.08275941443242006</v>
+        <v>0.1403311809941035</v>
       </c>
       <c r="G18">
-        <v>0.1494900673179368</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="H18">
-        <v>0.02045319209650434</v>
+        <v>0.03468149964189867</v>
       </c>
       <c r="I18">
-        <v>0.1515911924910187</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="J18">
-        <v>0.4233504993030683</v>
+        <v>0.71785519447042</v>
       </c>
       <c r="K18">
-        <v>0.5606983639568079</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="L18">
-        <v>1.985714360295825</v>
+        <v>3.367080871805963</v>
       </c>
       <c r="M18">
-        <v>1.249516103422687</v>
+        <v>2.118744697108034</v>
       </c>
       <c r="P18">
-        <v>6.418952962270341</v>
+        <v>10.88431154471927</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,43 +1324,43 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.08118924347218719</v>
+        <v>0.1376687171919696</v>
       </c>
       <c r="C19">
-        <v>0.6194073579591041</v>
+        <v>1.05029943306109</v>
       </c>
       <c r="D19">
-        <v>0.002879614703523873</v>
+        <v>0.004882824932062219</v>
       </c>
       <c r="E19">
-        <v>0.2739026479940154</v>
+        <v>0.4644436205115914</v>
       </c>
       <c r="F19">
-        <v>0.1241391216486301</v>
+        <v>0.2104967714911554</v>
       </c>
       <c r="G19">
-        <v>0.2242351009769051</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H19">
-        <v>0.01022659604825217</v>
+        <v>0.01734074982094934</v>
       </c>
       <c r="I19">
-        <v>0.07579559624550933</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="J19">
-        <v>0.3292726105690532</v>
+        <v>0.5583318179214378</v>
       </c>
       <c r="K19">
-        <v>0.4360987275219618</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="L19">
-        <v>2.912381061767208</v>
+        <v>4.938385278648744</v>
       </c>
       <c r="M19">
-        <v>1.832623618353274</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="P19">
-        <v>6.922151297259624</v>
+        <v>11.73756089535328</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,43 +1368,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1104173711221745</v>
+        <v>0.1872294553810786</v>
       </c>
       <c r="C20">
-        <v>0.8423940068243815</v>
+        <v>1.428407228963081</v>
       </c>
       <c r="D20">
-        <v>0.002159711027642904</v>
+        <v>0.003662118699046665</v>
       </c>
       <c r="E20">
-        <v>0.2054269859955116</v>
+        <v>0.3483327153836935</v>
       </c>
       <c r="F20">
-        <v>0.1241391216486301</v>
+        <v>0.2104967714911554</v>
       </c>
       <c r="G20">
-        <v>0.2242351009769051</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H20">
-        <v>0.08181276838601738</v>
+        <v>0.1387259985675947</v>
       </c>
       <c r="I20">
-        <v>0.6063647699640746</v>
+        <v>1.028183740373866</v>
       </c>
       <c r="J20">
-        <v>0.3135929624467172</v>
+        <v>0.5317445884966074</v>
       </c>
       <c r="K20">
-        <v>0.4153321214494873</v>
+        <v>0.7042588146317394</v>
       </c>
       <c r="L20">
-        <v>1.58857148823666</v>
+        <v>2.693664697444769</v>
       </c>
       <c r="M20">
-        <v>0.9996128827381492</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="P20">
-        <v>5.514059290816351</v>
+        <v>9.34992662355816</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1412,49 +1412,49 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.2219172654906449</v>
+        <v>0.3762944936580503</v>
       </c>
       <c r="C21">
-        <v>1.693046778421551</v>
+        <v>2.870818450366978</v>
       </c>
       <c r="D21">
-        <v>0.003359550487444519</v>
+        <v>0.005696629087405921</v>
       </c>
       <c r="E21">
-        <v>0.3195530893263514</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="F21">
-        <v>0.1241391216486301</v>
+        <v>0.2104967714911554</v>
       </c>
       <c r="G21">
-        <v>0.2242351009769051</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H21">
-        <v>0.05113298024126085</v>
+        <v>0.08670374910474667</v>
       </c>
       <c r="I21">
-        <v>0.3789779812275467</v>
+        <v>0.6426148377336659</v>
       </c>
       <c r="J21">
-        <v>0.4233504993030683</v>
+        <v>0.71785519447042</v>
       </c>
       <c r="K21">
-        <v>0.5606983639568079</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="L21">
-        <v>3.309523933826374</v>
+        <v>5.611801453009935</v>
       </c>
       <c r="M21">
-        <v>2.082526839037811</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="N21">
-        <v>0.02941293878706482</v>
+        <v>0.04987411359545774</v>
       </c>
       <c r="O21">
-        <v>0.1222419080157497</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="P21">
-        <v>9.544116350747213</v>
+        <v>16.18350163822353</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1462,49 +1462,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.658174133747864</v>
+        <v>1.116034400702901</v>
       </c>
       <c r="C22">
-        <v>5.021328981855138</v>
+        <v>8.514427404015231</v>
       </c>
       <c r="D22">
-        <v>0.004319422055285808</v>
+        <v>0.00732423739809333</v>
       </c>
       <c r="E22">
-        <v>0.4108539719910232</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="F22">
-        <v>0.7862144371079911</v>
+        <v>1.333146219443985</v>
       </c>
       <c r="G22">
-        <v>1.420155639520399</v>
+        <v>2.408089997447633</v>
       </c>
       <c r="H22">
-        <v>0.2249851130615478</v>
+        <v>0.3814964960608854</v>
       </c>
       <c r="I22">
-        <v>1.667503117401205</v>
+        <v>2.827505286028131</v>
       </c>
       <c r="J22">
-        <v>0.9721381835848235</v>
+        <v>1.648408224339482</v>
       </c>
       <c r="K22">
-        <v>1.28752957649341</v>
+        <v>2.183202325358392</v>
       </c>
       <c r="L22">
-        <v>6.354285952946638</v>
+        <v>10.77465878977907</v>
       </c>
       <c r="M22">
-        <v>3.998451530952597</v>
+        <v>6.779983030745709</v>
       </c>
       <c r="N22">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O22">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P22">
-        <v>22.85649167631886</v>
+        <v>38.75665979897546</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1512,49 +1512,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.117163990177295</v>
+        <v>1.894321548561501</v>
       </c>
       <c r="C23">
-        <v>8.52304524551727</v>
+        <v>14.45212019892059</v>
       </c>
       <c r="D23">
-        <v>0.003119582595484196</v>
+        <v>0.00528972700973407</v>
       </c>
       <c r="E23">
-        <v>0.2967278686601834</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="F23">
-        <v>1.075872387621461</v>
+        <v>1.824305352923348</v>
       </c>
       <c r="G23">
-        <v>1.943370875133178</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="H23">
-        <v>0.6033691668468782</v>
+        <v>1.023104239436011</v>
       </c>
       <c r="I23">
-        <v>4.471940178485053</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="J23">
-        <v>1.332770090398548</v>
+        <v>2.259914501110581</v>
       </c>
       <c r="K23">
-        <v>1.765161516160322</v>
+        <v>2.993099962184893</v>
       </c>
       <c r="L23">
-        <v>8.737143185301628</v>
+        <v>14.81515583594624</v>
       </c>
       <c r="M23">
-        <v>5.497870855059822</v>
+        <v>9.32247666727535</v>
       </c>
       <c r="N23">
-        <v>0.1176517551482593</v>
+        <v>0.1994964543818309</v>
       </c>
       <c r="O23">
-        <v>0.4889676320629989</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="P23">
-        <v>35.97417432916838</v>
+        <v>60.99968690598116</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1562,49 +1562,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.75477018224554</v>
+        <v>2.975479874242436</v>
       </c>
       <c r="C24">
-        <v>13.38745769668943</v>
+        <v>22.70047174656035</v>
       </c>
       <c r="D24">
-        <v>0.003119582595484196</v>
+        <v>0.00528972700973407</v>
       </c>
       <c r="E24">
-        <v>0.2967278686601834</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="F24">
-        <v>1.075872387621461</v>
+        <v>1.824305352923348</v>
       </c>
       <c r="G24">
-        <v>1.943370875133178</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="H24">
-        <v>0.7567681075706607</v>
+        <v>1.283215486750251</v>
       </c>
       <c r="I24">
-        <v>5.608874122167689</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="J24">
-        <v>1.991315311536654</v>
+        <v>3.376578136953457</v>
       </c>
       <c r="K24">
-        <v>2.637358971204244</v>
+        <v>4.472043472911545</v>
       </c>
       <c r="L24">
-        <v>9.928571801479121</v>
+        <v>16.83540435902981</v>
       </c>
       <c r="M24">
-        <v>6.247580517113434</v>
+        <v>10.59372348554017</v>
       </c>
       <c r="N24">
-        <v>0.2058905715094538</v>
+        <v>0.3491187951682043</v>
       </c>
       <c r="O24">
-        <v>0.8556933561102479</v>
+        <v>1.45095829949129</v>
       </c>
       <c r="P24">
-        <v>46.69337135163678</v>
+        <v>79.17571663973195</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1612,49 +1612,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.706056636162227</v>
+        <v>2.892878643927256</v>
       </c>
       <c r="C25">
-        <v>13.01581328191398</v>
+        <v>22.0702920867237</v>
       </c>
       <c r="D25">
-        <v>0.005279293623127099</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E25">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F25">
-        <v>1.158631802053881</v>
+        <v>1.964636533917451</v>
       </c>
       <c r="G25">
-        <v>2.092860942451115</v>
+        <v>3.548764206764933</v>
       </c>
       <c r="H25">
-        <v>0.715861723377652</v>
+        <v>1.213852487466454</v>
       </c>
       <c r="I25">
-        <v>5.305691737185653</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="J25">
-        <v>1.662042700967601</v>
+        <v>2.81824631903202</v>
       </c>
       <c r="K25">
-        <v>2.201260243682283</v>
+        <v>3.732571717548218</v>
       </c>
       <c r="L25">
-        <v>11.91428616177495</v>
+        <v>20.20248523083578</v>
       </c>
       <c r="M25">
-        <v>7.497096620536118</v>
+        <v>12.71246818264821</v>
       </c>
       <c r="N25">
-        <v>0.03921725171608641</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O25">
-        <v>0.1629892106876663</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P25">
-        <v>47.97924246078804</v>
+        <v>81.35610678133624</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1662,49 +1662,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.64327028787707</v>
+        <v>2.786414835965464</v>
       </c>
       <c r="C26">
-        <v>12.53680492509227</v>
+        <v>21.25806052515646</v>
       </c>
       <c r="D26">
-        <v>0.005759229407047746</v>
+        <v>0.009765649864124438</v>
       </c>
       <c r="E26">
-        <v>0.5478052959880308</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="F26">
-        <v>1.779327410297032</v>
+        <v>3.017120391373227</v>
       </c>
       <c r="G26">
-        <v>3.21403644733564</v>
+        <v>5.449887888960432</v>
       </c>
       <c r="H26">
-        <v>0.5522361866056174</v>
+        <v>0.936400490331264</v>
       </c>
       <c r="I26">
-        <v>4.092962197257503</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="J26">
-        <v>3.308405753812866</v>
+        <v>5.609905408639208</v>
       </c>
       <c r="K26">
-        <v>4.381753881292092</v>
+        <v>7.429930494364852</v>
       </c>
       <c r="L26">
-        <v>28.06476295884764</v>
+        <v>47.5880763215243</v>
       </c>
       <c r="M26">
-        <v>17.65982759504064</v>
+        <v>29.94492505246021</v>
       </c>
       <c r="N26">
-        <v>0.1666733197933673</v>
+        <v>0.2826199770409272</v>
       </c>
       <c r="O26">
-        <v>0.6927041454225816</v>
+        <v>1.174585290064378</v>
       </c>
       <c r="P26">
-        <v>78.64632963406939</v>
+        <v>133.3568198142916</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1712,49 +1712,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1.341246302160533</v>
+        <v>2.274287208011337</v>
       </c>
       <c r="C27">
-        <v>10.23260955348439</v>
+        <v>17.3509466341692</v>
       </c>
       <c r="D27">
-        <v>0.006479133082928712</v>
+        <v>0.01098635609713999</v>
       </c>
       <c r="E27">
-        <v>0.6162809579865347</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="F27">
-        <v>1.158631802053881</v>
+        <v>1.964636533917451</v>
       </c>
       <c r="G27">
-        <v>2.092860942451115</v>
+        <v>3.548764206764933</v>
       </c>
       <c r="H27">
-        <v>0.5420095905573653</v>
+        <v>0.9190597405103148</v>
       </c>
       <c r="I27">
-        <v>4.017166601011994</v>
+        <v>6.811717279976862</v>
       </c>
       <c r="J27">
-        <v>3.198648216956515</v>
+        <v>5.423794802665395</v>
       </c>
       <c r="K27">
-        <v>4.236387638784771</v>
+        <v>7.183439909243742</v>
       </c>
       <c r="L27">
-        <v>24.22571519560906</v>
+        <v>41.07838663603275</v>
       </c>
       <c r="M27">
-        <v>15.24409646175678</v>
+        <v>25.84868530471802</v>
       </c>
       <c r="N27">
-        <v>0.1274560680772809</v>
+        <v>0.2161211589136501</v>
       </c>
       <c r="O27">
-        <v>0.5297149347349155</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="P27">
-        <v>67.56930339870806</v>
+        <v>114.5740361978094</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1762,49 +1762,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1.440838440819749</v>
+        <v>2.443160834433487</v>
       </c>
       <c r="C28">
-        <v>10.9924159125809</v>
+        <v>18.63931393872413</v>
       </c>
       <c r="D28">
-        <v>0.01151845881409549</v>
+        <v>0.01953129972824888</v>
       </c>
       <c r="E28">
-        <v>1.095610591976062</v>
+        <v>1.857774482046366</v>
       </c>
       <c r="F28">
-        <v>1.737947703080822</v>
+        <v>2.946954800876177</v>
       </c>
       <c r="G28">
-        <v>3.139291413676672</v>
+        <v>5.323146310147401</v>
       </c>
       <c r="H28">
-        <v>0.6033691668468782</v>
+        <v>1.023104239436011</v>
       </c>
       <c r="I28">
-        <v>4.471940178485053</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="J28">
-        <v>2.383306514595051</v>
+        <v>4.041258872574216</v>
       </c>
       <c r="K28">
-        <v>3.156524123016104</v>
+        <v>5.35236699120122</v>
       </c>
       <c r="L28">
-        <v>21.57809604854796</v>
+        <v>36.5889454736248</v>
       </c>
       <c r="M28">
-        <v>13.57807499052653</v>
+        <v>23.02369237524064</v>
       </c>
       <c r="N28">
-        <v>0.08823881636119446</v>
+        <v>0.1496223407863732</v>
       </c>
       <c r="O28">
-        <v>0.3667257240472492</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="P28">
-        <v>64.64389808337431</v>
+        <v>109.6135663152869</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1812,49 +1812,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.302275465293883</v>
+        <v>2.208206223759193</v>
       </c>
       <c r="C29">
-        <v>9.93529402166403</v>
+        <v>16.84680290629988</v>
       </c>
       <c r="D29">
-        <v>0.005519261515087423</v>
+        <v>0.009358747786452586</v>
       </c>
       <c r="E29">
-        <v>0.524980075321863</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="F29">
-        <v>1.572428874215982</v>
+        <v>2.66629243888797</v>
       </c>
       <c r="G29">
-        <v>2.840311279040798</v>
+        <v>4.816179994895266</v>
       </c>
       <c r="H29">
-        <v>0.654502147088139</v>
+        <v>1.109807988540757</v>
       </c>
       <c r="I29">
-        <v>4.850918159712597</v>
+        <v>8.225469922990925</v>
       </c>
       <c r="J29">
-        <v>2.101072848393005</v>
+        <v>3.56268874292727</v>
       </c>
       <c r="K29">
-        <v>2.782725213711565</v>
+        <v>4.718534058032654</v>
       </c>
       <c r="L29">
-        <v>13.63523860736466</v>
+        <v>23.12062198640094</v>
       </c>
       <c r="M29">
-        <v>8.580010576835782</v>
+        <v>14.5487135868085</v>
       </c>
       <c r="N29">
-        <v>0.01960862585804321</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O29">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P29">
-        <v>48.88637976135927</v>
+        <v>82.89429611708746</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1862,49 +1862,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.367226860071632</v>
+        <v>2.318341197512768</v>
       </c>
       <c r="C30">
-        <v>10.43081990803131</v>
+        <v>17.68704245274874</v>
       </c>
       <c r="D30">
-        <v>0.005999197299008067</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E30">
-        <v>0.5706305166541988</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="F30">
-        <v>1.489669459783561</v>
+        <v>2.525961257893865</v>
       </c>
       <c r="G30">
-        <v>2.690821211722861</v>
+        <v>4.562696837269201</v>
       </c>
       <c r="H30">
-        <v>0.5420095905573653</v>
+        <v>0.9190597405103148</v>
       </c>
       <c r="I30">
-        <v>4.017166601011994</v>
+        <v>6.811717279976862</v>
       </c>
       <c r="J30">
-        <v>3.230007513201187</v>
+        <v>5.476969261515058</v>
       </c>
       <c r="K30">
-        <v>4.27792085092972</v>
+        <v>7.253865790706916</v>
       </c>
       <c r="L30">
-        <v>16.68000062648493</v>
+        <v>28.28347932317009</v>
       </c>
       <c r="M30">
-        <v>10.49593526875057</v>
+        <v>17.79745545570749</v>
       </c>
       <c r="N30">
-        <v>0.07843450343217283</v>
+        <v>0.132997636254554</v>
       </c>
       <c r="O30">
-        <v>0.3259784213753326</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="P30">
-        <v>56.20262052930585</v>
+        <v>95.30009568012728</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1912,49 +1912,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.397537510967916</v>
+        <v>2.369737518597769</v>
       </c>
       <c r="C31">
-        <v>10.66206532166938</v>
+        <v>18.07915424109155</v>
       </c>
       <c r="D31">
-        <v>0.005999197299008067</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E31">
-        <v>0.5706305166541988</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="F31">
-        <v>1.572428874215982</v>
+        <v>2.66629243888797</v>
       </c>
       <c r="G31">
-        <v>2.840311279040798</v>
+        <v>4.816179994895266</v>
       </c>
       <c r="H31">
-        <v>0.5726893787021217</v>
+        <v>0.9710819899731628</v>
       </c>
       <c r="I31">
-        <v>4.244553389748522</v>
+        <v>7.197286182617058</v>
       </c>
       <c r="J31">
-        <v>2.571462292063081</v>
+        <v>4.360305625672182</v>
       </c>
       <c r="K31">
-        <v>3.405723395885797</v>
+        <v>5.774922279980264</v>
       </c>
       <c r="L31">
-        <v>15.48857201030743</v>
+        <v>26.26323080008651</v>
       </c>
       <c r="M31">
-        <v>9.746225606696958</v>
+        <v>16.52620863744266</v>
       </c>
       <c r="N31">
-        <v>0.1960862585804322</v>
+        <v>0.3324940906363849</v>
       </c>
       <c r="O31">
-        <v>0.8149460534383314</v>
+        <v>1.381865047134561</v>
       </c>
       <c r="P31">
-        <v>54.08923108526997</v>
+        <v>91.71652227502295</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1962,49 +1962,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.644352811123366</v>
+        <v>2.788250418861358</v>
       </c>
       <c r="C32">
-        <v>12.54506368986505</v>
+        <v>21.27206451759727</v>
       </c>
       <c r="D32">
-        <v>0.006479133082928712</v>
+        <v>0.01098635609713999</v>
       </c>
       <c r="E32">
-        <v>0.6162809579865347</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="F32">
-        <v>0.9931129731890411</v>
+        <v>1.683974171929243</v>
       </c>
       <c r="G32">
-        <v>1.793880807815241</v>
+        <v>3.041797891512799</v>
       </c>
       <c r="H32">
-        <v>0.6238223589433824</v>
+        <v>1.05778573907791</v>
       </c>
       <c r="I32">
-        <v>4.623531370976069</v>
+        <v>7.839901020350728</v>
       </c>
       <c r="J32">
-        <v>3.041851735733156</v>
+        <v>5.157922508417092</v>
       </c>
       <c r="K32">
-        <v>4.028721578060028</v>
+        <v>6.831310501927874</v>
       </c>
       <c r="L32">
-        <v>14.56190530883604</v>
+        <v>24.69192639324372</v>
       </c>
       <c r="M32">
-        <v>9.163118091766369</v>
+        <v>15.53746111212559</v>
       </c>
       <c r="N32">
-        <v>0.1372603810063025</v>
+        <v>0.2327458634454695</v>
       </c>
       <c r="O32">
-        <v>0.5704622374068319</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="P32">
-        <v>54.34984343579034</v>
+        <v>92.15843017373146</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2012,49 +2012,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.807813821314034</v>
+        <v>3.065423436141189</v>
       </c>
       <c r="C33">
-        <v>13.79213717055605</v>
+        <v>23.38666737616026</v>
       </c>
       <c r="D33">
-        <v>0.004799357839206455</v>
+        <v>0.008138041553437031</v>
       </c>
       <c r="E33">
-        <v>0.4565044133233591</v>
+        <v>0.7740727008526525</v>
       </c>
       <c r="F33">
-        <v>2.731060676269862</v>
+        <v>4.63092897280542</v>
       </c>
       <c r="G33">
-        <v>4.933172221491912</v>
+        <v>8.364944201660201</v>
       </c>
       <c r="H33">
-        <v>0.6340489549916346</v>
+        <v>1.075126488898859</v>
       </c>
       <c r="I33">
-        <v>4.699326967221578</v>
+        <v>7.968423987897458</v>
       </c>
       <c r="J33">
-        <v>3.088890680100164</v>
+        <v>5.237684196691584</v>
       </c>
       <c r="K33">
-        <v>4.09102139627745</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="L33">
-        <v>13.90000052207077</v>
+        <v>23.56956610264174</v>
       </c>
       <c r="M33">
-        <v>8.746612723958808</v>
+        <v>14.83121287975624</v>
       </c>
       <c r="N33">
-        <v>0.09804312929021608</v>
+        <v>0.1662470453181925</v>
       </c>
       <c r="O33">
-        <v>0.4074730267191657</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="P33">
-        <v>59.39090506142421</v>
+        <v>100.7063172780671</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2062,49 +2062,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2.204017329458307</v>
+        <v>3.737246776038003</v>
       </c>
       <c r="C34">
-        <v>16.81484507739648</v>
+        <v>28.51212860949838</v>
       </c>
       <c r="D34">
-        <v>0.006479133082928712</v>
+        <v>0.01098635609713999</v>
       </c>
       <c r="E34">
-        <v>0.6162809579865347</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="F34">
-        <v>1.613808581432191</v>
+        <v>2.736458029385022</v>
       </c>
       <c r="G34">
-        <v>2.915056312699767</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="H34">
-        <v>0.6442755510398868</v>
+        <v>1.092467238719808</v>
       </c>
       <c r="I34">
-        <v>4.775122563467087</v>
+        <v>8.09694695544419</v>
       </c>
       <c r="J34">
-        <v>1.850198478435631</v>
+        <v>3.137293072129983</v>
       </c>
       <c r="K34">
-        <v>2.450459516551975</v>
+        <v>4.155127006327263</v>
       </c>
       <c r="L34">
-        <v>5.295238294122194</v>
+        <v>8.978882324815906</v>
       </c>
       <c r="M34">
-        <v>3.332042942460499</v>
+        <v>5.649985858954759</v>
       </c>
       <c r="N34">
-        <v>0.2156948844384753</v>
+        <v>0.3657434997000235</v>
       </c>
       <c r="O34">
-        <v>0.8964406587821645</v>
+        <v>1.520051551848018</v>
       </c>
       <c r="P34">
-        <v>43.62996028135411</v>
+        <v>73.98123699881788</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2112,49 +2112,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2.122828085986121</v>
+        <v>3.59957805884603</v>
       </c>
       <c r="C35">
-        <v>16.19543771943738</v>
+        <v>27.46182917643728</v>
       </c>
       <c r="D35">
-        <v>0.005759229407047746</v>
+        <v>0.009765649864124438</v>
       </c>
       <c r="E35">
-        <v>0.5478052959880308</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="F35">
-        <v>1.365530338134931</v>
+        <v>2.31546448640271</v>
       </c>
       <c r="G35">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H35">
-        <v>0.7567681075706607</v>
+        <v>1.283215486750251</v>
       </c>
       <c r="I35">
-        <v>5.608874122167689</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="J35">
-        <v>1.317090442276213</v>
+        <v>2.233327271685751</v>
       </c>
       <c r="K35">
-        <v>1.744394910087847</v>
+        <v>2.957887021453306</v>
       </c>
       <c r="L35">
-        <v>3.309523933826374</v>
+        <v>5.611801453009935</v>
       </c>
       <c r="M35">
-        <v>2.082526839037811</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="N35">
-        <v>0.03921725171608641</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O35">
-        <v>0.1629892106876663</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P35">
-        <v>37.72533159706982</v>
+        <v>63.96904053416184</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2162,49 +2162,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.527440300523416</v>
+        <v>2.590007466104921</v>
       </c>
       <c r="C36">
-        <v>11.65311709440395</v>
+        <v>19.7596333339893</v>
       </c>
       <c r="D36">
-        <v>0.007918940434690649</v>
+        <v>0.0134277685631711</v>
       </c>
       <c r="E36">
-        <v>0.7532322819835426</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="F36">
-        <v>1.200011509270091</v>
+        <v>2.034802124414503</v>
       </c>
       <c r="G36">
-        <v>2.167605976110083</v>
+        <v>3.675505785577968</v>
       </c>
       <c r="H36">
-        <v>0.715861723377652</v>
+        <v>1.213852487466454</v>
       </c>
       <c r="I36">
-        <v>5.305691737185653</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="J36">
-        <v>0.8310213504838005</v>
+        <v>1.40912315951601</v>
       </c>
       <c r="K36">
-        <v>1.100630121841141</v>
+        <v>1.866285858774109</v>
       </c>
       <c r="L36">
-        <v>4.500952550003867</v>
+        <v>7.632049976093515</v>
       </c>
       <c r="M36">
-        <v>2.832236501091423</v>
+        <v>4.802487980111545</v>
       </c>
       <c r="N36">
-        <v>0.01960862585804321</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O36">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P36">
-        <v>32.69682331791118</v>
+        <v>55.44243953906679</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2212,49 +2212,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.102008664729154</v>
+        <v>1.868623388019001</v>
       </c>
       <c r="C37">
-        <v>8.407422538698238</v>
+        <v>14.25606430474919</v>
       </c>
       <c r="D37">
-        <v>0.01247833038193678</v>
+        <v>0.02115890803893628</v>
       </c>
       <c r="E37">
-        <v>1.186911474640734</v>
+        <v>2.012589022216896</v>
       </c>
       <c r="F37">
-        <v>0.8689738515404108</v>
+        <v>1.473477400438089</v>
       </c>
       <c r="G37">
-        <v>1.569645706838336</v>
+        <v>2.6615731550737</v>
       </c>
       <c r="H37">
-        <v>0.6135957628951304</v>
+        <v>1.04044498925696</v>
       </c>
       <c r="I37">
-        <v>4.547735774730559</v>
+        <v>7.711378052803992</v>
       </c>
       <c r="J37">
-        <v>0.6742248692604419</v>
+        <v>1.143250865267706</v>
       </c>
       <c r="K37">
-        <v>0.8929640611163978</v>
+        <v>1.51415645145824</v>
       </c>
       <c r="L37">
-        <v>4.633333507356926</v>
+        <v>7.856522034213912</v>
       </c>
       <c r="M37">
-        <v>2.915537574652936</v>
+        <v>4.943737626585413</v>
       </c>
       <c r="N37">
-        <v>0.04902156464510804</v>
+        <v>0.08312352265909623</v>
       </c>
       <c r="O37">
-        <v>0.2037365133595828</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="P37">
-        <v>27.67759019484589</v>
+        <v>46.93156598256478</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2262,49 +2262,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.8259652369237178</v>
+        <v>1.400549749566304</v>
       </c>
       <c r="C38">
-        <v>6.301437521637288</v>
+        <v>10.68504623234148</v>
       </c>
       <c r="D38">
-        <v>0.007199036758809682</v>
+        <v>0.01220706233015555</v>
       </c>
       <c r="E38">
-        <v>0.6847566199850387</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="F38">
-        <v>0.4551767793783106</v>
+        <v>0.7718214954675704</v>
       </c>
       <c r="G38">
-        <v>0.8221953702486524</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="H38">
-        <v>0.6033691668468782</v>
+        <v>1.023104239436011</v>
       </c>
       <c r="I38">
-        <v>4.471940178485053</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="J38">
-        <v>0.4233504993030683</v>
+        <v>0.71785519447042</v>
       </c>
       <c r="K38">
-        <v>0.5606983639568079</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="L38">
-        <v>2.382857232354988</v>
+        <v>4.040497046167155</v>
       </c>
       <c r="M38">
-        <v>1.499419324107224</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="N38">
-        <v>0.04902156464510804</v>
+        <v>0.08312352265909623</v>
       </c>
       <c r="O38">
-        <v>0.2037365133595828</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="P38">
-        <v>19.29112340799053</v>
+        <v>32.71103534398393</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2312,49 +2312,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.5206936814682942</v>
+        <v>0.8829153729244983</v>
       </c>
       <c r="C39">
-        <v>3.972465855711053</v>
+        <v>6.735920364031787</v>
       </c>
       <c r="D39">
-        <v>0.00959871567841291</v>
+        <v>0.01627608310687406</v>
       </c>
       <c r="E39">
-        <v>0.9130088266467181</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="F39">
-        <v>0.4551767793783106</v>
+        <v>0.7718214954675704</v>
       </c>
       <c r="G39">
-        <v>0.8221953702486524</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="H39">
-        <v>0.3374776695923217</v>
+        <v>0.5722447440913282</v>
       </c>
       <c r="I39">
-        <v>2.501254676101808</v>
+        <v>4.241257929042194</v>
       </c>
       <c r="J39">
-        <v>0.3763115549360606</v>
+        <v>0.6380935061959289</v>
       </c>
       <c r="K39">
-        <v>0.4983985457393848</v>
+        <v>0.8451105775580874</v>
       </c>
       <c r="L39">
-        <v>1.720952445589714</v>
+        <v>2.918136755565167</v>
       </c>
       <c r="M39">
-        <v>1.082913956299662</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="N39">
-        <v>0.01960862585804321</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O39">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P39">
-        <v>13.31155130859227</v>
+        <v>22.5717609145695</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2362,49 +2362,49 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.3063540787017198</v>
+        <v>0.5194699595376987</v>
       </c>
       <c r="C40">
-        <v>2.337230430699019</v>
+        <v>3.96312986075051</v>
       </c>
       <c r="D40">
-        <v>0.005519261515087423</v>
+        <v>0.009358747786452586</v>
       </c>
       <c r="E40">
-        <v>0.524980075321863</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="F40">
-        <v>0.1655188288648401</v>
+        <v>0.2806623619882071</v>
       </c>
       <c r="G40">
-        <v>0.2989801346358735</v>
+        <v>0.5069663152521334</v>
       </c>
       <c r="H40">
-        <v>0.1533989407237826</v>
+        <v>0.2601112473142401</v>
       </c>
       <c r="I40">
-        <v>1.13693394368264</v>
+        <v>1.927844513200998</v>
       </c>
       <c r="J40">
-        <v>0.3449522586913888</v>
+        <v>0.5849190473462681</v>
       </c>
       <c r="K40">
-        <v>0.456865333594436</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="L40">
-        <v>2.912381061767208</v>
+        <v>4.938385278648744</v>
       </c>
       <c r="M40">
-        <v>1.832623618353274</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="N40">
-        <v>0.01960862585804321</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O40">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P40">
-        <v>10.57684119775301</v>
+        <v>17.93464377010293</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2412,49 +2412,49 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1851114751165868</v>
+        <v>0.3138846751976908</v>
       </c>
       <c r="C41">
-        <v>1.412248776146757</v>
+        <v>2.394682707379284</v>
       </c>
       <c r="D41">
-        <v>0.004079454163325486</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E41">
-        <v>0.3880287513248552</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F41">
-        <v>0.04137970721621003</v>
+        <v>0.07016559049705177</v>
       </c>
       <c r="G41">
-        <v>0.07474503365896838</v>
+        <v>0.1267415788130334</v>
       </c>
       <c r="H41">
-        <v>0.06135957628951303</v>
+        <v>0.104044498925696</v>
       </c>
       <c r="I41">
-        <v>0.4547735774730561</v>
+        <v>0.7711378052803992</v>
       </c>
       <c r="J41">
-        <v>0.5017487399147474</v>
+        <v>0.8507913415945719</v>
       </c>
       <c r="K41">
-        <v>0.6645313943191798</v>
+        <v>1.126814103410783</v>
       </c>
       <c r="L41">
-        <v>2.780000104414156</v>
+        <v>4.713913220528348</v>
       </c>
       <c r="M41">
-        <v>1.749322544791761</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="N41">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O41">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P41">
-        <v>8.367880750430055</v>
+        <v>14.18901518551183</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2462,43 +2462,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.1385629755258662</v>
+        <v>0.2349546106742947</v>
       </c>
       <c r="C42">
-        <v>1.057121890916871</v>
+        <v>1.792511032424259</v>
       </c>
       <c r="D42">
-        <v>0.006239165190968392</v>
+        <v>0.01057945401946814</v>
       </c>
       <c r="E42">
-        <v>0.5934557373203668</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="F42">
-        <v>0.08275941443242006</v>
+        <v>0.1403311809941035</v>
       </c>
       <c r="G42">
-        <v>0.1494900673179368</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="H42">
-        <v>0.02045319209650434</v>
+        <v>0.03468149964189867</v>
       </c>
       <c r="I42">
-        <v>0.1515911924910187</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="J42">
-        <v>0.4233504993030683</v>
+        <v>0.71785519447042</v>
       </c>
       <c r="K42">
-        <v>0.5606983639568079</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="L42">
-        <v>1.985714360295825</v>
+        <v>3.367080871805963</v>
       </c>
       <c r="M42">
-        <v>1.249516103422687</v>
+        <v>2.118744697108034</v>
       </c>
       <c r="P42">
-        <v>6.418952962270341</v>
+        <v>10.88431154471927</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2506,43 +2506,43 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.08118924347218719</v>
+        <v>0.1376687171919696</v>
       </c>
       <c r="C43">
-        <v>0.6194073579591041</v>
+        <v>1.05029943306109</v>
       </c>
       <c r="D43">
-        <v>0.002879614703523873</v>
+        <v>0.004882824932062219</v>
       </c>
       <c r="E43">
-        <v>0.2739026479940154</v>
+        <v>0.4644436205115914</v>
       </c>
       <c r="F43">
-        <v>0.1241391216486301</v>
+        <v>0.2104967714911554</v>
       </c>
       <c r="G43">
-        <v>0.2242351009769051</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H43">
-        <v>0.01022659604825217</v>
+        <v>0.01734074982094934</v>
       </c>
       <c r="I43">
-        <v>0.07579559624550933</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="J43">
-        <v>0.3292726105690532</v>
+        <v>0.5583318179214378</v>
       </c>
       <c r="K43">
-        <v>0.4360987275219618</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="L43">
-        <v>2.912381061767208</v>
+        <v>4.938385278648744</v>
       </c>
       <c r="M43">
-        <v>1.832623618353274</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="P43">
-        <v>6.922151297259624</v>
+        <v>11.73756089535328</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2550,43 +2550,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.1104173711221745</v>
+        <v>0.1872294553810786</v>
       </c>
       <c r="C44">
-        <v>0.8423940068243815</v>
+        <v>1.428407228963081</v>
       </c>
       <c r="D44">
-        <v>0.002159711027642904</v>
+        <v>0.003662118699046665</v>
       </c>
       <c r="E44">
-        <v>0.2054269859955116</v>
+        <v>0.3483327153836935</v>
       </c>
       <c r="F44">
-        <v>0.1241391216486301</v>
+        <v>0.2104967714911554</v>
       </c>
       <c r="G44">
-        <v>0.2242351009769051</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H44">
-        <v>0.08181276838601738</v>
+        <v>0.1387259985675947</v>
       </c>
       <c r="I44">
-        <v>0.6063647699640746</v>
+        <v>1.028183740373866</v>
       </c>
       <c r="J44">
-        <v>0.3135929624467172</v>
+        <v>0.5317445884966074</v>
       </c>
       <c r="K44">
-        <v>0.4153321214494873</v>
+        <v>0.7042588146317394</v>
       </c>
       <c r="L44">
-        <v>1.58857148823666</v>
+        <v>2.693664697444769</v>
       </c>
       <c r="M44">
-        <v>0.9996128827381492</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="P44">
-        <v>5.514059290816351</v>
+        <v>9.34992662355816</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2594,49 +2594,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.2219172654906449</v>
+        <v>0.3762944936580503</v>
       </c>
       <c r="C45">
-        <v>1.693046778421551</v>
+        <v>2.870818450366978</v>
       </c>
       <c r="D45">
-        <v>0.003359550487444519</v>
+        <v>0.005696629087405921</v>
       </c>
       <c r="E45">
-        <v>0.3195530893263514</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="F45">
-        <v>0.1241391216486301</v>
+        <v>0.2104967714911554</v>
       </c>
       <c r="G45">
-        <v>0.2242351009769051</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H45">
-        <v>0.05113298024126085</v>
+        <v>0.08670374910474667</v>
       </c>
       <c r="I45">
-        <v>0.3789779812275467</v>
+        <v>0.6426148377336659</v>
       </c>
       <c r="J45">
-        <v>0.4233504993030683</v>
+        <v>0.71785519447042</v>
       </c>
       <c r="K45">
-        <v>0.5606983639568079</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="L45">
-        <v>3.309523933826374</v>
+        <v>5.611801453009935</v>
       </c>
       <c r="M45">
-        <v>2.082526839037811</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="N45">
-        <v>0.02941293878706482</v>
+        <v>0.04987411359545774</v>
       </c>
       <c r="O45">
-        <v>0.1222419080157497</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="P45">
-        <v>9.544116350747213</v>
+        <v>16.18350163822353</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2644,49 +2644,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.658174133747864</v>
+        <v>1.116034400702901</v>
       </c>
       <c r="C46">
-        <v>5.021328981855138</v>
+        <v>8.514427404015231</v>
       </c>
       <c r="D46">
-        <v>0.004319422055285808</v>
+        <v>0.00732423739809333</v>
       </c>
       <c r="E46">
-        <v>0.4108539719910232</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="F46">
-        <v>0.7862144371079911</v>
+        <v>1.333146219443985</v>
       </c>
       <c r="G46">
-        <v>1.420155639520399</v>
+        <v>2.408089997447633</v>
       </c>
       <c r="H46">
-        <v>0.2249851130615478</v>
+        <v>0.3814964960608854</v>
       </c>
       <c r="I46">
-        <v>1.667503117401205</v>
+        <v>2.827505286028131</v>
       </c>
       <c r="J46">
-        <v>0.9721381835848235</v>
+        <v>1.648408224339482</v>
       </c>
       <c r="K46">
-        <v>1.28752957649341</v>
+        <v>2.183202325358392</v>
       </c>
       <c r="L46">
-        <v>6.354285952946638</v>
+        <v>10.77465878977907</v>
       </c>
       <c r="M46">
-        <v>3.998451530952597</v>
+        <v>6.779983030745709</v>
       </c>
       <c r="N46">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O46">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P46">
-        <v>22.85649167631886</v>
+        <v>38.75665979897546</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2694,49 +2694,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.117163990177295</v>
+        <v>1.894321548561501</v>
       </c>
       <c r="C47">
-        <v>8.52304524551727</v>
+        <v>14.45212019892059</v>
       </c>
       <c r="D47">
-        <v>0.003119582595484196</v>
+        <v>0.00528972700973407</v>
       </c>
       <c r="E47">
-        <v>0.2967278686601834</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="F47">
-        <v>1.075872387621461</v>
+        <v>1.824305352923348</v>
       </c>
       <c r="G47">
-        <v>1.943370875133178</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="H47">
-        <v>0.6033691668468782</v>
+        <v>1.023104239436011</v>
       </c>
       <c r="I47">
-        <v>4.471940178485053</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="J47">
-        <v>1.332770090398548</v>
+        <v>2.259914501110581</v>
       </c>
       <c r="K47">
-        <v>1.765161516160322</v>
+        <v>2.993099962184893</v>
       </c>
       <c r="L47">
-        <v>8.737143185301628</v>
+        <v>14.81515583594624</v>
       </c>
       <c r="M47">
-        <v>5.497870855059822</v>
+        <v>9.32247666727535</v>
       </c>
       <c r="N47">
-        <v>0.1176517551482593</v>
+        <v>0.1994964543818309</v>
       </c>
       <c r="O47">
-        <v>0.4889676320629989</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="P47">
-        <v>35.97417432916838</v>
+        <v>60.99968690598116</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2744,49 +2744,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.75477018224554</v>
+        <v>2.975479874242436</v>
       </c>
       <c r="C48">
-        <v>13.38745769668943</v>
+        <v>22.70047174656035</v>
       </c>
       <c r="D48">
-        <v>0.003119582595484196</v>
+        <v>0.00528972700973407</v>
       </c>
       <c r="E48">
-        <v>0.2967278686601834</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="F48">
-        <v>1.075872387621461</v>
+        <v>1.824305352923348</v>
       </c>
       <c r="G48">
-        <v>1.943370875133178</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="H48">
-        <v>0.7567681075706607</v>
+        <v>1.283215486750251</v>
       </c>
       <c r="I48">
-        <v>5.608874122167689</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="J48">
-        <v>1.991315311536654</v>
+        <v>3.376578136953457</v>
       </c>
       <c r="K48">
-        <v>2.637358971204244</v>
+        <v>4.472043472911545</v>
       </c>
       <c r="L48">
-        <v>9.928571801479121</v>
+        <v>16.83540435902981</v>
       </c>
       <c r="M48">
-        <v>6.247580517113434</v>
+        <v>10.59372348554017</v>
       </c>
       <c r="N48">
-        <v>0.2058905715094538</v>
+        <v>0.3491187951682043</v>
       </c>
       <c r="O48">
-        <v>0.8556933561102479</v>
+        <v>1.45095829949129</v>
       </c>
       <c r="P48">
-        <v>46.69337135163678</v>
+        <v>79.17571663973195</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2794,49 +2794,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.706056636162227</v>
+        <v>2.892878643927256</v>
       </c>
       <c r="C49">
-        <v>13.01581328191398</v>
+        <v>22.0702920867237</v>
       </c>
       <c r="D49">
-        <v>0.005279293623127099</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E49">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F49">
-        <v>1.158631802053881</v>
+        <v>1.964636533917451</v>
       </c>
       <c r="G49">
-        <v>2.092860942451115</v>
+        <v>3.548764206764933</v>
       </c>
       <c r="H49">
-        <v>0.715861723377652</v>
+        <v>1.213852487466454</v>
       </c>
       <c r="I49">
-        <v>5.305691737185653</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="J49">
-        <v>1.662042700967601</v>
+        <v>2.81824631903202</v>
       </c>
       <c r="K49">
-        <v>2.201260243682283</v>
+        <v>3.732571717548218</v>
       </c>
       <c r="L49">
-        <v>11.91428616177495</v>
+        <v>20.20248523083578</v>
       </c>
       <c r="M49">
-        <v>7.497096620536118</v>
+        <v>12.71246818264821</v>
       </c>
       <c r="N49">
-        <v>0.03921725171608641</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O49">
-        <v>0.1629892106876663</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P49">
-        <v>47.97924246078804</v>
+        <v>81.35610678133624</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2.786414835965464</v>
+        <v>1.639226144428642</v>
       </c>
       <c r="C2">
-        <v>21.25806052515646</v>
+        <v>12.50595142650713</v>
       </c>
       <c r="D2">
-        <v>0.009765649864124438</v>
+        <v>0.005745055749770351</v>
       </c>
       <c r="E2">
-        <v>0.9288872410231829</v>
+        <v>0.5464571287296517</v>
       </c>
       <c r="F2">
-        <v>3.017120391373227</v>
+        <v>1.774948425694168</v>
       </c>
       <c r="G2">
-        <v>5.449887888960432</v>
+        <v>3.206126595537439</v>
       </c>
       <c r="H2">
-        <v>0.936400490331264</v>
+        <v>0.5508771147763991</v>
       </c>
       <c r="I2">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="J2">
-        <v>5.609905408639208</v>
+        <v>3.300263655977396</v>
       </c>
       <c r="K2">
-        <v>7.429930494364852</v>
+        <v>4.370970237613768</v>
       </c>
       <c r="L2">
-        <v>47.5880763215243</v>
+        <v>27.99569463327213</v>
       </c>
       <c r="M2">
-        <v>29.94492505246021</v>
+        <v>17.61636616535637</v>
       </c>
       <c r="N2">
-        <v>0.2826199770409272</v>
+        <v>0.1662631311474443</v>
       </c>
       <c r="O2">
-        <v>1.174585290064378</v>
+        <v>0.6909993772221978</v>
       </c>
       <c r="P2">
-        <v>133.3568198142916</v>
+        <v>78.45277837163935</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2.072373089463115</v>
+        <v>1.219160946679801</v>
       </c>
       <c r="C3">
-        <v>15.8105074656796</v>
+        <v>9.301198392968743</v>
       </c>
       <c r="D3">
-        <v>0.01017255194179629</v>
+        <v>0.005984433072677448</v>
       </c>
       <c r="E3">
-        <v>0.9675908760658154</v>
+        <v>0.5692261757600539</v>
       </c>
       <c r="F3">
-        <v>2.946954800876177</v>
+        <v>1.733670555329188</v>
       </c>
       <c r="G3">
-        <v>5.323146310147401</v>
+        <v>3.131565511920289</v>
       </c>
       <c r="H3">
-        <v>0.6589484931960747</v>
+        <v>0.3876542659537624</v>
       </c>
       <c r="I3">
-        <v>4.883872766775861</v>
+        <v>2.873144307885557</v>
       </c>
       <c r="J3">
-        <v>5.849190473462683</v>
+        <v>3.441033195805816</v>
       </c>
       <c r="K3">
-        <v>7.746846960949133</v>
+        <v>4.557409726421938</v>
       </c>
       <c r="L3">
-        <v>33.44633665993922</v>
+        <v>19.67621934130919</v>
       </c>
       <c r="M3">
-        <v>21.04619732460647</v>
+        <v>12.38131395584009</v>
       </c>
       <c r="N3">
-        <v>0.2161211589136501</v>
+        <v>0.1271423944068692</v>
       </c>
       <c r="O3">
-        <v>0.8982122806374654</v>
+        <v>0.5284112884640336</v>
       </c>
       <c r="P3">
-        <v>101.8764712126545</v>
+        <v>59.93313449181801</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>2.241246715885266</v>
+        <v>1.318507985736083</v>
       </c>
       <c r="C4">
-        <v>17.09887477023454</v>
+        <v>10.05913484306009</v>
       </c>
       <c r="D4">
-        <v>0.01098635609713999</v>
+        <v>0.006463187718491645</v>
       </c>
       <c r="E4">
-        <v>1.04499814615108</v>
+        <v>0.6147642698208582</v>
       </c>
       <c r="F4">
-        <v>2.455795667396814</v>
+        <v>1.444725462774323</v>
       </c>
       <c r="G4">
-        <v>4.435955258456166</v>
+        <v>2.609637926600241</v>
       </c>
       <c r="H4">
-        <v>0.936400490331264</v>
+        <v>0.5508771147763991</v>
       </c>
       <c r="I4">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="J4">
-        <v>4.812288525894296</v>
+        <v>2.831031856549329</v>
       </c>
       <c r="K4">
-        <v>6.373542272417241</v>
+        <v>3.749505274919867</v>
       </c>
       <c r="L4">
-        <v>32.99739254369845</v>
+        <v>19.41210901458021</v>
       </c>
       <c r="M4">
-        <v>20.76369803165873</v>
+        <v>12.21512182220465</v>
       </c>
       <c r="N4">
-        <v>0.09974822719091547</v>
+        <v>0.05868110511086269</v>
       </c>
       <c r="O4">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="P4">
-        <v>100.6257267670759</v>
+        <v>59.19733127661551</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2.088893335526152</v>
+        <v>1.228879678761393</v>
       </c>
       <c r="C5">
-        <v>15.93654339764693</v>
+        <v>9.375344350042891</v>
       </c>
       <c r="D5">
-        <v>0.0134277685631711</v>
+        <v>0.007899451655934229</v>
       </c>
       <c r="E5">
-        <v>1.277219956406877</v>
+        <v>0.7513785520032713</v>
       </c>
       <c r="F5">
-        <v>3.227617162864382</v>
+        <v>1.89878203678911</v>
       </c>
       <c r="G5">
-        <v>5.830112625399535</v>
+        <v>3.429809846388888</v>
       </c>
       <c r="H5">
-        <v>0.7629929921217707</v>
+        <v>0.4488628342622511</v>
       </c>
       <c r="I5">
-        <v>5.655010572056262</v>
+        <v>3.326798672288541</v>
       </c>
       <c r="J5">
-        <v>4.041258872574216</v>
+        <v>2.3774411171022</v>
       </c>
       <c r="K5">
-        <v>5.35236699120122</v>
+        <v>3.14875581098243</v>
       </c>
       <c r="L5">
-        <v>29.85478373001287</v>
+        <v>17.56333672747734</v>
       </c>
       <c r="M5">
-        <v>18.78620298102457</v>
+        <v>11.05177688675659</v>
       </c>
       <c r="N5">
-        <v>0.1828717498500118</v>
+        <v>0.1075820260365816</v>
       </c>
       <c r="O5">
-        <v>0.760025775924009</v>
+        <v>0.4471172440849516</v>
       </c>
       <c r="P5">
-        <v>93.76932791117197</v>
+        <v>55.16376523463237</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2.16965898294544</v>
+        <v>1.27639348004918</v>
       </c>
       <c r="C6">
-        <v>16.55271906504277</v>
+        <v>9.737835695738751</v>
       </c>
       <c r="D6">
-        <v>0.01627608310687406</v>
+        <v>0.009575092916283917</v>
       </c>
       <c r="E6">
-        <v>1.548145401705305</v>
+        <v>0.9107618812160861</v>
       </c>
       <c r="F6">
-        <v>2.736458029385022</v>
+        <v>1.609836944234246</v>
       </c>
       <c r="G6">
-        <v>4.942921573708299</v>
+        <v>2.90788226106884</v>
       </c>
       <c r="H6">
-        <v>0.9884227397941123</v>
+        <v>0.5814813989306437</v>
       </c>
       <c r="I6">
-        <v>7.325809150163791</v>
+        <v>4.309716461828336</v>
       </c>
       <c r="J6">
-        <v>4.679352378770145</v>
+        <v>2.752826556644652</v>
       </c>
       <c r="K6">
-        <v>6.197477568759307</v>
+        <v>3.64592778113755</v>
       </c>
       <c r="L6">
-        <v>30.97714402061486</v>
+        <v>18.22361254429979</v>
       </c>
       <c r="M6">
-        <v>19.49245121339392</v>
+        <v>11.46725722084518</v>
       </c>
       <c r="N6">
-        <v>0.1994964543818309</v>
+        <v>0.1173622102217254</v>
       </c>
       <c r="O6">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="P6">
-        <v>98.65545169005242</v>
+        <v>58.03823379540577</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2.132947325027582</v>
+        <v>1.254796297645641</v>
       </c>
       <c r="C7">
-        <v>16.27263921622648</v>
+        <v>9.573066902240638</v>
       </c>
       <c r="D7">
-        <v>0.01302086648549925</v>
+        <v>0.007660074333027135</v>
       </c>
       <c r="E7">
-        <v>1.238516321364244</v>
+        <v>0.7286095049728691</v>
       </c>
       <c r="F7">
-        <v>3.367948343858487</v>
+        <v>1.981337777519071</v>
       </c>
       <c r="G7">
-        <v>6.083595783025599</v>
+        <v>3.578932013623188</v>
       </c>
       <c r="H7">
-        <v>0.7456522423008213</v>
+        <v>0.4386614062108363</v>
       </c>
       <c r="I7">
-        <v>5.526487604509529</v>
+        <v>3.251189611554709</v>
       </c>
       <c r="J7">
-        <v>5.264271426116412</v>
+        <v>3.096929876225234</v>
       </c>
       <c r="K7">
-        <v>6.972162264854221</v>
+        <v>4.101668753779744</v>
       </c>
       <c r="L7">
-        <v>31.65056019497604</v>
+        <v>18.61977803439327</v>
       </c>
       <c r="M7">
-        <v>19.91620015281552</v>
+        <v>11.71654542129834</v>
       </c>
       <c r="N7">
-        <v>0.1828717498500118</v>
+        <v>0.1075820260365816</v>
       </c>
       <c r="O7">
-        <v>0.760025775924009</v>
+        <v>0.4471172440849516</v>
       </c>
       <c r="P7">
-        <v>100.1268992673345</v>
+        <v>58.90387494391809</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2.246753464572943</v>
+        <v>1.321747563096613</v>
       </c>
       <c r="C8">
-        <v>17.14088674755698</v>
+        <v>10.08385016208481</v>
       </c>
       <c r="D8">
-        <v>0.0142415727185148</v>
+        <v>0.008378206301748429</v>
       </c>
       <c r="E8">
-        <v>1.354627226492142</v>
+        <v>0.7969166460640756</v>
       </c>
       <c r="F8">
-        <v>2.31546448640271</v>
+        <v>1.362169722044361</v>
       </c>
       <c r="G8">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="H8">
-        <v>0.7976744917636694</v>
+        <v>0.4692656903650807</v>
       </c>
       <c r="I8">
-        <v>5.912056507149727</v>
+        <v>3.478016793756201</v>
       </c>
       <c r="J8">
-        <v>4.732526837619807</v>
+        <v>2.784108676606523</v>
       </c>
       <c r="K8">
-        <v>6.267903450222481</v>
+        <v>3.687358778650478</v>
       </c>
       <c r="L8">
-        <v>24.24298227700293</v>
+        <v>14.26195764336506</v>
       </c>
       <c r="M8">
-        <v>15.25496181917784</v>
+        <v>8.974375216313625</v>
       </c>
       <c r="N8">
-        <v>0.2327458634454695</v>
+        <v>0.136922578592013</v>
       </c>
       <c r="O8">
-        <v>0.9673055329941932</v>
+        <v>0.5690583106535749</v>
       </c>
       <c r="P8">
-        <v>85.6626023779495</v>
+        <v>50.3946417472601</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>3.065423436141189</v>
+        <v>1.803364730695542</v>
       </c>
       <c r="C9">
-        <v>23.38666737616026</v>
+        <v>13.75819425709283</v>
       </c>
       <c r="D9">
-        <v>0.008138041553437031</v>
+        <v>0.004787546458141959</v>
       </c>
       <c r="E9">
-        <v>0.7740727008526525</v>
+        <v>0.4553809406080431</v>
       </c>
       <c r="F9">
-        <v>4.63092897280542</v>
+        <v>2.724339444088722</v>
       </c>
       <c r="G9">
-        <v>8.364944201660201</v>
+        <v>4.921031518731882</v>
       </c>
       <c r="H9">
-        <v>1.075126488898859</v>
+        <v>0.6324885391877175</v>
       </c>
       <c r="I9">
-        <v>7.968423987897458</v>
+        <v>4.687761765497489</v>
       </c>
       <c r="J9">
-        <v>5.237684196691584</v>
+        <v>3.081288816244298</v>
       </c>
       <c r="K9">
-        <v>6.936949324122633</v>
+        <v>4.080953255023282</v>
       </c>
       <c r="L9">
-        <v>23.56956610264174</v>
+        <v>13.86579215327158</v>
       </c>
       <c r="M9">
-        <v>14.83121287975624</v>
+        <v>8.725087015860467</v>
       </c>
       <c r="N9">
-        <v>0.1662470453181925</v>
+        <v>0.09780184185143785</v>
       </c>
       <c r="O9">
-        <v>0.6909325235672807</v>
+        <v>0.4064702218954105</v>
       </c>
       <c r="P9">
-        <v>100.7063172780671</v>
+        <v>59.24474204650684</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>3.737246776038003</v>
+        <v>2.198593168680314</v>
       </c>
       <c r="C10">
-        <v>28.51212860949838</v>
+        <v>16.77346317810839</v>
       </c>
       <c r="D10">
-        <v>0.01098635609713999</v>
+        <v>0.006463187718491645</v>
       </c>
       <c r="E10">
-        <v>1.04499814615108</v>
+        <v>0.6147642698208582</v>
       </c>
       <c r="F10">
-        <v>2.736458029385022</v>
+        <v>1.609836944234246</v>
       </c>
       <c r="G10">
-        <v>4.942921573708299</v>
+        <v>2.90788226106884</v>
       </c>
       <c r="H10">
-        <v>1.092467238719808</v>
+        <v>0.6426899672391325</v>
       </c>
       <c r="I10">
-        <v>8.09694695544419</v>
+        <v>4.76337082623132</v>
       </c>
       <c r="J10">
-        <v>3.137293072129983</v>
+        <v>1.845645077750392</v>
       </c>
       <c r="K10">
-        <v>4.155127006327263</v>
+        <v>2.444428853262676</v>
       </c>
       <c r="L10">
-        <v>8.978882324815906</v>
+        <v>5.282206534579649</v>
       </c>
       <c r="M10">
-        <v>5.649985858954759</v>
+        <v>3.32384267270875</v>
       </c>
       <c r="N10">
-        <v>0.3657434997000235</v>
+        <v>0.2151640520731632</v>
       </c>
       <c r="O10">
-        <v>1.520051551848018</v>
+        <v>0.8942344881699033</v>
       </c>
       <c r="P10">
-        <v>73.98123699881788</v>
+        <v>43.52258548164612</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>3.59957805884603</v>
+        <v>2.11760373466704</v>
       </c>
       <c r="C11">
-        <v>27.46182917643728</v>
+        <v>16.15558020249044</v>
       </c>
       <c r="D11">
-        <v>0.009765649864124438</v>
+        <v>0.005745055749770351</v>
       </c>
       <c r="E11">
-        <v>0.9288872410231829</v>
+        <v>0.5464571287296517</v>
       </c>
       <c r="F11">
-        <v>2.31546448640271</v>
+        <v>1.362169722044361</v>
       </c>
       <c r="G11">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="H11">
-        <v>1.283215486750251</v>
+        <v>0.7549056758046951</v>
       </c>
       <c r="I11">
-        <v>9.51069959845826</v>
+        <v>5.595070494303456</v>
       </c>
       <c r="J11">
-        <v>2.233327271685751</v>
+        <v>1.313849038398584</v>
       </c>
       <c r="K11">
-        <v>2.957887021453306</v>
+        <v>1.740101895542922</v>
       </c>
       <c r="L11">
-        <v>5.611801453009935</v>
+        <v>3.30137908411228</v>
       </c>
       <c r="M11">
-        <v>3.531241161846724</v>
+        <v>2.077401670442968</v>
       </c>
       <c r="N11">
-        <v>0.066498818127277</v>
+        <v>0.03912073674057515</v>
       </c>
       <c r="O11">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="P11">
-        <v>63.96904053416184</v>
+        <v>37.63248828715084</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2.590007466104921</v>
+        <v>1.523681218569707</v>
       </c>
       <c r="C12">
-        <v>19.7596333339893</v>
+        <v>11.6244383812922</v>
       </c>
       <c r="D12">
-        <v>0.0134277685631711</v>
+        <v>0.007899451655934229</v>
       </c>
       <c r="E12">
-        <v>1.277219956406877</v>
+        <v>0.7513785520032713</v>
       </c>
       <c r="F12">
-        <v>2.034802124414503</v>
+        <v>1.197058240584439</v>
       </c>
       <c r="G12">
-        <v>3.675505785577968</v>
+        <v>2.162271424897343</v>
       </c>
       <c r="H12">
-        <v>1.213852487466454</v>
+        <v>0.714099963599036</v>
       </c>
       <c r="I12">
-        <v>8.996607728271321</v>
+        <v>5.292634251368133</v>
       </c>
       <c r="J12">
-        <v>1.40912315951601</v>
+        <v>0.8289761789895828</v>
       </c>
       <c r="K12">
-        <v>1.866285858774109</v>
+        <v>1.097921434092558</v>
       </c>
       <c r="L12">
-        <v>7.632049976093515</v>
+        <v>4.489875554392704</v>
       </c>
       <c r="M12">
-        <v>4.802487980111545</v>
+        <v>2.825266271802438</v>
       </c>
       <c r="N12">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O12">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P12">
-        <v>55.44243953906679</v>
+        <v>32.61635533599672</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.868623388019001</v>
+        <v>1.099296584340157</v>
       </c>
       <c r="C13">
-        <v>14.25606430474919</v>
+        <v>8.386731589054193</v>
       </c>
       <c r="D13">
-        <v>0.02115890803893628</v>
+        <v>0.01244762079116909</v>
       </c>
       <c r="E13">
-        <v>2.012589022216896</v>
+        <v>1.183990445580912</v>
       </c>
       <c r="F13">
-        <v>1.473477400438089</v>
+        <v>0.8668352776645942</v>
       </c>
       <c r="G13">
-        <v>2.6615731550737</v>
+        <v>1.565782755960144</v>
       </c>
       <c r="H13">
-        <v>1.04044498925696</v>
+        <v>0.612085683084888</v>
       </c>
       <c r="I13">
-        <v>7.711378052803992</v>
+        <v>4.536543644029828</v>
       </c>
       <c r="J13">
-        <v>1.143250865267706</v>
+        <v>0.6725655791802274</v>
       </c>
       <c r="K13">
-        <v>1.51415645145824</v>
+        <v>0.890766446527924</v>
       </c>
       <c r="L13">
-        <v>7.856522034213912</v>
+        <v>4.621930717757194</v>
       </c>
       <c r="M13">
-        <v>4.943737626585413</v>
+        <v>2.908362338620156</v>
       </c>
       <c r="N13">
-        <v>0.08312352265909623</v>
+        <v>0.04890092092571893</v>
       </c>
       <c r="O13">
-        <v>0.3454662617836404</v>
+        <v>0.2032351109477052</v>
       </c>
       <c r="P13">
-        <v>46.93156598256478</v>
+        <v>27.60947471446481</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.400549749566304</v>
+        <v>0.8239325086950293</v>
       </c>
       <c r="C14">
-        <v>10.68504623234148</v>
+        <v>6.285929471953192</v>
       </c>
       <c r="D14">
-        <v>0.01220706233015555</v>
+        <v>0.007181319687212938</v>
       </c>
       <c r="E14">
-        <v>1.161109051278979</v>
+        <v>0.6830714109120647</v>
       </c>
       <c r="F14">
-        <v>0.7718214954675704</v>
+        <v>0.4540565740147873</v>
       </c>
       <c r="G14">
-        <v>1.394157366943366</v>
+        <v>0.8201719197886471</v>
       </c>
       <c r="H14">
-        <v>1.023104239436011</v>
+        <v>0.601884255033473</v>
       </c>
       <c r="I14">
-        <v>7.582855085257261</v>
+        <v>4.460934583295996</v>
       </c>
       <c r="J14">
-        <v>0.71785519447042</v>
+        <v>0.4223086194852592</v>
       </c>
       <c r="K14">
-        <v>0.9507493997528482</v>
+        <v>0.5593184664245107</v>
       </c>
       <c r="L14">
-        <v>4.040497046167155</v>
+        <v>2.37699294056084</v>
       </c>
       <c r="M14">
-        <v>2.542493636529642</v>
+        <v>1.495729202718937</v>
       </c>
       <c r="N14">
-        <v>0.08312352265909623</v>
+        <v>0.04890092092571893</v>
       </c>
       <c r="O14">
-        <v>0.3454662617836404</v>
+        <v>0.2032351109477052</v>
       </c>
       <c r="P14">
-        <v>32.71103534398393</v>
+        <v>19.24364730444337</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.8829153729244983</v>
+        <v>0.5194122368051233</v>
       </c>
       <c r="C15">
-        <v>6.735920364031787</v>
+        <v>3.962689483629729</v>
       </c>
       <c r="D15">
-        <v>0.01627608310687406</v>
+        <v>0.009575092916283917</v>
       </c>
       <c r="E15">
-        <v>1.548145401705305</v>
+        <v>0.9107618812160861</v>
       </c>
       <c r="F15">
-        <v>0.7718214954675704</v>
+        <v>0.4540565740147873</v>
       </c>
       <c r="G15">
-        <v>1.394157366943366</v>
+        <v>0.8201719197886471</v>
       </c>
       <c r="H15">
-        <v>0.5722447440913282</v>
+        <v>0.3366471256966884</v>
       </c>
       <c r="I15">
-        <v>4.241257929042194</v>
+        <v>2.495099004216405</v>
       </c>
       <c r="J15">
-        <v>0.6380935061959289</v>
+        <v>0.3753854395424525</v>
       </c>
       <c r="K15">
-        <v>0.8451105775580874</v>
+        <v>0.4971719701551205</v>
       </c>
       <c r="L15">
-        <v>2.918136755565167</v>
+        <v>1.716717123738386</v>
       </c>
       <c r="M15">
-        <v>1.836245404160296</v>
+        <v>1.080248868630344</v>
       </c>
       <c r="N15">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O15">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P15">
-        <v>22.5717609145695</v>
+        <v>13.27879113309942</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.5194699595376987</v>
+        <v>0.3056001310100829</v>
       </c>
       <c r="C16">
-        <v>3.96312986075051</v>
+        <v>2.331478427998365</v>
       </c>
       <c r="D16">
-        <v>0.009358747786452586</v>
+        <v>0.005505678426863252</v>
       </c>
       <c r="E16">
-        <v>0.8901836059805501</v>
+        <v>0.5236880816992495</v>
       </c>
       <c r="F16">
-        <v>0.2806623619882071</v>
+        <v>0.1651114814599227</v>
       </c>
       <c r="G16">
-        <v>0.5069663152521334</v>
+        <v>0.2982443344685989</v>
       </c>
       <c r="H16">
-        <v>0.2601112473142401</v>
+        <v>0.153021420771222</v>
       </c>
       <c r="I16">
-        <v>1.927844513200998</v>
+        <v>1.134135911007457</v>
       </c>
       <c r="J16">
-        <v>0.5849190473462681</v>
+        <v>0.3441033195805815</v>
       </c>
       <c r="K16">
-        <v>0.7746846960949134</v>
+        <v>0.4557409726421938</v>
       </c>
       <c r="L16">
-        <v>4.938385278648744</v>
+        <v>2.905213594018807</v>
       </c>
       <c r="M16">
-        <v>3.107492222425117</v>
+        <v>1.828113469989812</v>
       </c>
       <c r="N16">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O16">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P16">
-        <v>17.93464377010293</v>
+        <v>10.55081123582252</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,49 +1230,49 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.3138846751976908</v>
+        <v>0.1846559095502622</v>
       </c>
       <c r="C17">
-        <v>2.394682707379284</v>
+        <v>1.408773184408906</v>
       </c>
       <c r="D17">
-        <v>0.006917335320421476</v>
+        <v>0.004069414489420665</v>
       </c>
       <c r="E17">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="F17">
-        <v>0.07016559049705177</v>
+        <v>0.04127787036498066</v>
       </c>
       <c r="G17">
-        <v>0.1267415788130334</v>
+        <v>0.07456108361714972</v>
       </c>
       <c r="H17">
-        <v>0.104044498925696</v>
+        <v>0.06120856830848879</v>
       </c>
       <c r="I17">
-        <v>0.7711378052803992</v>
+        <v>0.4536543644029825</v>
       </c>
       <c r="J17">
-        <v>0.8507913415945719</v>
+        <v>0.5005139193899368</v>
       </c>
       <c r="K17">
-        <v>1.126814103410783</v>
+        <v>0.6628959602068273</v>
       </c>
       <c r="L17">
-        <v>4.713913220528348</v>
+        <v>2.773158430654314</v>
       </c>
       <c r="M17">
-        <v>2.966242575951247</v>
+        <v>1.745017403172094</v>
       </c>
       <c r="N17">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O17">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P17">
-        <v>14.18901518551183</v>
+        <v>8.347287114456885</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1280,43 +1280,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.2349546106742947</v>
+        <v>0.1382219673826524</v>
       </c>
       <c r="C18">
-        <v>1.792511032424259</v>
+        <v>1.054520278387952</v>
       </c>
       <c r="D18">
-        <v>0.01057945401946814</v>
+        <v>0.006223810395584546</v>
       </c>
       <c r="E18">
-        <v>1.006294511108448</v>
+        <v>0.5919952227904561</v>
       </c>
       <c r="F18">
-        <v>0.1403311809941035</v>
+        <v>0.08255574072996133</v>
       </c>
       <c r="G18">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="H18">
-        <v>0.03468149964189867</v>
+        <v>0.0204028561028296</v>
       </c>
       <c r="I18">
-        <v>0.2570459350934664</v>
+        <v>0.1512181214676609</v>
       </c>
       <c r="J18">
-        <v>0.71785519447042</v>
+        <v>0.4223086194852592</v>
       </c>
       <c r="K18">
-        <v>0.9507493997528482</v>
+        <v>0.5593184664245107</v>
       </c>
       <c r="L18">
-        <v>3.367080871805963</v>
+        <v>1.980827450467368</v>
       </c>
       <c r="M18">
-        <v>2.118744697108034</v>
+        <v>1.246441002265781</v>
       </c>
       <c r="P18">
-        <v>10.88431154471927</v>
+        <v>6.403155703134315</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,43 +1324,43 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.1376687171919696</v>
+        <v>0.08098943401327287</v>
       </c>
       <c r="C19">
-        <v>1.05029943306109</v>
+        <v>0.6178829756179414</v>
       </c>
       <c r="D19">
-        <v>0.004882824932062219</v>
+        <v>0.002872527874885176</v>
       </c>
       <c r="E19">
-        <v>0.4644436205115914</v>
+        <v>0.2732285643648258</v>
       </c>
       <c r="F19">
-        <v>0.2104967714911554</v>
+        <v>0.1238336110949419</v>
       </c>
       <c r="G19">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="H19">
-        <v>0.01734074982094934</v>
+        <v>0.0102014280514148</v>
       </c>
       <c r="I19">
-        <v>0.1285229675467332</v>
+        <v>0.07560906073383046</v>
       </c>
       <c r="J19">
-        <v>0.5583318179214378</v>
+        <v>0.3284622595996459</v>
       </c>
       <c r="K19">
-        <v>0.7394717553633264</v>
+        <v>0.4350254738857304</v>
       </c>
       <c r="L19">
-        <v>4.938385278648744</v>
+        <v>2.905213594018807</v>
       </c>
       <c r="M19">
-        <v>3.107492222425117</v>
+        <v>1.828113469989812</v>
       </c>
       <c r="P19">
-        <v>11.73756089535328</v>
+        <v>6.905115650096556</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,43 +1368,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1872294553810786</v>
+        <v>0.1101456302580511</v>
       </c>
       <c r="C20">
-        <v>1.428407228963081</v>
+        <v>0.8403208468404004</v>
       </c>
       <c r="D20">
-        <v>0.003662118699046665</v>
+        <v>0.002154395906163881</v>
       </c>
       <c r="E20">
-        <v>0.3483327153836935</v>
+        <v>0.2049214232736194</v>
       </c>
       <c r="F20">
-        <v>0.2104967714911554</v>
+        <v>0.1238336110949419</v>
       </c>
       <c r="G20">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="H20">
-        <v>0.1387259985675947</v>
+        <v>0.08161142441131841</v>
       </c>
       <c r="I20">
-        <v>1.028183740373866</v>
+        <v>0.6048724858706437</v>
       </c>
       <c r="J20">
-        <v>0.5317445884966074</v>
+        <v>0.3128211996187105</v>
       </c>
       <c r="K20">
-        <v>0.7042588146317394</v>
+        <v>0.4143099751292671</v>
       </c>
       <c r="L20">
-        <v>2.693664697444769</v>
+        <v>1.584661960373895</v>
       </c>
       <c r="M20">
-        <v>1.694995757686427</v>
+        <v>0.9971528018126247</v>
       </c>
       <c r="P20">
-        <v>9.34992662355816</v>
+        <v>5.500489005441086</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1412,49 +1412,49 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.3762944936580503</v>
+        <v>0.2213711196362791</v>
       </c>
       <c r="C21">
-        <v>2.870818450366978</v>
+        <v>1.688880133355707</v>
       </c>
       <c r="D21">
-        <v>0.005696629087405921</v>
+        <v>0.00335128252069937</v>
       </c>
       <c r="E21">
-        <v>0.5418508905968565</v>
+        <v>0.3187666584256303</v>
       </c>
       <c r="F21">
-        <v>0.2104967714911554</v>
+        <v>0.1238336110949419</v>
       </c>
       <c r="G21">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="H21">
-        <v>0.08670374910474667</v>
+        <v>0.05100714025707398</v>
       </c>
       <c r="I21">
-        <v>0.6426148377336659</v>
+        <v>0.3780453036691522</v>
       </c>
       <c r="J21">
-        <v>0.71785519447042</v>
+        <v>0.4223086194852592</v>
       </c>
       <c r="K21">
-        <v>0.9507493997528482</v>
+        <v>0.5593184664245107</v>
       </c>
       <c r="L21">
-        <v>5.611801453009935</v>
+        <v>3.30137908411228</v>
       </c>
       <c r="M21">
-        <v>3.531241161846724</v>
+        <v>2.077401670442968</v>
       </c>
       <c r="N21">
-        <v>0.04987411359545774</v>
+        <v>0.02934055255543135</v>
       </c>
       <c r="O21">
-        <v>0.2072797570701843</v>
+        <v>0.1219410665686232</v>
       </c>
       <c r="P21">
-        <v>16.18350163822353</v>
+        <v>9.520627959400006</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1462,49 +1462,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>1.116034400702901</v>
+        <v>0.6565543450675992</v>
       </c>
       <c r="C22">
-        <v>8.514427404015231</v>
+        <v>5.008971322342777</v>
       </c>
       <c r="D22">
-        <v>0.00732423739809333</v>
+        <v>0.004308791812327762</v>
       </c>
       <c r="E22">
-        <v>0.6966654307673871</v>
+        <v>0.4098428465472388</v>
       </c>
       <c r="F22">
-        <v>1.333146219443985</v>
+        <v>0.7842795369346323</v>
       </c>
       <c r="G22">
-        <v>2.408089997447633</v>
+        <v>1.416660588725845</v>
       </c>
       <c r="H22">
-        <v>0.3814964960608854</v>
+        <v>0.2244314171311255</v>
       </c>
       <c r="I22">
-        <v>2.827505286028131</v>
+        <v>1.66339933614427</v>
       </c>
       <c r="J22">
-        <v>1.648408224339482</v>
+        <v>0.9697457188180025</v>
       </c>
       <c r="K22">
-        <v>2.183202325358392</v>
+        <v>1.284360922900728</v>
       </c>
       <c r="L22">
-        <v>10.77465878977907</v>
+        <v>6.338647841495579</v>
       </c>
       <c r="M22">
-        <v>6.779983030745709</v>
+        <v>3.988611207250499</v>
       </c>
       <c r="N22">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O22">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P22">
-        <v>38.75665979897546</v>
+        <v>22.80024108154531</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1512,49 +1512,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.894321548561501</v>
+        <v>1.114414612022635</v>
       </c>
       <c r="C23">
-        <v>14.45212019892059</v>
+        <v>8.502069744502872</v>
       </c>
       <c r="D23">
-        <v>0.00528972700973407</v>
+        <v>0.003111905197792273</v>
       </c>
       <c r="E23">
-        <v>0.503147255554224</v>
+        <v>0.2959976113952281</v>
       </c>
       <c r="F23">
-        <v>1.824305352923348</v>
+        <v>1.073224629489496</v>
       </c>
       <c r="G23">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="H23">
-        <v>1.023104239436011</v>
+        <v>0.601884255033473</v>
       </c>
       <c r="I23">
-        <v>7.582855085257261</v>
+        <v>4.460934583295996</v>
       </c>
       <c r="J23">
-        <v>2.259914501110581</v>
+        <v>1.32949009837952</v>
       </c>
       <c r="K23">
-        <v>2.993099962184893</v>
+        <v>1.760817394299385</v>
       </c>
       <c r="L23">
-        <v>14.81515583594624</v>
+        <v>8.715640782056422</v>
       </c>
       <c r="M23">
-        <v>9.32247666727535</v>
+        <v>5.484340409969436</v>
       </c>
       <c r="N23">
-        <v>0.1994964543818309</v>
+        <v>0.1173622102217254</v>
       </c>
       <c r="O23">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="P23">
-        <v>60.99968690598116</v>
+        <v>35.88564067618437</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1562,49 +1562,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2.975479874242436</v>
+        <v>1.750451633806872</v>
       </c>
       <c r="C24">
-        <v>22.70047174656035</v>
+        <v>13.35451071302245</v>
       </c>
       <c r="D24">
-        <v>0.00528972700973407</v>
+        <v>0.003111905197792273</v>
       </c>
       <c r="E24">
-        <v>0.503147255554224</v>
+        <v>0.2959976113952281</v>
       </c>
       <c r="F24">
-        <v>1.824305352923348</v>
+        <v>1.073224629489496</v>
       </c>
       <c r="G24">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="H24">
-        <v>1.283215486750251</v>
+        <v>0.7549056758046951</v>
       </c>
       <c r="I24">
-        <v>9.51069959845826</v>
+        <v>5.595070494303456</v>
       </c>
       <c r="J24">
-        <v>3.376578136953457</v>
+        <v>1.986414617578812</v>
       </c>
       <c r="K24">
-        <v>4.472043472911545</v>
+        <v>2.630868342070846</v>
       </c>
       <c r="L24">
-        <v>16.83540435902981</v>
+        <v>9.90413725233684</v>
       </c>
       <c r="M24">
-        <v>10.59372348554017</v>
+        <v>6.232205011328905</v>
       </c>
       <c r="N24">
-        <v>0.3491187951682043</v>
+        <v>0.2053838678880195</v>
       </c>
       <c r="O24">
-        <v>1.45095829949129</v>
+        <v>0.8535874659803621</v>
       </c>
       <c r="P24">
-        <v>79.17571663973195</v>
+        <v>46.57845739424966</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1612,49 +1612,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>2.892878643927256</v>
+        <v>1.701857973398907</v>
       </c>
       <c r="C25">
-        <v>22.0702920867237</v>
+        <v>12.98378092765167</v>
       </c>
       <c r="D25">
-        <v>0.008951845708780735</v>
+        <v>0.005266301103956155</v>
       </c>
       <c r="E25">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="F25">
-        <v>1.964636533917451</v>
+        <v>1.155780370219459</v>
       </c>
       <c r="G25">
-        <v>3.548764206764933</v>
+        <v>2.087710341280192</v>
       </c>
       <c r="H25">
-        <v>1.213852487466454</v>
+        <v>0.714099963599036</v>
       </c>
       <c r="I25">
-        <v>8.996607728271321</v>
+        <v>5.292634251368133</v>
       </c>
       <c r="J25">
-        <v>2.81824631903202</v>
+        <v>1.657952357979166</v>
       </c>
       <c r="K25">
-        <v>3.732571717548218</v>
+        <v>2.195842868185115</v>
       </c>
       <c r="L25">
-        <v>20.20248523083578</v>
+        <v>11.88496470280421</v>
       </c>
       <c r="M25">
-        <v>12.71246818264821</v>
+        <v>7.478646013594684</v>
       </c>
       <c r="N25">
-        <v>0.066498818127277</v>
+        <v>0.03912073674057515</v>
       </c>
       <c r="O25">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="P25">
-        <v>81.35610678133624</v>
+        <v>47.86116393135212</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1662,49 +1662,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2.786414835965464</v>
+        <v>1.639226144428642</v>
       </c>
       <c r="C26">
-        <v>21.25806052515646</v>
+        <v>12.50595142650713</v>
       </c>
       <c r="D26">
-        <v>0.009765649864124438</v>
+        <v>0.005745055749770351</v>
       </c>
       <c r="E26">
-        <v>0.9288872410231829</v>
+        <v>0.5464571287296517</v>
       </c>
       <c r="F26">
-        <v>3.017120391373227</v>
+        <v>1.774948425694168</v>
       </c>
       <c r="G26">
-        <v>5.449887888960432</v>
+        <v>3.206126595537439</v>
       </c>
       <c r="H26">
-        <v>0.936400490331264</v>
+        <v>0.5508771147763991</v>
       </c>
       <c r="I26">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="J26">
-        <v>5.609905408639208</v>
+        <v>3.300263655977396</v>
       </c>
       <c r="K26">
-        <v>7.429930494364852</v>
+        <v>4.370970237613768</v>
       </c>
       <c r="L26">
-        <v>47.5880763215243</v>
+        <v>27.99569463327213</v>
       </c>
       <c r="M26">
-        <v>29.94492505246021</v>
+        <v>17.61636616535637</v>
       </c>
       <c r="N26">
-        <v>0.2826199770409272</v>
+        <v>0.1662631311474443</v>
       </c>
       <c r="O26">
-        <v>1.174585290064378</v>
+        <v>0.6909993772221978</v>
       </c>
       <c r="P26">
-        <v>133.3568198142916</v>
+        <v>78.45277837163935</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1712,49 +1712,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2.274287208011337</v>
+        <v>1.337945449899268</v>
       </c>
       <c r="C27">
-        <v>17.3509466341692</v>
+        <v>10.20742675720839</v>
       </c>
       <c r="D27">
-        <v>0.01098635609713999</v>
+        <v>0.006463187718491645</v>
       </c>
       <c r="E27">
-        <v>1.04499814615108</v>
+        <v>0.6147642698208582</v>
       </c>
       <c r="F27">
-        <v>1.964636533917451</v>
+        <v>1.155780370219459</v>
       </c>
       <c r="G27">
-        <v>3.548764206764933</v>
+        <v>2.087710341280192</v>
       </c>
       <c r="H27">
-        <v>0.9190597405103148</v>
+        <v>0.5406756867249843</v>
       </c>
       <c r="I27">
-        <v>6.811717279976862</v>
+        <v>4.007280218893014</v>
       </c>
       <c r="J27">
-        <v>5.423794802665395</v>
+        <v>3.190776236110848</v>
       </c>
       <c r="K27">
-        <v>7.183439909243742</v>
+        <v>4.225961746318525</v>
       </c>
       <c r="L27">
-        <v>41.07838663603275</v>
+        <v>24.16609489570189</v>
       </c>
       <c r="M27">
-        <v>25.84868530471802</v>
+        <v>15.20658022764253</v>
       </c>
       <c r="N27">
-        <v>0.2161211589136501</v>
+        <v>0.1271423944068692</v>
       </c>
       <c r="O27">
-        <v>0.8982122806374654</v>
+        <v>0.5284112884640336</v>
       </c>
       <c r="P27">
-        <v>114.5740361978094</v>
+        <v>67.40301307040934</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1762,49 +1762,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2.443160834433487</v>
+        <v>1.437292488955549</v>
       </c>
       <c r="C28">
-        <v>18.63931393872413</v>
+        <v>10.96536320729974</v>
       </c>
       <c r="D28">
-        <v>0.01953129972824888</v>
+        <v>0.0114901114995407</v>
       </c>
       <c r="E28">
-        <v>1.857774482046366</v>
+        <v>1.092914257459303</v>
       </c>
       <c r="F28">
-        <v>2.946954800876177</v>
+        <v>1.733670555329188</v>
       </c>
       <c r="G28">
-        <v>5.323146310147401</v>
+        <v>3.131565511920289</v>
       </c>
       <c r="H28">
-        <v>1.023104239436011</v>
+        <v>0.601884255033473</v>
       </c>
       <c r="I28">
-        <v>7.582855085257261</v>
+        <v>4.460934583295996</v>
       </c>
       <c r="J28">
-        <v>4.041258872574216</v>
+        <v>2.3774411171022</v>
       </c>
       <c r="K28">
-        <v>5.35236699120122</v>
+        <v>3.14875581098243</v>
       </c>
       <c r="L28">
-        <v>36.5889454736248</v>
+        <v>21.52499162841206</v>
       </c>
       <c r="M28">
-        <v>23.02369237524064</v>
+        <v>13.54465889128815</v>
       </c>
       <c r="N28">
-        <v>0.1496223407863732</v>
+        <v>0.08802165766629404</v>
       </c>
       <c r="O28">
-        <v>0.6218392712105527</v>
+        <v>0.3658231997058696</v>
       </c>
       <c r="P28">
-        <v>109.6135663152869</v>
+        <v>64.48480727595009</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1812,49 +1812,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2.208206223759193</v>
+        <v>1.299070521572897</v>
       </c>
       <c r="C29">
-        <v>16.84680290629988</v>
+        <v>9.91084292891178</v>
       </c>
       <c r="D29">
-        <v>0.009358747786452586</v>
+        <v>0.005505678426863252</v>
       </c>
       <c r="E29">
-        <v>0.8901836059805501</v>
+        <v>0.5236880816992495</v>
       </c>
       <c r="F29">
-        <v>2.66629243888797</v>
+        <v>1.568559073869265</v>
       </c>
       <c r="G29">
-        <v>4.816179994895266</v>
+        <v>2.83332117745169</v>
       </c>
       <c r="H29">
-        <v>1.109807988540757</v>
+        <v>0.6528913952905473</v>
       </c>
       <c r="I29">
-        <v>8.225469922990925</v>
+        <v>4.838979886965149</v>
       </c>
       <c r="J29">
-        <v>3.56268874292727</v>
+        <v>2.09590203744536</v>
       </c>
       <c r="K29">
-        <v>4.718534058032654</v>
+        <v>2.775876833366089</v>
       </c>
       <c r="L29">
-        <v>23.12062198640094</v>
+        <v>13.60168182654259</v>
       </c>
       <c r="M29">
-        <v>14.5487135868085</v>
+        <v>8.558894882225028</v>
       </c>
       <c r="N29">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O29">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P29">
-        <v>82.89429611708746</v>
+        <v>48.76606873651588</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1862,49 +1862,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2.318341197512768</v>
+        <v>1.363862068783514</v>
       </c>
       <c r="C30">
-        <v>17.68704245274874</v>
+        <v>10.40514930940613</v>
       </c>
       <c r="D30">
-        <v>0.01017255194179629</v>
+        <v>0.005984433072677448</v>
       </c>
       <c r="E30">
-        <v>0.9675908760658154</v>
+        <v>0.5692261757600539</v>
       </c>
       <c r="F30">
-        <v>2.525961257893865</v>
+        <v>1.486003333139303</v>
       </c>
       <c r="G30">
-        <v>4.562696837269201</v>
+        <v>2.68419901021739</v>
       </c>
       <c r="H30">
-        <v>0.9190597405103148</v>
+        <v>0.5406756867249843</v>
       </c>
       <c r="I30">
-        <v>6.811717279976862</v>
+        <v>4.007280218893014</v>
       </c>
       <c r="J30">
-        <v>5.476969261515058</v>
+        <v>3.222058356072719</v>
       </c>
       <c r="K30">
-        <v>7.253865790706916</v>
+        <v>4.267392743831452</v>
       </c>
       <c r="L30">
-        <v>28.28347932317009</v>
+        <v>16.63895058392589</v>
       </c>
       <c r="M30">
-        <v>17.79745545570749</v>
+        <v>10.47010441903256</v>
       </c>
       <c r="N30">
-        <v>0.132997636254554</v>
+        <v>0.07824147348115029</v>
       </c>
       <c r="O30">
-        <v>0.5527460188538247</v>
+        <v>0.3251761775163284</v>
       </c>
       <c r="P30">
-        <v>95.30009568012728</v>
+        <v>56.06430398985717</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1912,49 +1912,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2.369737518597769</v>
+        <v>1.394098124148472</v>
       </c>
       <c r="C31">
-        <v>18.07915424109155</v>
+        <v>10.6358256203035</v>
       </c>
       <c r="D31">
-        <v>0.01017255194179629</v>
+        <v>0.005984433072677448</v>
       </c>
       <c r="E31">
-        <v>0.9675908760658154</v>
+        <v>0.5692261757600539</v>
       </c>
       <c r="F31">
-        <v>2.66629243888797</v>
+        <v>1.568559073869265</v>
       </c>
       <c r="G31">
-        <v>4.816179994895266</v>
+        <v>2.83332117745169</v>
       </c>
       <c r="H31">
-        <v>0.9710819899731628</v>
+        <v>0.5712799708792289</v>
       </c>
       <c r="I31">
-        <v>7.197286182617058</v>
+        <v>4.234107401094507</v>
       </c>
       <c r="J31">
-        <v>4.360305625672182</v>
+        <v>2.565133836873424</v>
       </c>
       <c r="K31">
-        <v>5.774922279980264</v>
+        <v>3.39734179605999</v>
       </c>
       <c r="L31">
-        <v>26.26323080008651</v>
+        <v>15.45045411364547</v>
       </c>
       <c r="M31">
-        <v>16.52620863744266</v>
+        <v>9.72223981767309</v>
       </c>
       <c r="N31">
-        <v>0.3324940906363849</v>
+        <v>0.1956036837028757</v>
       </c>
       <c r="O31">
-        <v>1.381865047134561</v>
+        <v>0.812940443790821</v>
       </c>
       <c r="P31">
-        <v>91.71652227502295</v>
+        <v>53.95611566832506</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1962,49 +1962,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2.788250418861358</v>
+        <v>1.64030600354882</v>
       </c>
       <c r="C32">
-        <v>21.27206451759727</v>
+        <v>12.51418986618204</v>
       </c>
       <c r="D32">
-        <v>0.01098635609713999</v>
+        <v>0.006463187718491645</v>
       </c>
       <c r="E32">
-        <v>1.04499814615108</v>
+        <v>0.6147642698208582</v>
       </c>
       <c r="F32">
-        <v>1.683974171929243</v>
+        <v>0.9906688887595354</v>
       </c>
       <c r="G32">
-        <v>3.041797891512799</v>
+        <v>1.789466006811594</v>
       </c>
       <c r="H32">
-        <v>1.05778573907791</v>
+        <v>0.6222871111363028</v>
       </c>
       <c r="I32">
-        <v>7.839901020350728</v>
+        <v>4.612152704763658</v>
       </c>
       <c r="J32">
-        <v>5.157922508417092</v>
+        <v>3.034365636301492</v>
       </c>
       <c r="K32">
-        <v>6.831310501927874</v>
+        <v>4.01880675875389</v>
       </c>
       <c r="L32">
-        <v>24.69192639324372</v>
+        <v>14.52606797009403</v>
       </c>
       <c r="M32">
-        <v>15.53746111212559</v>
+        <v>9.140567349949059</v>
       </c>
       <c r="N32">
-        <v>0.2327458634454695</v>
+        <v>0.136922578592013</v>
       </c>
       <c r="O32">
-        <v>0.9673055329941932</v>
+        <v>0.5690583106535749</v>
       </c>
       <c r="P32">
-        <v>92.15843017373146</v>
+        <v>54.21608664308536</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2012,49 +2012,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>3.065423436141189</v>
+        <v>1.803364730695542</v>
       </c>
       <c r="C33">
-        <v>23.38666737616026</v>
+        <v>13.75819425709283</v>
       </c>
       <c r="D33">
-        <v>0.008138041553437031</v>
+        <v>0.004787546458141959</v>
       </c>
       <c r="E33">
-        <v>0.7740727008526525</v>
+        <v>0.4553809406080431</v>
       </c>
       <c r="F33">
-        <v>4.63092897280542</v>
+        <v>2.724339444088722</v>
       </c>
       <c r="G33">
-        <v>8.364944201660201</v>
+        <v>4.921031518731882</v>
       </c>
       <c r="H33">
-        <v>1.075126488898859</v>
+        <v>0.6324885391877175</v>
       </c>
       <c r="I33">
-        <v>7.968423987897458</v>
+        <v>4.687761765497489</v>
       </c>
       <c r="J33">
-        <v>5.237684196691584</v>
+        <v>3.081288816244298</v>
       </c>
       <c r="K33">
-        <v>6.936949324122633</v>
+        <v>4.080953255023282</v>
       </c>
       <c r="L33">
-        <v>23.56956610264174</v>
+        <v>13.86579215327158</v>
       </c>
       <c r="M33">
-        <v>14.83121287975624</v>
+        <v>8.725087015860467</v>
       </c>
       <c r="N33">
-        <v>0.1662470453181925</v>
+        <v>0.09780184185143785</v>
       </c>
       <c r="O33">
-        <v>0.6909325235672807</v>
+        <v>0.4064702218954105</v>
       </c>
       <c r="P33">
-        <v>100.7063172780671</v>
+        <v>59.24474204650684</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2062,49 +2062,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>3.737246776038003</v>
+        <v>2.198593168680314</v>
       </c>
       <c r="C34">
-        <v>28.51212860949838</v>
+        <v>16.77346317810839</v>
       </c>
       <c r="D34">
-        <v>0.01098635609713999</v>
+        <v>0.006463187718491645</v>
       </c>
       <c r="E34">
-        <v>1.04499814615108</v>
+        <v>0.6147642698208582</v>
       </c>
       <c r="F34">
-        <v>2.736458029385022</v>
+        <v>1.609836944234246</v>
       </c>
       <c r="G34">
-        <v>4.942921573708299</v>
+        <v>2.90788226106884</v>
       </c>
       <c r="H34">
-        <v>1.092467238719808</v>
+        <v>0.6426899672391325</v>
       </c>
       <c r="I34">
-        <v>8.09694695544419</v>
+        <v>4.76337082623132</v>
       </c>
       <c r="J34">
-        <v>3.137293072129983</v>
+        <v>1.845645077750392</v>
       </c>
       <c r="K34">
-        <v>4.155127006327263</v>
+        <v>2.444428853262676</v>
       </c>
       <c r="L34">
-        <v>8.978882324815906</v>
+        <v>5.282206534579649</v>
       </c>
       <c r="M34">
-        <v>5.649985858954759</v>
+        <v>3.32384267270875</v>
       </c>
       <c r="N34">
-        <v>0.3657434997000235</v>
+        <v>0.2151640520731632</v>
       </c>
       <c r="O34">
-        <v>1.520051551848018</v>
+        <v>0.8942344881699033</v>
       </c>
       <c r="P34">
-        <v>73.98123699881788</v>
+        <v>43.52258548164612</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2112,49 +2112,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>3.59957805884603</v>
+        <v>2.11760373466704</v>
       </c>
       <c r="C35">
-        <v>27.46182917643728</v>
+        <v>16.15558020249044</v>
       </c>
       <c r="D35">
-        <v>0.009765649864124438</v>
+        <v>0.005745055749770351</v>
       </c>
       <c r="E35">
-        <v>0.9288872410231829</v>
+        <v>0.5464571287296517</v>
       </c>
       <c r="F35">
-        <v>2.31546448640271</v>
+        <v>1.362169722044361</v>
       </c>
       <c r="G35">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="H35">
-        <v>1.283215486750251</v>
+        <v>0.7549056758046951</v>
       </c>
       <c r="I35">
-        <v>9.51069959845826</v>
+        <v>5.595070494303456</v>
       </c>
       <c r="J35">
-        <v>2.233327271685751</v>
+        <v>1.313849038398584</v>
       </c>
       <c r="K35">
-        <v>2.957887021453306</v>
+        <v>1.740101895542922</v>
       </c>
       <c r="L35">
-        <v>5.611801453009935</v>
+        <v>3.30137908411228</v>
       </c>
       <c r="M35">
-        <v>3.531241161846724</v>
+        <v>2.077401670442968</v>
       </c>
       <c r="N35">
-        <v>0.066498818127277</v>
+        <v>0.03912073674057515</v>
       </c>
       <c r="O35">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="P35">
-        <v>63.96904053416184</v>
+        <v>37.63248828715084</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2162,49 +2162,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2.590007466104921</v>
+        <v>1.523681218569707</v>
       </c>
       <c r="C36">
-        <v>19.7596333339893</v>
+        <v>11.6244383812922</v>
       </c>
       <c r="D36">
-        <v>0.0134277685631711</v>
+        <v>0.007899451655934229</v>
       </c>
       <c r="E36">
-        <v>1.277219956406877</v>
+        <v>0.7513785520032713</v>
       </c>
       <c r="F36">
-        <v>2.034802124414503</v>
+        <v>1.197058240584439</v>
       </c>
       <c r="G36">
-        <v>3.675505785577968</v>
+        <v>2.162271424897343</v>
       </c>
       <c r="H36">
-        <v>1.213852487466454</v>
+        <v>0.714099963599036</v>
       </c>
       <c r="I36">
-        <v>8.996607728271321</v>
+        <v>5.292634251368133</v>
       </c>
       <c r="J36">
-        <v>1.40912315951601</v>
+        <v>0.8289761789895828</v>
       </c>
       <c r="K36">
-        <v>1.866285858774109</v>
+        <v>1.097921434092558</v>
       </c>
       <c r="L36">
-        <v>7.632049976093515</v>
+        <v>4.489875554392704</v>
       </c>
       <c r="M36">
-        <v>4.802487980111545</v>
+        <v>2.825266271802438</v>
       </c>
       <c r="N36">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O36">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P36">
-        <v>55.44243953906679</v>
+        <v>32.61635533599672</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2212,49 +2212,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.868623388019001</v>
+        <v>1.099296584340157</v>
       </c>
       <c r="C37">
-        <v>14.25606430474919</v>
+        <v>8.386731589054193</v>
       </c>
       <c r="D37">
-        <v>0.02115890803893628</v>
+        <v>0.01244762079116909</v>
       </c>
       <c r="E37">
-        <v>2.012589022216896</v>
+        <v>1.183990445580912</v>
       </c>
       <c r="F37">
-        <v>1.473477400438089</v>
+        <v>0.8668352776645942</v>
       </c>
       <c r="G37">
-        <v>2.6615731550737</v>
+        <v>1.565782755960144</v>
       </c>
       <c r="H37">
-        <v>1.04044498925696</v>
+        <v>0.612085683084888</v>
       </c>
       <c r="I37">
-        <v>7.711378052803992</v>
+        <v>4.536543644029828</v>
       </c>
       <c r="J37">
-        <v>1.143250865267706</v>
+        <v>0.6725655791802274</v>
       </c>
       <c r="K37">
-        <v>1.51415645145824</v>
+        <v>0.890766446527924</v>
       </c>
       <c r="L37">
-        <v>7.856522034213912</v>
+        <v>4.621930717757194</v>
       </c>
       <c r="M37">
-        <v>4.943737626585413</v>
+        <v>2.908362338620156</v>
       </c>
       <c r="N37">
-        <v>0.08312352265909623</v>
+        <v>0.04890092092571893</v>
       </c>
       <c r="O37">
-        <v>0.3454662617836404</v>
+        <v>0.2032351109477052</v>
       </c>
       <c r="P37">
-        <v>46.93156598256478</v>
+        <v>27.60947471446481</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2262,49 +2262,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.400549749566304</v>
+        <v>0.8239325086950293</v>
       </c>
       <c r="C38">
-        <v>10.68504623234148</v>
+        <v>6.285929471953192</v>
       </c>
       <c r="D38">
-        <v>0.01220706233015555</v>
+        <v>0.007181319687212938</v>
       </c>
       <c r="E38">
-        <v>1.161109051278979</v>
+        <v>0.6830714109120647</v>
       </c>
       <c r="F38">
-        <v>0.7718214954675704</v>
+        <v>0.4540565740147873</v>
       </c>
       <c r="G38">
-        <v>1.394157366943366</v>
+        <v>0.8201719197886471</v>
       </c>
       <c r="H38">
-        <v>1.023104239436011</v>
+        <v>0.601884255033473</v>
       </c>
       <c r="I38">
-        <v>7.582855085257261</v>
+        <v>4.460934583295996</v>
       </c>
       <c r="J38">
-        <v>0.71785519447042</v>
+        <v>0.4223086194852592</v>
       </c>
       <c r="K38">
-        <v>0.9507493997528482</v>
+        <v>0.5593184664245107</v>
       </c>
       <c r="L38">
-        <v>4.040497046167155</v>
+        <v>2.37699294056084</v>
       </c>
       <c r="M38">
-        <v>2.542493636529642</v>
+        <v>1.495729202718937</v>
       </c>
       <c r="N38">
-        <v>0.08312352265909623</v>
+        <v>0.04890092092571893</v>
       </c>
       <c r="O38">
-        <v>0.3454662617836404</v>
+        <v>0.2032351109477052</v>
       </c>
       <c r="P38">
-        <v>32.71103534398393</v>
+        <v>19.24364730444337</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2312,49 +2312,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.8829153729244983</v>
+        <v>0.5194122368051233</v>
       </c>
       <c r="C39">
-        <v>6.735920364031787</v>
+        <v>3.962689483629729</v>
       </c>
       <c r="D39">
-        <v>0.01627608310687406</v>
+        <v>0.009575092916283917</v>
       </c>
       <c r="E39">
-        <v>1.548145401705305</v>
+        <v>0.9107618812160861</v>
       </c>
       <c r="F39">
-        <v>0.7718214954675704</v>
+        <v>0.4540565740147873</v>
       </c>
       <c r="G39">
-        <v>1.394157366943366</v>
+        <v>0.8201719197886471</v>
       </c>
       <c r="H39">
-        <v>0.5722447440913282</v>
+        <v>0.3366471256966884</v>
       </c>
       <c r="I39">
-        <v>4.241257929042194</v>
+        <v>2.495099004216405</v>
       </c>
       <c r="J39">
-        <v>0.6380935061959289</v>
+        <v>0.3753854395424525</v>
       </c>
       <c r="K39">
-        <v>0.8451105775580874</v>
+        <v>0.4971719701551205</v>
       </c>
       <c r="L39">
-        <v>2.918136755565167</v>
+        <v>1.716717123738386</v>
       </c>
       <c r="M39">
-        <v>1.836245404160296</v>
+        <v>1.080248868630344</v>
       </c>
       <c r="N39">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O39">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P39">
-        <v>22.5717609145695</v>
+        <v>13.27879113309942</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2362,49 +2362,49 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.5194699595376987</v>
+        <v>0.3056001310100829</v>
       </c>
       <c r="C40">
-        <v>3.96312986075051</v>
+        <v>2.331478427998365</v>
       </c>
       <c r="D40">
-        <v>0.009358747786452586</v>
+        <v>0.005505678426863252</v>
       </c>
       <c r="E40">
-        <v>0.8901836059805501</v>
+        <v>0.5236880816992495</v>
       </c>
       <c r="F40">
-        <v>0.2806623619882071</v>
+        <v>0.1651114814599227</v>
       </c>
       <c r="G40">
-        <v>0.5069663152521334</v>
+        <v>0.2982443344685989</v>
       </c>
       <c r="H40">
-        <v>0.2601112473142401</v>
+        <v>0.153021420771222</v>
       </c>
       <c r="I40">
-        <v>1.927844513200998</v>
+        <v>1.134135911007457</v>
       </c>
       <c r="J40">
-        <v>0.5849190473462681</v>
+        <v>0.3441033195805815</v>
       </c>
       <c r="K40">
-        <v>0.7746846960949134</v>
+        <v>0.4557409726421938</v>
       </c>
       <c r="L40">
-        <v>4.938385278648744</v>
+        <v>2.905213594018807</v>
       </c>
       <c r="M40">
-        <v>3.107492222425117</v>
+        <v>1.828113469989812</v>
       </c>
       <c r="N40">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O40">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P40">
-        <v>17.93464377010293</v>
+        <v>10.55081123582252</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2412,49 +2412,49 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.3138846751976908</v>
+        <v>0.1846559095502622</v>
       </c>
       <c r="C41">
-        <v>2.394682707379284</v>
+        <v>1.408773184408906</v>
       </c>
       <c r="D41">
-        <v>0.006917335320421476</v>
+        <v>0.004069414489420665</v>
       </c>
       <c r="E41">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="F41">
-        <v>0.07016559049705177</v>
+        <v>0.04127787036498066</v>
       </c>
       <c r="G41">
-        <v>0.1267415788130334</v>
+        <v>0.07456108361714972</v>
       </c>
       <c r="H41">
-        <v>0.104044498925696</v>
+        <v>0.06120856830848879</v>
       </c>
       <c r="I41">
-        <v>0.7711378052803992</v>
+        <v>0.4536543644029825</v>
       </c>
       <c r="J41">
-        <v>0.8507913415945719</v>
+        <v>0.5005139193899368</v>
       </c>
       <c r="K41">
-        <v>1.126814103410783</v>
+        <v>0.6628959602068273</v>
       </c>
       <c r="L41">
-        <v>4.713913220528348</v>
+        <v>2.773158430654314</v>
       </c>
       <c r="M41">
-        <v>2.966242575951247</v>
+        <v>1.745017403172094</v>
       </c>
       <c r="N41">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O41">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P41">
-        <v>14.18901518551183</v>
+        <v>8.347287114456885</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2462,43 +2462,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.2349546106742947</v>
+        <v>0.1382219673826524</v>
       </c>
       <c r="C42">
-        <v>1.792511032424259</v>
+        <v>1.054520278387952</v>
       </c>
       <c r="D42">
-        <v>0.01057945401946814</v>
+        <v>0.006223810395584546</v>
       </c>
       <c r="E42">
-        <v>1.006294511108448</v>
+        <v>0.5919952227904561</v>
       </c>
       <c r="F42">
-        <v>0.1403311809941035</v>
+        <v>0.08255574072996133</v>
       </c>
       <c r="G42">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="H42">
-        <v>0.03468149964189867</v>
+        <v>0.0204028561028296</v>
       </c>
       <c r="I42">
-        <v>0.2570459350934664</v>
+        <v>0.1512181214676609</v>
       </c>
       <c r="J42">
-        <v>0.71785519447042</v>
+        <v>0.4223086194852592</v>
       </c>
       <c r="K42">
-        <v>0.9507493997528482</v>
+        <v>0.5593184664245107</v>
       </c>
       <c r="L42">
-        <v>3.367080871805963</v>
+        <v>1.980827450467368</v>
       </c>
       <c r="M42">
-        <v>2.118744697108034</v>
+        <v>1.246441002265781</v>
       </c>
       <c r="P42">
-        <v>10.88431154471927</v>
+        <v>6.403155703134315</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2506,43 +2506,43 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.1376687171919696</v>
+        <v>0.08098943401327287</v>
       </c>
       <c r="C43">
-        <v>1.05029943306109</v>
+        <v>0.6178829756179414</v>
       </c>
       <c r="D43">
-        <v>0.004882824932062219</v>
+        <v>0.002872527874885176</v>
       </c>
       <c r="E43">
-        <v>0.4644436205115914</v>
+        <v>0.2732285643648258</v>
       </c>
       <c r="F43">
-        <v>0.2104967714911554</v>
+        <v>0.1238336110949419</v>
       </c>
       <c r="G43">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="H43">
-        <v>0.01734074982094934</v>
+        <v>0.0102014280514148</v>
       </c>
       <c r="I43">
-        <v>0.1285229675467332</v>
+        <v>0.07560906073383046</v>
       </c>
       <c r="J43">
-        <v>0.5583318179214378</v>
+        <v>0.3284622595996459</v>
       </c>
       <c r="K43">
-        <v>0.7394717553633264</v>
+        <v>0.4350254738857304</v>
       </c>
       <c r="L43">
-        <v>4.938385278648744</v>
+        <v>2.905213594018807</v>
       </c>
       <c r="M43">
-        <v>3.107492222425117</v>
+        <v>1.828113469989812</v>
       </c>
       <c r="P43">
-        <v>11.73756089535328</v>
+        <v>6.905115650096556</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2550,43 +2550,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.1872294553810786</v>
+        <v>0.1101456302580511</v>
       </c>
       <c r="C44">
-        <v>1.428407228963081</v>
+        <v>0.8403208468404004</v>
       </c>
       <c r="D44">
-        <v>0.003662118699046665</v>
+        <v>0.002154395906163881</v>
       </c>
       <c r="E44">
-        <v>0.3483327153836935</v>
+        <v>0.2049214232736194</v>
       </c>
       <c r="F44">
-        <v>0.2104967714911554</v>
+        <v>0.1238336110949419</v>
       </c>
       <c r="G44">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="H44">
-        <v>0.1387259985675947</v>
+        <v>0.08161142441131841</v>
       </c>
       <c r="I44">
-        <v>1.028183740373866</v>
+        <v>0.6048724858706437</v>
       </c>
       <c r="J44">
-        <v>0.5317445884966074</v>
+        <v>0.3128211996187105</v>
       </c>
       <c r="K44">
-        <v>0.7042588146317394</v>
+        <v>0.4143099751292671</v>
       </c>
       <c r="L44">
-        <v>2.693664697444769</v>
+        <v>1.584661960373895</v>
       </c>
       <c r="M44">
-        <v>1.694995757686427</v>
+        <v>0.9971528018126247</v>
       </c>
       <c r="P44">
-        <v>9.34992662355816</v>
+        <v>5.500489005441086</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2594,49 +2594,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.3762944936580503</v>
+        <v>0.2213711196362791</v>
       </c>
       <c r="C45">
-        <v>2.870818450366978</v>
+        <v>1.688880133355707</v>
       </c>
       <c r="D45">
-        <v>0.005696629087405921</v>
+        <v>0.00335128252069937</v>
       </c>
       <c r="E45">
-        <v>0.5418508905968565</v>
+        <v>0.3187666584256303</v>
       </c>
       <c r="F45">
-        <v>0.2104967714911554</v>
+        <v>0.1238336110949419</v>
       </c>
       <c r="G45">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="H45">
-        <v>0.08670374910474667</v>
+        <v>0.05100714025707398</v>
       </c>
       <c r="I45">
-        <v>0.6426148377336659</v>
+        <v>0.3780453036691522</v>
       </c>
       <c r="J45">
-        <v>0.71785519447042</v>
+        <v>0.4223086194852592</v>
       </c>
       <c r="K45">
-        <v>0.9507493997528482</v>
+        <v>0.5593184664245107</v>
       </c>
       <c r="L45">
-        <v>5.611801453009935</v>
+        <v>3.30137908411228</v>
       </c>
       <c r="M45">
-        <v>3.531241161846724</v>
+        <v>2.077401670442968</v>
       </c>
       <c r="N45">
-        <v>0.04987411359545774</v>
+        <v>0.02934055255543135</v>
       </c>
       <c r="O45">
-        <v>0.2072797570701843</v>
+        <v>0.1219410665686232</v>
       </c>
       <c r="P45">
-        <v>16.18350163822353</v>
+        <v>9.520627959400006</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2644,49 +2644,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>1.116034400702901</v>
+        <v>0.6565543450675992</v>
       </c>
       <c r="C46">
-        <v>8.514427404015231</v>
+        <v>5.008971322342777</v>
       </c>
       <c r="D46">
-        <v>0.00732423739809333</v>
+        <v>0.004308791812327762</v>
       </c>
       <c r="E46">
-        <v>0.6966654307673871</v>
+        <v>0.4098428465472388</v>
       </c>
       <c r="F46">
-        <v>1.333146219443985</v>
+        <v>0.7842795369346323</v>
       </c>
       <c r="G46">
-        <v>2.408089997447633</v>
+        <v>1.416660588725845</v>
       </c>
       <c r="H46">
-        <v>0.3814964960608854</v>
+        <v>0.2244314171311255</v>
       </c>
       <c r="I46">
-        <v>2.827505286028131</v>
+        <v>1.66339933614427</v>
       </c>
       <c r="J46">
-        <v>1.648408224339482</v>
+        <v>0.9697457188180025</v>
       </c>
       <c r="K46">
-        <v>2.183202325358392</v>
+        <v>1.284360922900728</v>
       </c>
       <c r="L46">
-        <v>10.77465878977907</v>
+        <v>6.338647841495579</v>
       </c>
       <c r="M46">
-        <v>6.779983030745709</v>
+        <v>3.988611207250499</v>
       </c>
       <c r="N46">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O46">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P46">
-        <v>38.75665979897546</v>
+        <v>22.80024108154531</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2694,49 +2694,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.894321548561501</v>
+        <v>1.114414612022635</v>
       </c>
       <c r="C47">
-        <v>14.45212019892059</v>
+        <v>8.502069744502872</v>
       </c>
       <c r="D47">
-        <v>0.00528972700973407</v>
+        <v>0.003111905197792273</v>
       </c>
       <c r="E47">
-        <v>0.503147255554224</v>
+        <v>0.2959976113952281</v>
       </c>
       <c r="F47">
-        <v>1.824305352923348</v>
+        <v>1.073224629489496</v>
       </c>
       <c r="G47">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="H47">
-        <v>1.023104239436011</v>
+        <v>0.601884255033473</v>
       </c>
       <c r="I47">
-        <v>7.582855085257261</v>
+        <v>4.460934583295996</v>
       </c>
       <c r="J47">
-        <v>2.259914501110581</v>
+        <v>1.32949009837952</v>
       </c>
       <c r="K47">
-        <v>2.993099962184893</v>
+        <v>1.760817394299385</v>
       </c>
       <c r="L47">
-        <v>14.81515583594624</v>
+        <v>8.715640782056422</v>
       </c>
       <c r="M47">
-        <v>9.32247666727535</v>
+        <v>5.484340409969436</v>
       </c>
       <c r="N47">
-        <v>0.1994964543818309</v>
+        <v>0.1173622102217254</v>
       </c>
       <c r="O47">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="P47">
-        <v>60.99968690598116</v>
+        <v>35.88564067618437</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2744,49 +2744,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2.975479874242436</v>
+        <v>1.750451633806872</v>
       </c>
       <c r="C48">
-        <v>22.70047174656035</v>
+        <v>13.35451071302245</v>
       </c>
       <c r="D48">
-        <v>0.00528972700973407</v>
+        <v>0.003111905197792273</v>
       </c>
       <c r="E48">
-        <v>0.503147255554224</v>
+        <v>0.2959976113952281</v>
       </c>
       <c r="F48">
-        <v>1.824305352923348</v>
+        <v>1.073224629489496</v>
       </c>
       <c r="G48">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="H48">
-        <v>1.283215486750251</v>
+        <v>0.7549056758046951</v>
       </c>
       <c r="I48">
-        <v>9.51069959845826</v>
+        <v>5.595070494303456</v>
       </c>
       <c r="J48">
-        <v>3.376578136953457</v>
+        <v>1.986414617578812</v>
       </c>
       <c r="K48">
-        <v>4.472043472911545</v>
+        <v>2.630868342070846</v>
       </c>
       <c r="L48">
-        <v>16.83540435902981</v>
+        <v>9.90413725233684</v>
       </c>
       <c r="M48">
-        <v>10.59372348554017</v>
+        <v>6.232205011328905</v>
       </c>
       <c r="N48">
-        <v>0.3491187951682043</v>
+        <v>0.2053838678880195</v>
       </c>
       <c r="O48">
-        <v>1.45095829949129</v>
+        <v>0.8535874659803621</v>
       </c>
       <c r="P48">
-        <v>79.17571663973195</v>
+        <v>46.57845739424966</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2794,49 +2794,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>2.892878643927256</v>
+        <v>1.701857973398907</v>
       </c>
       <c r="C49">
-        <v>22.0702920867237</v>
+        <v>12.98378092765167</v>
       </c>
       <c r="D49">
-        <v>0.008951845708780735</v>
+        <v>0.005266301103956155</v>
       </c>
       <c r="E49">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="F49">
-        <v>1.964636533917451</v>
+        <v>1.155780370219459</v>
       </c>
       <c r="G49">
-        <v>3.548764206764933</v>
+        <v>2.087710341280192</v>
       </c>
       <c r="H49">
-        <v>1.213852487466454</v>
+        <v>0.714099963599036</v>
       </c>
       <c r="I49">
-        <v>8.996607728271321</v>
+        <v>5.292634251368133</v>
       </c>
       <c r="J49">
-        <v>2.81824631903202</v>
+        <v>1.657952357979166</v>
       </c>
       <c r="K49">
-        <v>3.732571717548218</v>
+        <v>2.195842868185115</v>
       </c>
       <c r="L49">
-        <v>20.20248523083578</v>
+        <v>11.88496470280421</v>
       </c>
       <c r="M49">
-        <v>12.71246818264821</v>
+        <v>7.478646013594684</v>
       </c>
       <c r="N49">
-        <v>0.066498818127277</v>
+        <v>0.03912073674057515</v>
       </c>
       <c r="O49">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="P49">
-        <v>81.35610678133624</v>
+        <v>47.86116393135212</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1.639226144428642</v>
+        <v>2.786414835965464</v>
       </c>
       <c r="C2">
-        <v>12.50595142650713</v>
+        <v>21.25806052515646</v>
       </c>
       <c r="D2">
-        <v>0.005745055749770351</v>
+        <v>0.009765649864124438</v>
       </c>
       <c r="E2">
-        <v>0.5464571287296517</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="F2">
-        <v>1.774948425694168</v>
+        <v>3.017120391373227</v>
       </c>
       <c r="G2">
-        <v>3.206126595537439</v>
+        <v>5.449887888960432</v>
       </c>
       <c r="H2">
-        <v>0.5508771147763991</v>
+        <v>0.936400490331264</v>
       </c>
       <c r="I2">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="J2">
-        <v>3.300263655977396</v>
+        <v>5.609905408639208</v>
       </c>
       <c r="K2">
-        <v>4.370970237613768</v>
+        <v>7.429930494364852</v>
       </c>
       <c r="L2">
-        <v>27.99569463327213</v>
+        <v>47.5880763215243</v>
       </c>
       <c r="M2">
-        <v>17.61636616535637</v>
+        <v>29.94492505246021</v>
       </c>
       <c r="N2">
-        <v>0.1662631311474443</v>
+        <v>0.2826199770409272</v>
       </c>
       <c r="O2">
-        <v>0.6909993772221978</v>
+        <v>1.174585290064378</v>
       </c>
       <c r="P2">
-        <v>78.45277837163935</v>
+        <v>133.3568198142916</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.219160946679801</v>
+        <v>2.072373089463115</v>
       </c>
       <c r="C3">
-        <v>9.301198392968743</v>
+        <v>15.8105074656796</v>
       </c>
       <c r="D3">
-        <v>0.005984433072677448</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E3">
-        <v>0.5692261757600539</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="F3">
-        <v>1.733670555329188</v>
+        <v>2.946954800876177</v>
       </c>
       <c r="G3">
-        <v>3.131565511920289</v>
+        <v>5.323146310147401</v>
       </c>
       <c r="H3">
-        <v>0.3876542659537624</v>
+        <v>0.6589484931960747</v>
       </c>
       <c r="I3">
-        <v>2.873144307885557</v>
+        <v>4.883872766775861</v>
       </c>
       <c r="J3">
-        <v>3.441033195805816</v>
+        <v>5.849190473462683</v>
       </c>
       <c r="K3">
-        <v>4.557409726421938</v>
+        <v>7.746846960949133</v>
       </c>
       <c r="L3">
-        <v>19.67621934130919</v>
+        <v>33.44633665993922</v>
       </c>
       <c r="M3">
-        <v>12.38131395584009</v>
+        <v>21.04619732460647</v>
       </c>
       <c r="N3">
-        <v>0.1271423944068692</v>
+        <v>0.2161211589136501</v>
       </c>
       <c r="O3">
-        <v>0.5284112884640336</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="P3">
-        <v>59.93313449181801</v>
+        <v>101.8764712126545</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.318507985736083</v>
+        <v>2.241246715885266</v>
       </c>
       <c r="C4">
-        <v>10.05913484306009</v>
+        <v>17.09887477023454</v>
       </c>
       <c r="D4">
-        <v>0.006463187718491645</v>
+        <v>0.01098635609713999</v>
       </c>
       <c r="E4">
-        <v>0.6147642698208582</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="F4">
-        <v>1.444725462774323</v>
+        <v>2.455795667396814</v>
       </c>
       <c r="G4">
-        <v>2.609637926600241</v>
+        <v>4.435955258456166</v>
       </c>
       <c r="H4">
-        <v>0.5508771147763991</v>
+        <v>0.936400490331264</v>
       </c>
       <c r="I4">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="J4">
-        <v>2.831031856549329</v>
+        <v>4.812288525894296</v>
       </c>
       <c r="K4">
-        <v>3.749505274919867</v>
+        <v>6.373542272417241</v>
       </c>
       <c r="L4">
-        <v>19.41210901458021</v>
+        <v>32.99739254369845</v>
       </c>
       <c r="M4">
-        <v>12.21512182220465</v>
+        <v>20.76369803165873</v>
       </c>
       <c r="N4">
-        <v>0.05868110511086269</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O4">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P4">
-        <v>59.19733127661551</v>
+        <v>100.6257267670759</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.228879678761393</v>
+        <v>2.088893335526152</v>
       </c>
       <c r="C5">
-        <v>9.375344350042891</v>
+        <v>15.93654339764693</v>
       </c>
       <c r="D5">
-        <v>0.007899451655934229</v>
+        <v>0.0134277685631711</v>
       </c>
       <c r="E5">
-        <v>0.7513785520032713</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="F5">
-        <v>1.89878203678911</v>
+        <v>3.227617162864382</v>
       </c>
       <c r="G5">
-        <v>3.429809846388888</v>
+        <v>5.830112625399535</v>
       </c>
       <c r="H5">
-        <v>0.4488628342622511</v>
+        <v>0.7629929921217707</v>
       </c>
       <c r="I5">
-        <v>3.326798672288541</v>
+        <v>5.655010572056262</v>
       </c>
       <c r="J5">
-        <v>2.3774411171022</v>
+        <v>4.041258872574216</v>
       </c>
       <c r="K5">
-        <v>3.14875581098243</v>
+        <v>5.35236699120122</v>
       </c>
       <c r="L5">
-        <v>17.56333672747734</v>
+        <v>29.85478373001287</v>
       </c>
       <c r="M5">
-        <v>11.05177688675659</v>
+        <v>18.78620298102457</v>
       </c>
       <c r="N5">
-        <v>0.1075820260365816</v>
+        <v>0.1828717498500118</v>
       </c>
       <c r="O5">
-        <v>0.4471172440849516</v>
+        <v>0.760025775924009</v>
       </c>
       <c r="P5">
-        <v>55.16376523463237</v>
+        <v>93.76932791117197</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.27639348004918</v>
+        <v>2.16965898294544</v>
       </c>
       <c r="C6">
-        <v>9.737835695738751</v>
+        <v>16.55271906504277</v>
       </c>
       <c r="D6">
-        <v>0.009575092916283917</v>
+        <v>0.01627608310687406</v>
       </c>
       <c r="E6">
-        <v>0.9107618812160861</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="F6">
-        <v>1.609836944234246</v>
+        <v>2.736458029385022</v>
       </c>
       <c r="G6">
-        <v>2.90788226106884</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="H6">
-        <v>0.5814813989306437</v>
+        <v>0.9884227397941123</v>
       </c>
       <c r="I6">
-        <v>4.309716461828336</v>
+        <v>7.325809150163791</v>
       </c>
       <c r="J6">
-        <v>2.752826556644652</v>
+        <v>4.679352378770145</v>
       </c>
       <c r="K6">
-        <v>3.64592778113755</v>
+        <v>6.197477568759307</v>
       </c>
       <c r="L6">
-        <v>18.22361254429979</v>
+        <v>30.97714402061486</v>
       </c>
       <c r="M6">
-        <v>11.46725722084518</v>
+        <v>19.49245121339392</v>
       </c>
       <c r="N6">
-        <v>0.1173622102217254</v>
+        <v>0.1994964543818309</v>
       </c>
       <c r="O6">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="P6">
-        <v>58.03823379540577</v>
+        <v>98.65545169005242</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1.254796297645641</v>
+        <v>2.132947325027582</v>
       </c>
       <c r="C7">
-        <v>9.573066902240638</v>
+        <v>16.27263921622648</v>
       </c>
       <c r="D7">
-        <v>0.007660074333027135</v>
+        <v>0.01302086648549925</v>
       </c>
       <c r="E7">
-        <v>0.7286095049728691</v>
+        <v>1.238516321364244</v>
       </c>
       <c r="F7">
-        <v>1.981337777519071</v>
+        <v>3.367948343858487</v>
       </c>
       <c r="G7">
-        <v>3.578932013623188</v>
+        <v>6.083595783025599</v>
       </c>
       <c r="H7">
-        <v>0.4386614062108363</v>
+        <v>0.7456522423008213</v>
       </c>
       <c r="I7">
-        <v>3.251189611554709</v>
+        <v>5.526487604509529</v>
       </c>
       <c r="J7">
-        <v>3.096929876225234</v>
+        <v>5.264271426116412</v>
       </c>
       <c r="K7">
-        <v>4.101668753779744</v>
+        <v>6.972162264854221</v>
       </c>
       <c r="L7">
-        <v>18.61977803439327</v>
+        <v>31.65056019497604</v>
       </c>
       <c r="M7">
-        <v>11.71654542129834</v>
+        <v>19.91620015281552</v>
       </c>
       <c r="N7">
-        <v>0.1075820260365816</v>
+        <v>0.1828717498500118</v>
       </c>
       <c r="O7">
-        <v>0.4471172440849516</v>
+        <v>0.760025775924009</v>
       </c>
       <c r="P7">
-        <v>58.90387494391809</v>
+        <v>100.1268992673345</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.321747563096613</v>
+        <v>2.246753464572943</v>
       </c>
       <c r="C8">
-        <v>10.08385016208481</v>
+        <v>17.14088674755698</v>
       </c>
       <c r="D8">
-        <v>0.008378206301748429</v>
+        <v>0.0142415727185148</v>
       </c>
       <c r="E8">
-        <v>0.7969166460640756</v>
+        <v>1.354627226492142</v>
       </c>
       <c r="F8">
-        <v>1.362169722044361</v>
+        <v>2.31546448640271</v>
       </c>
       <c r="G8">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H8">
-        <v>0.4692656903650807</v>
+        <v>0.7976744917636694</v>
       </c>
       <c r="I8">
-        <v>3.478016793756201</v>
+        <v>5.912056507149727</v>
       </c>
       <c r="J8">
-        <v>2.784108676606523</v>
+        <v>4.732526837619807</v>
       </c>
       <c r="K8">
-        <v>3.687358778650478</v>
+        <v>6.267903450222481</v>
       </c>
       <c r="L8">
-        <v>14.26195764336506</v>
+        <v>24.24298227700293</v>
       </c>
       <c r="M8">
-        <v>8.974375216313625</v>
+        <v>15.25496181917784</v>
       </c>
       <c r="N8">
-        <v>0.136922578592013</v>
+        <v>0.2327458634454695</v>
       </c>
       <c r="O8">
-        <v>0.5690583106535749</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="P8">
-        <v>50.3946417472601</v>
+        <v>85.6626023779495</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.803364730695542</v>
+        <v>3.065423436141189</v>
       </c>
       <c r="C9">
-        <v>13.75819425709283</v>
+        <v>23.38666737616026</v>
       </c>
       <c r="D9">
-        <v>0.004787546458141959</v>
+        <v>0.008138041553437031</v>
       </c>
       <c r="E9">
-        <v>0.4553809406080431</v>
+        <v>0.7740727008526525</v>
       </c>
       <c r="F9">
-        <v>2.724339444088722</v>
+        <v>4.63092897280542</v>
       </c>
       <c r="G9">
-        <v>4.921031518731882</v>
+        <v>8.364944201660201</v>
       </c>
       <c r="H9">
-        <v>0.6324885391877175</v>
+        <v>1.075126488898859</v>
       </c>
       <c r="I9">
-        <v>4.687761765497489</v>
+        <v>7.968423987897458</v>
       </c>
       <c r="J9">
-        <v>3.081288816244298</v>
+        <v>5.237684196691584</v>
       </c>
       <c r="K9">
-        <v>4.080953255023282</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="L9">
-        <v>13.86579215327158</v>
+        <v>23.56956610264174</v>
       </c>
       <c r="M9">
-        <v>8.725087015860467</v>
+        <v>14.83121287975624</v>
       </c>
       <c r="N9">
-        <v>0.09780184185143785</v>
+        <v>0.1662470453181925</v>
       </c>
       <c r="O9">
-        <v>0.4064702218954105</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="P9">
-        <v>59.24474204650684</v>
+        <v>100.7063172780671</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2.198593168680314</v>
+        <v>3.737246776038003</v>
       </c>
       <c r="C10">
-        <v>16.77346317810839</v>
+        <v>28.51212860949838</v>
       </c>
       <c r="D10">
-        <v>0.006463187718491645</v>
+        <v>0.01098635609713999</v>
       </c>
       <c r="E10">
-        <v>0.6147642698208582</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="F10">
-        <v>1.609836944234246</v>
+        <v>2.736458029385022</v>
       </c>
       <c r="G10">
-        <v>2.90788226106884</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="H10">
-        <v>0.6426899672391325</v>
+        <v>1.092467238719808</v>
       </c>
       <c r="I10">
-        <v>4.76337082623132</v>
+        <v>8.09694695544419</v>
       </c>
       <c r="J10">
-        <v>1.845645077750392</v>
+        <v>3.137293072129983</v>
       </c>
       <c r="K10">
-        <v>2.444428853262676</v>
+        <v>4.155127006327263</v>
       </c>
       <c r="L10">
-        <v>5.282206534579649</v>
+        <v>8.978882324815906</v>
       </c>
       <c r="M10">
-        <v>3.32384267270875</v>
+        <v>5.649985858954759</v>
       </c>
       <c r="N10">
-        <v>0.2151640520731632</v>
+        <v>0.3657434997000235</v>
       </c>
       <c r="O10">
-        <v>0.8942344881699033</v>
+        <v>1.520051551848018</v>
       </c>
       <c r="P10">
-        <v>43.52258548164612</v>
+        <v>73.98123699881788</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2.11760373466704</v>
+        <v>3.59957805884603</v>
       </c>
       <c r="C11">
-        <v>16.15558020249044</v>
+        <v>27.46182917643728</v>
       </c>
       <c r="D11">
-        <v>0.005745055749770351</v>
+        <v>0.009765649864124438</v>
       </c>
       <c r="E11">
-        <v>0.5464571287296517</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="F11">
-        <v>1.362169722044361</v>
+        <v>2.31546448640271</v>
       </c>
       <c r="G11">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H11">
-        <v>0.7549056758046951</v>
+        <v>1.283215486750251</v>
       </c>
       <c r="I11">
-        <v>5.595070494303456</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="J11">
-        <v>1.313849038398584</v>
+        <v>2.233327271685751</v>
       </c>
       <c r="K11">
-        <v>1.740101895542922</v>
+        <v>2.957887021453306</v>
       </c>
       <c r="L11">
-        <v>3.30137908411228</v>
+        <v>5.611801453009935</v>
       </c>
       <c r="M11">
-        <v>2.077401670442968</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="N11">
-        <v>0.03912073674057515</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O11">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P11">
-        <v>37.63248828715084</v>
+        <v>63.96904053416184</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.523681218569707</v>
+        <v>2.590007466104921</v>
       </c>
       <c r="C12">
-        <v>11.6244383812922</v>
+        <v>19.7596333339893</v>
       </c>
       <c r="D12">
-        <v>0.007899451655934229</v>
+        <v>0.0134277685631711</v>
       </c>
       <c r="E12">
-        <v>0.7513785520032713</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="F12">
-        <v>1.197058240584439</v>
+        <v>2.034802124414503</v>
       </c>
       <c r="G12">
-        <v>2.162271424897343</v>
+        <v>3.675505785577968</v>
       </c>
       <c r="H12">
-        <v>0.714099963599036</v>
+        <v>1.213852487466454</v>
       </c>
       <c r="I12">
-        <v>5.292634251368133</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="J12">
-        <v>0.8289761789895828</v>
+        <v>1.40912315951601</v>
       </c>
       <c r="K12">
-        <v>1.097921434092558</v>
+        <v>1.866285858774109</v>
       </c>
       <c r="L12">
-        <v>4.489875554392704</v>
+        <v>7.632049976093515</v>
       </c>
       <c r="M12">
-        <v>2.825266271802438</v>
+        <v>4.802487980111545</v>
       </c>
       <c r="N12">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O12">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P12">
-        <v>32.61635533599672</v>
+        <v>55.44243953906679</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.099296584340157</v>
+        <v>1.868623388019001</v>
       </c>
       <c r="C13">
-        <v>8.386731589054193</v>
+        <v>14.25606430474919</v>
       </c>
       <c r="D13">
-        <v>0.01244762079116909</v>
+        <v>0.02115890803893628</v>
       </c>
       <c r="E13">
-        <v>1.183990445580912</v>
+        <v>2.012589022216896</v>
       </c>
       <c r="F13">
-        <v>0.8668352776645942</v>
+        <v>1.473477400438089</v>
       </c>
       <c r="G13">
-        <v>1.565782755960144</v>
+        <v>2.6615731550737</v>
       </c>
       <c r="H13">
-        <v>0.612085683084888</v>
+        <v>1.04044498925696</v>
       </c>
       <c r="I13">
-        <v>4.536543644029828</v>
+        <v>7.711378052803992</v>
       </c>
       <c r="J13">
-        <v>0.6725655791802274</v>
+        <v>1.143250865267706</v>
       </c>
       <c r="K13">
-        <v>0.890766446527924</v>
+        <v>1.51415645145824</v>
       </c>
       <c r="L13">
-        <v>4.621930717757194</v>
+        <v>7.856522034213912</v>
       </c>
       <c r="M13">
-        <v>2.908362338620156</v>
+        <v>4.943737626585413</v>
       </c>
       <c r="N13">
-        <v>0.04890092092571893</v>
+        <v>0.08312352265909623</v>
       </c>
       <c r="O13">
-        <v>0.2032351109477052</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="P13">
-        <v>27.60947471446481</v>
+        <v>46.93156598256478</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.8239325086950293</v>
+        <v>1.400549749566304</v>
       </c>
       <c r="C14">
-        <v>6.285929471953192</v>
+        <v>10.68504623234148</v>
       </c>
       <c r="D14">
-        <v>0.007181319687212938</v>
+        <v>0.01220706233015555</v>
       </c>
       <c r="E14">
-        <v>0.6830714109120647</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="F14">
-        <v>0.4540565740147873</v>
+        <v>0.7718214954675704</v>
       </c>
       <c r="G14">
-        <v>0.8201719197886471</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="H14">
-        <v>0.601884255033473</v>
+        <v>1.023104239436011</v>
       </c>
       <c r="I14">
-        <v>4.460934583295996</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="J14">
-        <v>0.4223086194852592</v>
+        <v>0.71785519447042</v>
       </c>
       <c r="K14">
-        <v>0.5593184664245107</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="L14">
-        <v>2.37699294056084</v>
+        <v>4.040497046167155</v>
       </c>
       <c r="M14">
-        <v>1.495729202718937</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="N14">
-        <v>0.04890092092571893</v>
+        <v>0.08312352265909623</v>
       </c>
       <c r="O14">
-        <v>0.2032351109477052</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="P14">
-        <v>19.24364730444337</v>
+        <v>32.71103534398393</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.5194122368051233</v>
+        <v>0.8829153729244983</v>
       </c>
       <c r="C15">
-        <v>3.962689483629729</v>
+        <v>6.735920364031787</v>
       </c>
       <c r="D15">
-        <v>0.009575092916283917</v>
+        <v>0.01627608310687406</v>
       </c>
       <c r="E15">
-        <v>0.9107618812160861</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="F15">
-        <v>0.4540565740147873</v>
+        <v>0.7718214954675704</v>
       </c>
       <c r="G15">
-        <v>0.8201719197886471</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="H15">
-        <v>0.3366471256966884</v>
+        <v>0.5722447440913282</v>
       </c>
       <c r="I15">
-        <v>2.495099004216405</v>
+        <v>4.241257929042194</v>
       </c>
       <c r="J15">
-        <v>0.3753854395424525</v>
+        <v>0.6380935061959289</v>
       </c>
       <c r="K15">
-        <v>0.4971719701551205</v>
+        <v>0.8451105775580874</v>
       </c>
       <c r="L15">
-        <v>1.716717123738386</v>
+        <v>2.918136755565167</v>
       </c>
       <c r="M15">
-        <v>1.080248868630344</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="N15">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O15">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P15">
-        <v>13.27879113309942</v>
+        <v>22.5717609145695</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.3056001310100829</v>
+        <v>0.5194699595376987</v>
       </c>
       <c r="C16">
-        <v>2.331478427998365</v>
+        <v>3.96312986075051</v>
       </c>
       <c r="D16">
-        <v>0.005505678426863252</v>
+        <v>0.009358747786452586</v>
       </c>
       <c r="E16">
-        <v>0.5236880816992495</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="F16">
-        <v>0.1651114814599227</v>
+        <v>0.2806623619882071</v>
       </c>
       <c r="G16">
-        <v>0.2982443344685989</v>
+        <v>0.5069663152521334</v>
       </c>
       <c r="H16">
-        <v>0.153021420771222</v>
+        <v>0.2601112473142401</v>
       </c>
       <c r="I16">
-        <v>1.134135911007457</v>
+        <v>1.927844513200998</v>
       </c>
       <c r="J16">
-        <v>0.3441033195805815</v>
+        <v>0.5849190473462681</v>
       </c>
       <c r="K16">
-        <v>0.4557409726421938</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="L16">
-        <v>2.905213594018807</v>
+        <v>4.938385278648744</v>
       </c>
       <c r="M16">
-        <v>1.828113469989812</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="N16">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O16">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P16">
-        <v>10.55081123582252</v>
+        <v>17.93464377010293</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,49 +1230,49 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1846559095502622</v>
+        <v>0.3138846751976908</v>
       </c>
       <c r="C17">
-        <v>1.408773184408906</v>
+        <v>2.394682707379284</v>
       </c>
       <c r="D17">
-        <v>0.004069414489420665</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E17">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F17">
-        <v>0.04127787036498066</v>
+        <v>0.07016559049705177</v>
       </c>
       <c r="G17">
-        <v>0.07456108361714972</v>
+        <v>0.1267415788130334</v>
       </c>
       <c r="H17">
-        <v>0.06120856830848879</v>
+        <v>0.104044498925696</v>
       </c>
       <c r="I17">
-        <v>0.4536543644029825</v>
+        <v>0.7711378052803992</v>
       </c>
       <c r="J17">
-        <v>0.5005139193899368</v>
+        <v>0.8507913415945719</v>
       </c>
       <c r="K17">
-        <v>0.6628959602068273</v>
+        <v>1.126814103410783</v>
       </c>
       <c r="L17">
-        <v>2.773158430654314</v>
+        <v>4.713913220528348</v>
       </c>
       <c r="M17">
-        <v>1.745017403172094</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="N17">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O17">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P17">
-        <v>8.347287114456885</v>
+        <v>14.18901518551183</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1280,43 +1280,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.1382219673826524</v>
+        <v>0.2349546106742947</v>
       </c>
       <c r="C18">
-        <v>1.054520278387952</v>
+        <v>1.792511032424259</v>
       </c>
       <c r="D18">
-        <v>0.006223810395584546</v>
+        <v>0.01057945401946814</v>
       </c>
       <c r="E18">
-        <v>0.5919952227904561</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="F18">
-        <v>0.08255574072996133</v>
+        <v>0.1403311809941035</v>
       </c>
       <c r="G18">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="H18">
-        <v>0.0204028561028296</v>
+        <v>0.03468149964189867</v>
       </c>
       <c r="I18">
-        <v>0.1512181214676609</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="J18">
-        <v>0.4223086194852592</v>
+        <v>0.71785519447042</v>
       </c>
       <c r="K18">
-        <v>0.5593184664245107</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="L18">
-        <v>1.980827450467368</v>
+        <v>3.367080871805963</v>
       </c>
       <c r="M18">
-        <v>1.246441002265781</v>
+        <v>2.118744697108034</v>
       </c>
       <c r="P18">
-        <v>6.403155703134315</v>
+        <v>10.88431154471927</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,43 +1324,43 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.08098943401327287</v>
+        <v>0.1376687171919696</v>
       </c>
       <c r="C19">
-        <v>0.6178829756179414</v>
+        <v>1.05029943306109</v>
       </c>
       <c r="D19">
-        <v>0.002872527874885176</v>
+        <v>0.004882824932062219</v>
       </c>
       <c r="E19">
-        <v>0.2732285643648258</v>
+        <v>0.4644436205115914</v>
       </c>
       <c r="F19">
-        <v>0.1238336110949419</v>
+        <v>0.2104967714911554</v>
       </c>
       <c r="G19">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H19">
-        <v>0.0102014280514148</v>
+        <v>0.01734074982094934</v>
       </c>
       <c r="I19">
-        <v>0.07560906073383046</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="J19">
-        <v>0.3284622595996459</v>
+        <v>0.5583318179214378</v>
       </c>
       <c r="K19">
-        <v>0.4350254738857304</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="L19">
-        <v>2.905213594018807</v>
+        <v>4.938385278648744</v>
       </c>
       <c r="M19">
-        <v>1.828113469989812</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="P19">
-        <v>6.905115650096556</v>
+        <v>11.73756089535328</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,43 +1368,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1101456302580511</v>
+        <v>0.1872294553810786</v>
       </c>
       <c r="C20">
-        <v>0.8403208468404004</v>
+        <v>1.428407228963081</v>
       </c>
       <c r="D20">
-        <v>0.002154395906163881</v>
+        <v>0.003662118699046665</v>
       </c>
       <c r="E20">
-        <v>0.2049214232736194</v>
+        <v>0.3483327153836935</v>
       </c>
       <c r="F20">
-        <v>0.1238336110949419</v>
+        <v>0.2104967714911554</v>
       </c>
       <c r="G20">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H20">
-        <v>0.08161142441131841</v>
+        <v>0.1387259985675947</v>
       </c>
       <c r="I20">
-        <v>0.6048724858706437</v>
+        <v>1.028183740373866</v>
       </c>
       <c r="J20">
-        <v>0.3128211996187105</v>
+        <v>0.5317445884966074</v>
       </c>
       <c r="K20">
-        <v>0.4143099751292671</v>
+        <v>0.7042588146317394</v>
       </c>
       <c r="L20">
-        <v>1.584661960373895</v>
+        <v>2.693664697444769</v>
       </c>
       <c r="M20">
-        <v>0.9971528018126247</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="P20">
-        <v>5.500489005441086</v>
+        <v>9.34992662355816</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1412,49 +1412,49 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.2213711196362791</v>
+        <v>0.3762944936580503</v>
       </c>
       <c r="C21">
-        <v>1.688880133355707</v>
+        <v>2.870818450366978</v>
       </c>
       <c r="D21">
-        <v>0.00335128252069937</v>
+        <v>0.005696629087405921</v>
       </c>
       <c r="E21">
-        <v>0.3187666584256303</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="F21">
-        <v>0.1238336110949419</v>
+        <v>0.2104967714911554</v>
       </c>
       <c r="G21">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H21">
-        <v>0.05100714025707398</v>
+        <v>0.08670374910474667</v>
       </c>
       <c r="I21">
-        <v>0.3780453036691522</v>
+        <v>0.6426148377336659</v>
       </c>
       <c r="J21">
-        <v>0.4223086194852592</v>
+        <v>0.71785519447042</v>
       </c>
       <c r="K21">
-        <v>0.5593184664245107</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="L21">
-        <v>3.30137908411228</v>
+        <v>5.611801453009935</v>
       </c>
       <c r="M21">
-        <v>2.077401670442968</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="N21">
-        <v>0.02934055255543135</v>
+        <v>0.04987411359545774</v>
       </c>
       <c r="O21">
-        <v>0.1219410665686232</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="P21">
-        <v>9.520627959400006</v>
+        <v>16.18350163822353</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1462,49 +1462,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.6565543450675992</v>
+        <v>1.116034400702901</v>
       </c>
       <c r="C22">
-        <v>5.008971322342777</v>
+        <v>8.514427404015231</v>
       </c>
       <c r="D22">
-        <v>0.004308791812327762</v>
+        <v>0.00732423739809333</v>
       </c>
       <c r="E22">
-        <v>0.4098428465472388</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="F22">
-        <v>0.7842795369346323</v>
+        <v>1.333146219443985</v>
       </c>
       <c r="G22">
-        <v>1.416660588725845</v>
+        <v>2.408089997447633</v>
       </c>
       <c r="H22">
-        <v>0.2244314171311255</v>
+        <v>0.3814964960608854</v>
       </c>
       <c r="I22">
-        <v>1.66339933614427</v>
+        <v>2.827505286028131</v>
       </c>
       <c r="J22">
-        <v>0.9697457188180025</v>
+        <v>1.648408224339482</v>
       </c>
       <c r="K22">
-        <v>1.284360922900728</v>
+        <v>2.183202325358392</v>
       </c>
       <c r="L22">
-        <v>6.338647841495579</v>
+        <v>10.77465878977907</v>
       </c>
       <c r="M22">
-        <v>3.988611207250499</v>
+        <v>6.779983030745709</v>
       </c>
       <c r="N22">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O22">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P22">
-        <v>22.80024108154531</v>
+        <v>38.75665979897546</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1512,49 +1512,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.114414612022635</v>
+        <v>1.894321548561501</v>
       </c>
       <c r="C23">
-        <v>8.502069744502872</v>
+        <v>14.45212019892059</v>
       </c>
       <c r="D23">
-        <v>0.003111905197792273</v>
+        <v>0.00528972700973407</v>
       </c>
       <c r="E23">
-        <v>0.2959976113952281</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="F23">
-        <v>1.073224629489496</v>
+        <v>1.824305352923348</v>
       </c>
       <c r="G23">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="H23">
-        <v>0.601884255033473</v>
+        <v>1.023104239436011</v>
       </c>
       <c r="I23">
-        <v>4.460934583295996</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="J23">
-        <v>1.32949009837952</v>
+        <v>2.259914501110581</v>
       </c>
       <c r="K23">
-        <v>1.760817394299385</v>
+        <v>2.993099962184893</v>
       </c>
       <c r="L23">
-        <v>8.715640782056422</v>
+        <v>14.81515583594624</v>
       </c>
       <c r="M23">
-        <v>5.484340409969436</v>
+        <v>9.32247666727535</v>
       </c>
       <c r="N23">
-        <v>0.1173622102217254</v>
+        <v>0.1994964543818309</v>
       </c>
       <c r="O23">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="P23">
-        <v>35.88564067618437</v>
+        <v>60.99968690598116</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1562,49 +1562,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.750451633806872</v>
+        <v>2.975479874242436</v>
       </c>
       <c r="C24">
-        <v>13.35451071302245</v>
+        <v>22.70047174656035</v>
       </c>
       <c r="D24">
-        <v>0.003111905197792273</v>
+        <v>0.00528972700973407</v>
       </c>
       <c r="E24">
-        <v>0.2959976113952281</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="F24">
-        <v>1.073224629489496</v>
+        <v>1.824305352923348</v>
       </c>
       <c r="G24">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="H24">
-        <v>0.7549056758046951</v>
+        <v>1.283215486750251</v>
       </c>
       <c r="I24">
-        <v>5.595070494303456</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="J24">
-        <v>1.986414617578812</v>
+        <v>3.376578136953457</v>
       </c>
       <c r="K24">
-        <v>2.630868342070846</v>
+        <v>4.472043472911545</v>
       </c>
       <c r="L24">
-        <v>9.90413725233684</v>
+        <v>16.83540435902981</v>
       </c>
       <c r="M24">
-        <v>6.232205011328905</v>
+        <v>10.59372348554017</v>
       </c>
       <c r="N24">
-        <v>0.2053838678880195</v>
+        <v>0.3491187951682043</v>
       </c>
       <c r="O24">
-        <v>0.8535874659803621</v>
+        <v>1.45095829949129</v>
       </c>
       <c r="P24">
-        <v>46.57845739424966</v>
+        <v>79.17571663973195</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1612,49 +1612,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.701857973398907</v>
+        <v>2.892878643927256</v>
       </c>
       <c r="C25">
-        <v>12.98378092765167</v>
+        <v>22.0702920867237</v>
       </c>
       <c r="D25">
-        <v>0.005266301103956155</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E25">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F25">
-        <v>1.155780370219459</v>
+        <v>1.964636533917451</v>
       </c>
       <c r="G25">
-        <v>2.087710341280192</v>
+        <v>3.548764206764933</v>
       </c>
       <c r="H25">
-        <v>0.714099963599036</v>
+        <v>1.213852487466454</v>
       </c>
       <c r="I25">
-        <v>5.292634251368133</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="J25">
-        <v>1.657952357979166</v>
+        <v>2.81824631903202</v>
       </c>
       <c r="K25">
-        <v>2.195842868185115</v>
+        <v>3.732571717548218</v>
       </c>
       <c r="L25">
-        <v>11.88496470280421</v>
+        <v>20.20248523083578</v>
       </c>
       <c r="M25">
-        <v>7.478646013594684</v>
+        <v>12.71246818264821</v>
       </c>
       <c r="N25">
-        <v>0.03912073674057515</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O25">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P25">
-        <v>47.86116393135212</v>
+        <v>81.35610678133624</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1662,49 +1662,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.639226144428642</v>
+        <v>2.786414835965464</v>
       </c>
       <c r="C26">
-        <v>12.50595142650713</v>
+        <v>21.25806052515646</v>
       </c>
       <c r="D26">
-        <v>0.005745055749770351</v>
+        <v>0.009765649864124438</v>
       </c>
       <c r="E26">
-        <v>0.5464571287296517</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="F26">
-        <v>1.774948425694168</v>
+        <v>3.017120391373227</v>
       </c>
       <c r="G26">
-        <v>3.206126595537439</v>
+        <v>5.449887888960432</v>
       </c>
       <c r="H26">
-        <v>0.5508771147763991</v>
+        <v>0.936400490331264</v>
       </c>
       <c r="I26">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="J26">
-        <v>3.300263655977396</v>
+        <v>5.609905408639208</v>
       </c>
       <c r="K26">
-        <v>4.370970237613768</v>
+        <v>7.429930494364852</v>
       </c>
       <c r="L26">
-        <v>27.99569463327213</v>
+        <v>47.5880763215243</v>
       </c>
       <c r="M26">
-        <v>17.61636616535637</v>
+        <v>29.94492505246021</v>
       </c>
       <c r="N26">
-        <v>0.1662631311474443</v>
+        <v>0.2826199770409272</v>
       </c>
       <c r="O26">
-        <v>0.6909993772221978</v>
+        <v>1.174585290064378</v>
       </c>
       <c r="P26">
-        <v>78.45277837163935</v>
+        <v>133.3568198142916</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1712,49 +1712,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1.337945449899268</v>
+        <v>2.274287208011337</v>
       </c>
       <c r="C27">
-        <v>10.20742675720839</v>
+        <v>17.3509466341692</v>
       </c>
       <c r="D27">
-        <v>0.006463187718491645</v>
+        <v>0.01098635609713999</v>
       </c>
       <c r="E27">
-        <v>0.6147642698208582</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="F27">
-        <v>1.155780370219459</v>
+        <v>1.964636533917451</v>
       </c>
       <c r="G27">
-        <v>2.087710341280192</v>
+        <v>3.548764206764933</v>
       </c>
       <c r="H27">
-        <v>0.5406756867249843</v>
+        <v>0.9190597405103148</v>
       </c>
       <c r="I27">
-        <v>4.007280218893014</v>
+        <v>6.811717279976862</v>
       </c>
       <c r="J27">
-        <v>3.190776236110848</v>
+        <v>5.423794802665395</v>
       </c>
       <c r="K27">
-        <v>4.225961746318525</v>
+        <v>7.183439909243742</v>
       </c>
       <c r="L27">
-        <v>24.16609489570189</v>
+        <v>41.07838663603275</v>
       </c>
       <c r="M27">
-        <v>15.20658022764253</v>
+        <v>25.84868530471802</v>
       </c>
       <c r="N27">
-        <v>0.1271423944068692</v>
+        <v>0.2161211589136501</v>
       </c>
       <c r="O27">
-        <v>0.5284112884640336</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="P27">
-        <v>67.40301307040934</v>
+        <v>114.5740361978094</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1762,49 +1762,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1.437292488955549</v>
+        <v>2.443160834433487</v>
       </c>
       <c r="C28">
-        <v>10.96536320729974</v>
+        <v>18.63931393872413</v>
       </c>
       <c r="D28">
-        <v>0.0114901114995407</v>
+        <v>0.01953129972824888</v>
       </c>
       <c r="E28">
-        <v>1.092914257459303</v>
+        <v>1.857774482046366</v>
       </c>
       <c r="F28">
-        <v>1.733670555329188</v>
+        <v>2.946954800876177</v>
       </c>
       <c r="G28">
-        <v>3.131565511920289</v>
+        <v>5.323146310147401</v>
       </c>
       <c r="H28">
-        <v>0.601884255033473</v>
+        <v>1.023104239436011</v>
       </c>
       <c r="I28">
-        <v>4.460934583295996</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="J28">
-        <v>2.3774411171022</v>
+        <v>4.041258872574216</v>
       </c>
       <c r="K28">
-        <v>3.14875581098243</v>
+        <v>5.35236699120122</v>
       </c>
       <c r="L28">
-        <v>21.52499162841206</v>
+        <v>36.5889454736248</v>
       </c>
       <c r="M28">
-        <v>13.54465889128815</v>
+        <v>23.02369237524064</v>
       </c>
       <c r="N28">
-        <v>0.08802165766629404</v>
+        <v>0.1496223407863732</v>
       </c>
       <c r="O28">
-        <v>0.3658231997058696</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="P28">
-        <v>64.48480727595009</v>
+        <v>109.6135663152869</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1812,49 +1812,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.299070521572897</v>
+        <v>2.208206223759193</v>
       </c>
       <c r="C29">
-        <v>9.91084292891178</v>
+        <v>16.84680290629988</v>
       </c>
       <c r="D29">
-        <v>0.005505678426863252</v>
+        <v>0.009358747786452586</v>
       </c>
       <c r="E29">
-        <v>0.5236880816992495</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="F29">
-        <v>1.568559073869265</v>
+        <v>2.66629243888797</v>
       </c>
       <c r="G29">
-        <v>2.83332117745169</v>
+        <v>4.816179994895266</v>
       </c>
       <c r="H29">
-        <v>0.6528913952905473</v>
+        <v>1.109807988540757</v>
       </c>
       <c r="I29">
-        <v>4.838979886965149</v>
+        <v>8.225469922990925</v>
       </c>
       <c r="J29">
-        <v>2.09590203744536</v>
+        <v>3.56268874292727</v>
       </c>
       <c r="K29">
-        <v>2.775876833366089</v>
+        <v>4.718534058032654</v>
       </c>
       <c r="L29">
-        <v>13.60168182654259</v>
+        <v>23.12062198640094</v>
       </c>
       <c r="M29">
-        <v>8.558894882225028</v>
+        <v>14.5487135868085</v>
       </c>
       <c r="N29">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O29">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P29">
-        <v>48.76606873651588</v>
+        <v>82.89429611708746</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1862,49 +1862,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.363862068783514</v>
+        <v>2.318341197512768</v>
       </c>
       <c r="C30">
-        <v>10.40514930940613</v>
+        <v>17.68704245274874</v>
       </c>
       <c r="D30">
-        <v>0.005984433072677448</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E30">
-        <v>0.5692261757600539</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="F30">
-        <v>1.486003333139303</v>
+        <v>2.525961257893865</v>
       </c>
       <c r="G30">
-        <v>2.68419901021739</v>
+        <v>4.562696837269201</v>
       </c>
       <c r="H30">
-        <v>0.5406756867249843</v>
+        <v>0.9190597405103148</v>
       </c>
       <c r="I30">
-        <v>4.007280218893014</v>
+        <v>6.811717279976862</v>
       </c>
       <c r="J30">
-        <v>3.222058356072719</v>
+        <v>5.476969261515058</v>
       </c>
       <c r="K30">
-        <v>4.267392743831452</v>
+        <v>7.253865790706916</v>
       </c>
       <c r="L30">
-        <v>16.63895058392589</v>
+        <v>28.28347932317009</v>
       </c>
       <c r="M30">
-        <v>10.47010441903256</v>
+        <v>17.79745545570749</v>
       </c>
       <c r="N30">
-        <v>0.07824147348115029</v>
+        <v>0.132997636254554</v>
       </c>
       <c r="O30">
-        <v>0.3251761775163284</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="P30">
-        <v>56.06430398985717</v>
+        <v>95.30009568012728</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1912,49 +1912,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.394098124148472</v>
+        <v>2.369737518597769</v>
       </c>
       <c r="C31">
-        <v>10.6358256203035</v>
+        <v>18.07915424109155</v>
       </c>
       <c r="D31">
-        <v>0.005984433072677448</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E31">
-        <v>0.5692261757600539</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="F31">
-        <v>1.568559073869265</v>
+        <v>2.66629243888797</v>
       </c>
       <c r="G31">
-        <v>2.83332117745169</v>
+        <v>4.816179994895266</v>
       </c>
       <c r="H31">
-        <v>0.5712799708792289</v>
+        <v>0.9710819899731628</v>
       </c>
       <c r="I31">
-        <v>4.234107401094507</v>
+        <v>7.197286182617058</v>
       </c>
       <c r="J31">
-        <v>2.565133836873424</v>
+        <v>4.360305625672182</v>
       </c>
       <c r="K31">
-        <v>3.39734179605999</v>
+        <v>5.774922279980264</v>
       </c>
       <c r="L31">
-        <v>15.45045411364547</v>
+        <v>26.26323080008651</v>
       </c>
       <c r="M31">
-        <v>9.72223981767309</v>
+        <v>16.52620863744266</v>
       </c>
       <c r="N31">
-        <v>0.1956036837028757</v>
+        <v>0.3324940906363849</v>
       </c>
       <c r="O31">
-        <v>0.812940443790821</v>
+        <v>1.381865047134561</v>
       </c>
       <c r="P31">
-        <v>53.95611566832506</v>
+        <v>91.71652227502295</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1962,49 +1962,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.64030600354882</v>
+        <v>2.788250418861358</v>
       </c>
       <c r="C32">
-        <v>12.51418986618204</v>
+        <v>21.27206451759727</v>
       </c>
       <c r="D32">
-        <v>0.006463187718491645</v>
+        <v>0.01098635609713999</v>
       </c>
       <c r="E32">
-        <v>0.6147642698208582</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="F32">
-        <v>0.9906688887595354</v>
+        <v>1.683974171929243</v>
       </c>
       <c r="G32">
-        <v>1.789466006811594</v>
+        <v>3.041797891512799</v>
       </c>
       <c r="H32">
-        <v>0.6222871111363028</v>
+        <v>1.05778573907791</v>
       </c>
       <c r="I32">
-        <v>4.612152704763658</v>
+        <v>7.839901020350728</v>
       </c>
       <c r="J32">
-        <v>3.034365636301492</v>
+        <v>5.157922508417092</v>
       </c>
       <c r="K32">
-        <v>4.01880675875389</v>
+        <v>6.831310501927874</v>
       </c>
       <c r="L32">
-        <v>14.52606797009403</v>
+        <v>24.69192639324372</v>
       </c>
       <c r="M32">
-        <v>9.140567349949059</v>
+        <v>15.53746111212559</v>
       </c>
       <c r="N32">
-        <v>0.136922578592013</v>
+        <v>0.2327458634454695</v>
       </c>
       <c r="O32">
-        <v>0.5690583106535749</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="P32">
-        <v>54.21608664308536</v>
+        <v>92.15843017373146</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2012,49 +2012,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.803364730695542</v>
+        <v>3.065423436141189</v>
       </c>
       <c r="C33">
-        <v>13.75819425709283</v>
+        <v>23.38666737616026</v>
       </c>
       <c r="D33">
-        <v>0.004787546458141959</v>
+        <v>0.008138041553437031</v>
       </c>
       <c r="E33">
-        <v>0.4553809406080431</v>
+        <v>0.7740727008526525</v>
       </c>
       <c r="F33">
-        <v>2.724339444088722</v>
+        <v>4.63092897280542</v>
       </c>
       <c r="G33">
-        <v>4.921031518731882</v>
+        <v>8.364944201660201</v>
       </c>
       <c r="H33">
-        <v>0.6324885391877175</v>
+        <v>1.075126488898859</v>
       </c>
       <c r="I33">
-        <v>4.687761765497489</v>
+        <v>7.968423987897458</v>
       </c>
       <c r="J33">
-        <v>3.081288816244298</v>
+        <v>5.237684196691584</v>
       </c>
       <c r="K33">
-        <v>4.080953255023282</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="L33">
-        <v>13.86579215327158</v>
+        <v>23.56956610264174</v>
       </c>
       <c r="M33">
-        <v>8.725087015860467</v>
+        <v>14.83121287975624</v>
       </c>
       <c r="N33">
-        <v>0.09780184185143785</v>
+        <v>0.1662470453181925</v>
       </c>
       <c r="O33">
-        <v>0.4064702218954105</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="P33">
-        <v>59.24474204650684</v>
+        <v>100.7063172780671</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2062,49 +2062,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2.198593168680314</v>
+        <v>3.737246776038003</v>
       </c>
       <c r="C34">
-        <v>16.77346317810839</v>
+        <v>28.51212860949838</v>
       </c>
       <c r="D34">
-        <v>0.006463187718491645</v>
+        <v>0.01098635609713999</v>
       </c>
       <c r="E34">
-        <v>0.6147642698208582</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="F34">
-        <v>1.609836944234246</v>
+        <v>2.736458029385022</v>
       </c>
       <c r="G34">
-        <v>2.90788226106884</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="H34">
-        <v>0.6426899672391325</v>
+        <v>1.092467238719808</v>
       </c>
       <c r="I34">
-        <v>4.76337082623132</v>
+        <v>8.09694695544419</v>
       </c>
       <c r="J34">
-        <v>1.845645077750392</v>
+        <v>3.137293072129983</v>
       </c>
       <c r="K34">
-        <v>2.444428853262676</v>
+        <v>4.155127006327263</v>
       </c>
       <c r="L34">
-        <v>5.282206534579649</v>
+        <v>8.978882324815906</v>
       </c>
       <c r="M34">
-        <v>3.32384267270875</v>
+        <v>5.649985858954759</v>
       </c>
       <c r="N34">
-        <v>0.2151640520731632</v>
+        <v>0.3657434997000235</v>
       </c>
       <c r="O34">
-        <v>0.8942344881699033</v>
+        <v>1.520051551848018</v>
       </c>
       <c r="P34">
-        <v>43.52258548164612</v>
+        <v>73.98123699881788</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2112,49 +2112,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2.11760373466704</v>
+        <v>3.59957805884603</v>
       </c>
       <c r="C35">
-        <v>16.15558020249044</v>
+        <v>27.46182917643728</v>
       </c>
       <c r="D35">
-        <v>0.005745055749770351</v>
+        <v>0.009765649864124438</v>
       </c>
       <c r="E35">
-        <v>0.5464571287296517</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="F35">
-        <v>1.362169722044361</v>
+        <v>2.31546448640271</v>
       </c>
       <c r="G35">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H35">
-        <v>0.7549056758046951</v>
+        <v>1.283215486750251</v>
       </c>
       <c r="I35">
-        <v>5.595070494303456</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="J35">
-        <v>1.313849038398584</v>
+        <v>2.233327271685751</v>
       </c>
       <c r="K35">
-        <v>1.740101895542922</v>
+        <v>2.957887021453306</v>
       </c>
       <c r="L35">
-        <v>3.30137908411228</v>
+        <v>5.611801453009935</v>
       </c>
       <c r="M35">
-        <v>2.077401670442968</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="N35">
-        <v>0.03912073674057515</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O35">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P35">
-        <v>37.63248828715084</v>
+        <v>63.96904053416184</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2162,49 +2162,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.523681218569707</v>
+        <v>2.590007466104921</v>
       </c>
       <c r="C36">
-        <v>11.6244383812922</v>
+        <v>19.7596333339893</v>
       </c>
       <c r="D36">
-        <v>0.007899451655934229</v>
+        <v>0.0134277685631711</v>
       </c>
       <c r="E36">
-        <v>0.7513785520032713</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="F36">
-        <v>1.197058240584439</v>
+        <v>2.034802124414503</v>
       </c>
       <c r="G36">
-        <v>2.162271424897343</v>
+        <v>3.675505785577968</v>
       </c>
       <c r="H36">
-        <v>0.714099963599036</v>
+        <v>1.213852487466454</v>
       </c>
       <c r="I36">
-        <v>5.292634251368133</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="J36">
-        <v>0.8289761789895828</v>
+        <v>1.40912315951601</v>
       </c>
       <c r="K36">
-        <v>1.097921434092558</v>
+        <v>1.866285858774109</v>
       </c>
       <c r="L36">
-        <v>4.489875554392704</v>
+        <v>7.632049976093515</v>
       </c>
       <c r="M36">
-        <v>2.825266271802438</v>
+        <v>4.802487980111545</v>
       </c>
       <c r="N36">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O36">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P36">
-        <v>32.61635533599672</v>
+        <v>55.44243953906679</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2212,49 +2212,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.099296584340157</v>
+        <v>1.868623388019001</v>
       </c>
       <c r="C37">
-        <v>8.386731589054193</v>
+        <v>14.25606430474919</v>
       </c>
       <c r="D37">
-        <v>0.01244762079116909</v>
+        <v>0.02115890803893628</v>
       </c>
       <c r="E37">
-        <v>1.183990445580912</v>
+        <v>2.012589022216896</v>
       </c>
       <c r="F37">
-        <v>0.8668352776645942</v>
+        <v>1.473477400438089</v>
       </c>
       <c r="G37">
-        <v>1.565782755960144</v>
+        <v>2.6615731550737</v>
       </c>
       <c r="H37">
-        <v>0.612085683084888</v>
+        <v>1.04044498925696</v>
       </c>
       <c r="I37">
-        <v>4.536543644029828</v>
+        <v>7.711378052803992</v>
       </c>
       <c r="J37">
-        <v>0.6725655791802274</v>
+        <v>1.143250865267706</v>
       </c>
       <c r="K37">
-        <v>0.890766446527924</v>
+        <v>1.51415645145824</v>
       </c>
       <c r="L37">
-        <v>4.621930717757194</v>
+        <v>7.856522034213912</v>
       </c>
       <c r="M37">
-        <v>2.908362338620156</v>
+        <v>4.943737626585413</v>
       </c>
       <c r="N37">
-        <v>0.04890092092571893</v>
+        <v>0.08312352265909623</v>
       </c>
       <c r="O37">
-        <v>0.2032351109477052</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="P37">
-        <v>27.60947471446481</v>
+        <v>46.93156598256478</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2262,49 +2262,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.8239325086950293</v>
+        <v>1.400549749566304</v>
       </c>
       <c r="C38">
-        <v>6.285929471953192</v>
+        <v>10.68504623234148</v>
       </c>
       <c r="D38">
-        <v>0.007181319687212938</v>
+        <v>0.01220706233015555</v>
       </c>
       <c r="E38">
-        <v>0.6830714109120647</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="F38">
-        <v>0.4540565740147873</v>
+        <v>0.7718214954675704</v>
       </c>
       <c r="G38">
-        <v>0.8201719197886471</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="H38">
-        <v>0.601884255033473</v>
+        <v>1.023104239436011</v>
       </c>
       <c r="I38">
-        <v>4.460934583295996</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="J38">
-        <v>0.4223086194852592</v>
+        <v>0.71785519447042</v>
       </c>
       <c r="K38">
-        <v>0.5593184664245107</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="L38">
-        <v>2.37699294056084</v>
+        <v>4.040497046167155</v>
       </c>
       <c r="M38">
-        <v>1.495729202718937</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="N38">
-        <v>0.04890092092571893</v>
+        <v>0.08312352265909623</v>
       </c>
       <c r="O38">
-        <v>0.2032351109477052</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="P38">
-        <v>19.24364730444337</v>
+        <v>32.71103534398393</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2312,49 +2312,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.5194122368051233</v>
+        <v>0.8829153729244983</v>
       </c>
       <c r="C39">
-        <v>3.962689483629729</v>
+        <v>6.735920364031787</v>
       </c>
       <c r="D39">
-        <v>0.009575092916283917</v>
+        <v>0.01627608310687406</v>
       </c>
       <c r="E39">
-        <v>0.9107618812160861</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="F39">
-        <v>0.4540565740147873</v>
+        <v>0.7718214954675704</v>
       </c>
       <c r="G39">
-        <v>0.8201719197886471</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="H39">
-        <v>0.3366471256966884</v>
+        <v>0.5722447440913282</v>
       </c>
       <c r="I39">
-        <v>2.495099004216405</v>
+        <v>4.241257929042194</v>
       </c>
       <c r="J39">
-        <v>0.3753854395424525</v>
+        <v>0.6380935061959289</v>
       </c>
       <c r="K39">
-        <v>0.4971719701551205</v>
+        <v>0.8451105775580874</v>
       </c>
       <c r="L39">
-        <v>1.716717123738386</v>
+        <v>2.918136755565167</v>
       </c>
       <c r="M39">
-        <v>1.080248868630344</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="N39">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O39">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P39">
-        <v>13.27879113309942</v>
+        <v>22.5717609145695</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2362,49 +2362,49 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.3056001310100829</v>
+        <v>0.5194699595376987</v>
       </c>
       <c r="C40">
-        <v>2.331478427998365</v>
+        <v>3.96312986075051</v>
       </c>
       <c r="D40">
-        <v>0.005505678426863252</v>
+        <v>0.009358747786452586</v>
       </c>
       <c r="E40">
-        <v>0.5236880816992495</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="F40">
-        <v>0.1651114814599227</v>
+        <v>0.2806623619882071</v>
       </c>
       <c r="G40">
-        <v>0.2982443344685989</v>
+        <v>0.5069663152521334</v>
       </c>
       <c r="H40">
-        <v>0.153021420771222</v>
+        <v>0.2601112473142401</v>
       </c>
       <c r="I40">
-        <v>1.134135911007457</v>
+        <v>1.927844513200998</v>
       </c>
       <c r="J40">
-        <v>0.3441033195805815</v>
+        <v>0.5849190473462681</v>
       </c>
       <c r="K40">
-        <v>0.4557409726421938</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="L40">
-        <v>2.905213594018807</v>
+        <v>4.938385278648744</v>
       </c>
       <c r="M40">
-        <v>1.828113469989812</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="N40">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O40">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P40">
-        <v>10.55081123582252</v>
+        <v>17.93464377010293</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2412,49 +2412,49 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1846559095502622</v>
+        <v>0.3138846751976908</v>
       </c>
       <c r="C41">
-        <v>1.408773184408906</v>
+        <v>2.394682707379284</v>
       </c>
       <c r="D41">
-        <v>0.004069414489420665</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E41">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F41">
-        <v>0.04127787036498066</v>
+        <v>0.07016559049705177</v>
       </c>
       <c r="G41">
-        <v>0.07456108361714972</v>
+        <v>0.1267415788130334</v>
       </c>
       <c r="H41">
-        <v>0.06120856830848879</v>
+        <v>0.104044498925696</v>
       </c>
       <c r="I41">
-        <v>0.4536543644029825</v>
+        <v>0.7711378052803992</v>
       </c>
       <c r="J41">
-        <v>0.5005139193899368</v>
+        <v>0.8507913415945719</v>
       </c>
       <c r="K41">
-        <v>0.6628959602068273</v>
+        <v>1.126814103410783</v>
       </c>
       <c r="L41">
-        <v>2.773158430654314</v>
+        <v>4.713913220528348</v>
       </c>
       <c r="M41">
-        <v>1.745017403172094</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="N41">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O41">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P41">
-        <v>8.347287114456885</v>
+        <v>14.18901518551183</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2462,43 +2462,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.1382219673826524</v>
+        <v>0.2349546106742947</v>
       </c>
       <c r="C42">
-        <v>1.054520278387952</v>
+        <v>1.792511032424259</v>
       </c>
       <c r="D42">
-        <v>0.006223810395584546</v>
+        <v>0.01057945401946814</v>
       </c>
       <c r="E42">
-        <v>0.5919952227904561</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="F42">
-        <v>0.08255574072996133</v>
+        <v>0.1403311809941035</v>
       </c>
       <c r="G42">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="H42">
-        <v>0.0204028561028296</v>
+        <v>0.03468149964189867</v>
       </c>
       <c r="I42">
-        <v>0.1512181214676609</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="J42">
-        <v>0.4223086194852592</v>
+        <v>0.71785519447042</v>
       </c>
       <c r="K42">
-        <v>0.5593184664245107</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="L42">
-        <v>1.980827450467368</v>
+        <v>3.367080871805963</v>
       </c>
       <c r="M42">
-        <v>1.246441002265781</v>
+        <v>2.118744697108034</v>
       </c>
       <c r="P42">
-        <v>6.403155703134315</v>
+        <v>10.88431154471927</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2506,43 +2506,43 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.08098943401327287</v>
+        <v>0.1376687171919696</v>
       </c>
       <c r="C43">
-        <v>0.6178829756179414</v>
+        <v>1.05029943306109</v>
       </c>
       <c r="D43">
-        <v>0.002872527874885176</v>
+        <v>0.004882824932062219</v>
       </c>
       <c r="E43">
-        <v>0.2732285643648258</v>
+        <v>0.4644436205115914</v>
       </c>
       <c r="F43">
-        <v>0.1238336110949419</v>
+        <v>0.2104967714911554</v>
       </c>
       <c r="G43">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H43">
-        <v>0.0102014280514148</v>
+        <v>0.01734074982094934</v>
       </c>
       <c r="I43">
-        <v>0.07560906073383046</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="J43">
-        <v>0.3284622595996459</v>
+        <v>0.5583318179214378</v>
       </c>
       <c r="K43">
-        <v>0.4350254738857304</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="L43">
-        <v>2.905213594018807</v>
+        <v>4.938385278648744</v>
       </c>
       <c r="M43">
-        <v>1.828113469989812</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="P43">
-        <v>6.905115650096556</v>
+        <v>11.73756089535328</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2550,43 +2550,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.1101456302580511</v>
+        <v>0.1872294553810786</v>
       </c>
       <c r="C44">
-        <v>0.8403208468404004</v>
+        <v>1.428407228963081</v>
       </c>
       <c r="D44">
-        <v>0.002154395906163881</v>
+        <v>0.003662118699046665</v>
       </c>
       <c r="E44">
-        <v>0.2049214232736194</v>
+        <v>0.3483327153836935</v>
       </c>
       <c r="F44">
-        <v>0.1238336110949419</v>
+        <v>0.2104967714911554</v>
       </c>
       <c r="G44">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H44">
-        <v>0.08161142441131841</v>
+        <v>0.1387259985675947</v>
       </c>
       <c r="I44">
-        <v>0.6048724858706437</v>
+        <v>1.028183740373866</v>
       </c>
       <c r="J44">
-        <v>0.3128211996187105</v>
+        <v>0.5317445884966074</v>
       </c>
       <c r="K44">
-        <v>0.4143099751292671</v>
+        <v>0.7042588146317394</v>
       </c>
       <c r="L44">
-        <v>1.584661960373895</v>
+        <v>2.693664697444769</v>
       </c>
       <c r="M44">
-        <v>0.9971528018126247</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="P44">
-        <v>5.500489005441086</v>
+        <v>9.34992662355816</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2594,49 +2594,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.2213711196362791</v>
+        <v>0.3762944936580503</v>
       </c>
       <c r="C45">
-        <v>1.688880133355707</v>
+        <v>2.870818450366978</v>
       </c>
       <c r="D45">
-        <v>0.00335128252069937</v>
+        <v>0.005696629087405921</v>
       </c>
       <c r="E45">
-        <v>0.3187666584256303</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="F45">
-        <v>0.1238336110949419</v>
+        <v>0.2104967714911554</v>
       </c>
       <c r="G45">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H45">
-        <v>0.05100714025707398</v>
+        <v>0.08670374910474667</v>
       </c>
       <c r="I45">
-        <v>0.3780453036691522</v>
+        <v>0.6426148377336659</v>
       </c>
       <c r="J45">
-        <v>0.4223086194852592</v>
+        <v>0.71785519447042</v>
       </c>
       <c r="K45">
-        <v>0.5593184664245107</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="L45">
-        <v>3.30137908411228</v>
+        <v>5.611801453009935</v>
       </c>
       <c r="M45">
-        <v>2.077401670442968</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="N45">
-        <v>0.02934055255543135</v>
+        <v>0.04987411359545774</v>
       </c>
       <c r="O45">
-        <v>0.1219410665686232</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="P45">
-        <v>9.520627959400006</v>
+        <v>16.18350163822353</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2644,49 +2644,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.6565543450675992</v>
+        <v>1.116034400702901</v>
       </c>
       <c r="C46">
-        <v>5.008971322342777</v>
+        <v>8.514427404015231</v>
       </c>
       <c r="D46">
-        <v>0.004308791812327762</v>
+        <v>0.00732423739809333</v>
       </c>
       <c r="E46">
-        <v>0.4098428465472388</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="F46">
-        <v>0.7842795369346323</v>
+        <v>1.333146219443985</v>
       </c>
       <c r="G46">
-        <v>1.416660588725845</v>
+        <v>2.408089997447633</v>
       </c>
       <c r="H46">
-        <v>0.2244314171311255</v>
+        <v>0.3814964960608854</v>
       </c>
       <c r="I46">
-        <v>1.66339933614427</v>
+        <v>2.827505286028131</v>
       </c>
       <c r="J46">
-        <v>0.9697457188180025</v>
+        <v>1.648408224339482</v>
       </c>
       <c r="K46">
-        <v>1.284360922900728</v>
+        <v>2.183202325358392</v>
       </c>
       <c r="L46">
-        <v>6.338647841495579</v>
+        <v>10.77465878977907</v>
       </c>
       <c r="M46">
-        <v>3.988611207250499</v>
+        <v>6.779983030745709</v>
       </c>
       <c r="N46">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O46">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P46">
-        <v>22.80024108154531</v>
+        <v>38.75665979897546</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2694,49 +2694,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.114414612022635</v>
+        <v>1.894321548561501</v>
       </c>
       <c r="C47">
-        <v>8.502069744502872</v>
+        <v>14.45212019892059</v>
       </c>
       <c r="D47">
-        <v>0.003111905197792273</v>
+        <v>0.00528972700973407</v>
       </c>
       <c r="E47">
-        <v>0.2959976113952281</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="F47">
-        <v>1.073224629489496</v>
+        <v>1.824305352923348</v>
       </c>
       <c r="G47">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="H47">
-        <v>0.601884255033473</v>
+        <v>1.023104239436011</v>
       </c>
       <c r="I47">
-        <v>4.460934583295996</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="J47">
-        <v>1.32949009837952</v>
+        <v>2.259914501110581</v>
       </c>
       <c r="K47">
-        <v>1.760817394299385</v>
+        <v>2.993099962184893</v>
       </c>
       <c r="L47">
-        <v>8.715640782056422</v>
+        <v>14.81515583594624</v>
       </c>
       <c r="M47">
-        <v>5.484340409969436</v>
+        <v>9.32247666727535</v>
       </c>
       <c r="N47">
-        <v>0.1173622102217254</v>
+        <v>0.1994964543818309</v>
       </c>
       <c r="O47">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="P47">
-        <v>35.88564067618437</v>
+        <v>60.99968690598116</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2744,49 +2744,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.750451633806872</v>
+        <v>2.975479874242436</v>
       </c>
       <c r="C48">
-        <v>13.35451071302245</v>
+        <v>22.70047174656035</v>
       </c>
       <c r="D48">
-        <v>0.003111905197792273</v>
+        <v>0.00528972700973407</v>
       </c>
       <c r="E48">
-        <v>0.2959976113952281</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="F48">
-        <v>1.073224629489496</v>
+        <v>1.824305352923348</v>
       </c>
       <c r="G48">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="H48">
-        <v>0.7549056758046951</v>
+        <v>1.283215486750251</v>
       </c>
       <c r="I48">
-        <v>5.595070494303456</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="J48">
-        <v>1.986414617578812</v>
+        <v>3.376578136953457</v>
       </c>
       <c r="K48">
-        <v>2.630868342070846</v>
+        <v>4.472043472911545</v>
       </c>
       <c r="L48">
-        <v>9.90413725233684</v>
+        <v>16.83540435902981</v>
       </c>
       <c r="M48">
-        <v>6.232205011328905</v>
+        <v>10.59372348554017</v>
       </c>
       <c r="N48">
-        <v>0.2053838678880195</v>
+        <v>0.3491187951682043</v>
       </c>
       <c r="O48">
-        <v>0.8535874659803621</v>
+        <v>1.45095829949129</v>
       </c>
       <c r="P48">
-        <v>46.57845739424966</v>
+        <v>79.17571663973195</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2794,49 +2794,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.701857973398907</v>
+        <v>2.892878643927256</v>
       </c>
       <c r="C49">
-        <v>12.98378092765167</v>
+        <v>22.0702920867237</v>
       </c>
       <c r="D49">
-        <v>0.005266301103956155</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E49">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F49">
-        <v>1.155780370219459</v>
+        <v>1.964636533917451</v>
       </c>
       <c r="G49">
-        <v>2.087710341280192</v>
+        <v>3.548764206764933</v>
       </c>
       <c r="H49">
-        <v>0.714099963599036</v>
+        <v>1.213852487466454</v>
       </c>
       <c r="I49">
-        <v>5.292634251368133</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="J49">
-        <v>1.657952357979166</v>
+        <v>2.81824631903202</v>
       </c>
       <c r="K49">
-        <v>2.195842868185115</v>
+        <v>3.732571717548218</v>
       </c>
       <c r="L49">
-        <v>11.88496470280421</v>
+        <v>20.20248523083578</v>
       </c>
       <c r="M49">
-        <v>7.478646013594684</v>
+        <v>12.71246818264821</v>
       </c>
       <c r="N49">
-        <v>0.03912073674057515</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O49">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P49">
-        <v>47.86116393135212</v>
+        <v>81.35610678133624</v>
       </c>
     </row>
   </sheetData>
